--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8135000</v>
+        <v>8567200</v>
       </c>
       <c r="E8" s="3">
-        <v>7182600</v>
+        <v>7844400</v>
       </c>
       <c r="F8" s="3">
-        <v>7150300</v>
+        <v>6926100</v>
       </c>
       <c r="G8" s="3">
-        <v>7306500</v>
+        <v>6895000</v>
       </c>
       <c r="H8" s="3">
-        <v>7737400</v>
+        <v>7045600</v>
       </c>
       <c r="I8" s="3">
-        <v>7974400</v>
+        <v>7461100</v>
       </c>
       <c r="J8" s="3">
+        <v>7689600</v>
+      </c>
+      <c r="K8" s="3">
         <v>9148600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9763900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-185500</v>
+        <v>-391600</v>
       </c>
       <c r="E15" s="3">
-        <v>-157500</v>
+        <v>-178800</v>
       </c>
       <c r="F15" s="3">
-        <v>-211700</v>
+        <v>-151900</v>
       </c>
       <c r="G15" s="3">
-        <v>-202200</v>
+        <v>-204100</v>
       </c>
       <c r="H15" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-184600</v>
+      </c>
+      <c r="J15" s="3">
         <v>-191400</v>
       </c>
-      <c r="I15" s="3">
-        <v>-198500</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-187500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-177900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3740200</v>
+        <v>4107300</v>
       </c>
       <c r="E17" s="3">
-        <v>3521500</v>
+        <v>3606600</v>
       </c>
       <c r="F17" s="3">
-        <v>3682200</v>
+        <v>3395800</v>
       </c>
       <c r="G17" s="3">
-        <v>4240700</v>
+        <v>3550700</v>
       </c>
       <c r="H17" s="3">
-        <v>4900900</v>
+        <v>4089300</v>
       </c>
       <c r="I17" s="3">
-        <v>6049400</v>
+        <v>4725900</v>
       </c>
       <c r="J17" s="3">
+        <v>5833400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6595600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7124100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4394800</v>
+        <v>4459900</v>
       </c>
       <c r="E18" s="3">
-        <v>3661000</v>
+        <v>4237900</v>
       </c>
       <c r="F18" s="3">
-        <v>3468200</v>
+        <v>3530300</v>
       </c>
       <c r="G18" s="3">
-        <v>3065800</v>
+        <v>3344300</v>
       </c>
       <c r="H18" s="3">
-        <v>2836600</v>
+        <v>2956300</v>
       </c>
       <c r="I18" s="3">
-        <v>1925000</v>
+        <v>2735200</v>
       </c>
       <c r="J18" s="3">
+        <v>1856300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2553000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2639700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2038700</v>
+        <v>-2254200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2023500</v>
+        <v>-1965900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2163300</v>
+        <v>-1951200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1846200</v>
+        <v>-2086100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2135700</v>
+        <v>-1780200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1683400</v>
+        <v>-2059400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1623300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1177200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-578900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2587800</v>
+        <v>2615300</v>
       </c>
       <c r="E21" s="3">
-        <v>1838000</v>
+        <v>2492700</v>
       </c>
       <c r="F21" s="3">
-        <v>1519100</v>
+        <v>1770100</v>
       </c>
       <c r="G21" s="3">
-        <v>1424300</v>
+        <v>1462400</v>
       </c>
       <c r="H21" s="3">
-        <v>911000</v>
+        <v>1371100</v>
       </c>
       <c r="I21" s="3">
-        <v>497000</v>
+        <v>876100</v>
       </c>
       <c r="J21" s="3">
+        <v>476400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1623200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2301600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2356100</v>
+        <v>2205700</v>
       </c>
       <c r="E23" s="3">
-        <v>1637600</v>
+        <v>2271900</v>
       </c>
       <c r="F23" s="3">
-        <v>1304800</v>
+        <v>1579100</v>
       </c>
       <c r="G23" s="3">
-        <v>1219600</v>
+        <v>1258200</v>
       </c>
       <c r="H23" s="3">
-        <v>700900</v>
+        <v>1176100</v>
       </c>
       <c r="I23" s="3">
-        <v>241600</v>
+        <v>675900</v>
       </c>
       <c r="J23" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1375900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2060800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>632700</v>
+        <v>555200</v>
       </c>
       <c r="E24" s="3">
-        <v>352300</v>
+        <v>610100</v>
       </c>
       <c r="F24" s="3">
-        <v>231700</v>
+        <v>339700</v>
       </c>
       <c r="G24" s="3">
-        <v>316300</v>
+        <v>223400</v>
       </c>
       <c r="H24" s="3">
-        <v>242100</v>
+        <v>305000</v>
       </c>
       <c r="I24" s="3">
-        <v>29500</v>
+        <v>233400</v>
       </c>
       <c r="J24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K24" s="3">
         <v>299700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>491900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1723400</v>
+        <v>1650500</v>
       </c>
       <c r="E26" s="3">
-        <v>1285300</v>
+        <v>1661800</v>
       </c>
       <c r="F26" s="3">
-        <v>1073100</v>
+        <v>1239400</v>
       </c>
       <c r="G26" s="3">
-        <v>903300</v>
+        <v>1034800</v>
       </c>
       <c r="H26" s="3">
-        <v>458800</v>
+        <v>871100</v>
       </c>
       <c r="I26" s="3">
-        <v>212200</v>
+        <v>442400</v>
       </c>
       <c r="J26" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1076100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1568900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1580900</v>
+        <v>1513000</v>
       </c>
       <c r="E27" s="3">
-        <v>1129900</v>
+        <v>1524400</v>
       </c>
       <c r="F27" s="3">
-        <v>886000</v>
+        <v>1089500</v>
       </c>
       <c r="G27" s="3">
-        <v>735700</v>
+        <v>854300</v>
       </c>
       <c r="H27" s="3">
-        <v>323500</v>
+        <v>709400</v>
       </c>
       <c r="I27" s="3">
-        <v>111400</v>
+        <v>312000</v>
       </c>
       <c r="J27" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K27" s="3">
         <v>955200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1437400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,24 +1361,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>654100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-587700</v>
+        <v>630700</v>
       </c>
       <c r="J29" s="3">
+        <v>-566800</v>
+      </c>
+      <c r="K29" s="3">
         <v>393900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>456200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2038700</v>
+        <v>2254200</v>
       </c>
       <c r="E32" s="3">
-        <v>2023500</v>
+        <v>1965900</v>
       </c>
       <c r="F32" s="3">
-        <v>2163300</v>
+        <v>1951200</v>
       </c>
       <c r="G32" s="3">
-        <v>1846200</v>
+        <v>2086100</v>
       </c>
       <c r="H32" s="3">
-        <v>2135700</v>
+        <v>1780200</v>
       </c>
       <c r="I32" s="3">
-        <v>1683400</v>
+        <v>2059400</v>
       </c>
       <c r="J32" s="3">
+        <v>1623300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1177200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>578900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1580900</v>
+        <v>1513000</v>
       </c>
       <c r="E33" s="3">
-        <v>1129900</v>
+        <v>1524400</v>
       </c>
       <c r="F33" s="3">
-        <v>886000</v>
+        <v>1089500</v>
       </c>
       <c r="G33" s="3">
-        <v>735700</v>
+        <v>854300</v>
       </c>
       <c r="H33" s="3">
-        <v>977600</v>
+        <v>709400</v>
       </c>
       <c r="I33" s="3">
-        <v>-476400</v>
+        <v>942700</v>
       </c>
       <c r="J33" s="3">
+        <v>-459300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1349000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1893700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1580900</v>
+        <v>1513000</v>
       </c>
       <c r="E35" s="3">
-        <v>1129900</v>
+        <v>1524400</v>
       </c>
       <c r="F35" s="3">
-        <v>886000</v>
+        <v>1089500</v>
       </c>
       <c r="G35" s="3">
-        <v>735700</v>
+        <v>854300</v>
       </c>
       <c r="H35" s="3">
-        <v>977600</v>
+        <v>709400</v>
       </c>
       <c r="I35" s="3">
-        <v>-476400</v>
+        <v>942700</v>
       </c>
       <c r="J35" s="3">
+        <v>-459300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1349000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1893700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5329900</v>
+        <v>5077100</v>
       </c>
       <c r="E41" s="3">
-        <v>5081900</v>
+        <v>5139600</v>
       </c>
       <c r="F41" s="3">
-        <v>5959800</v>
+        <v>4900400</v>
       </c>
       <c r="G41" s="3">
-        <v>5068600</v>
+        <v>5747000</v>
       </c>
       <c r="H41" s="3">
-        <v>4369300</v>
+        <v>4887500</v>
       </c>
       <c r="I41" s="3">
-        <v>8644500</v>
+        <v>4213200</v>
       </c>
       <c r="J41" s="3">
+        <v>8335700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4853800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5647100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29776700</v>
+        <v>35907600</v>
       </c>
       <c r="E42" s="3">
-        <v>19980800</v>
+        <v>28713300</v>
       </c>
       <c r="F42" s="3">
-        <v>13257100</v>
+        <v>19267200</v>
       </c>
       <c r="G42" s="3">
-        <v>11894700</v>
+        <v>12783700</v>
       </c>
       <c r="H42" s="3">
-        <v>14783500</v>
+        <v>11469900</v>
       </c>
       <c r="I42" s="3">
-        <v>36582100</v>
+        <v>14255500</v>
       </c>
       <c r="J42" s="3">
+        <v>35275600</v>
+      </c>
+      <c r="K42" s="3">
         <v>47429400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>303600</v>
+        <v>653200</v>
       </c>
       <c r="E47" s="3">
-        <v>350300</v>
+        <v>292800</v>
       </c>
       <c r="F47" s="3">
-        <v>368800</v>
+        <v>337800</v>
       </c>
       <c r="G47" s="3">
-        <v>540800</v>
+        <v>355600</v>
       </c>
       <c r="H47" s="3">
-        <v>544700</v>
+        <v>521500</v>
       </c>
       <c r="I47" s="3">
-        <v>1496300</v>
+        <v>525200</v>
       </c>
       <c r="J47" s="3">
+        <v>1442900</v>
+      </c>
+      <c r="K47" s="3">
         <v>871900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>816800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2368100</v>
+        <v>2952400</v>
       </c>
       <c r="E48" s="3">
-        <v>2393000</v>
+        <v>2283600</v>
       </c>
       <c r="F48" s="3">
-        <v>2365900</v>
+        <v>2307600</v>
       </c>
       <c r="G48" s="3">
-        <v>2371100</v>
+        <v>2281400</v>
       </c>
       <c r="H48" s="3">
-        <v>2401300</v>
+        <v>2286400</v>
       </c>
       <c r="I48" s="3">
-        <v>4833500</v>
+        <v>2315500</v>
       </c>
       <c r="J48" s="3">
+        <v>4660800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4968600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3197500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>493300</v>
+        <v>683700</v>
       </c>
       <c r="E49" s="3">
-        <v>435600</v>
+        <v>475700</v>
       </c>
       <c r="F49" s="3">
-        <v>406300</v>
+        <v>420100</v>
       </c>
       <c r="G49" s="3">
-        <v>352600</v>
+        <v>391800</v>
       </c>
       <c r="H49" s="3">
-        <v>248400</v>
+        <v>340000</v>
       </c>
       <c r="I49" s="3">
-        <v>451800</v>
+        <v>239500</v>
       </c>
       <c r="J49" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K49" s="3">
         <v>728100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>394100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>120400</v>
+        <v>42700</v>
       </c>
       <c r="E52" s="3">
-        <v>276200</v>
+        <v>116100</v>
       </c>
       <c r="F52" s="3">
-        <v>256400</v>
+        <v>266300</v>
       </c>
       <c r="G52" s="3">
-        <v>191900</v>
+        <v>247300</v>
       </c>
       <c r="H52" s="3">
-        <v>223300</v>
+        <v>185100</v>
       </c>
       <c r="I52" s="3">
-        <v>71659400</v>
+        <v>215400</v>
       </c>
       <c r="J52" s="3">
+        <v>69100100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>285976000</v>
+        <v>293204000</v>
       </c>
       <c r="E54" s="3">
-        <v>265688000</v>
+        <v>275762000</v>
       </c>
       <c r="F54" s="3">
-        <v>260974000</v>
+        <v>256199000</v>
       </c>
       <c r="G54" s="3">
-        <v>245162000</v>
+        <v>251653000</v>
       </c>
       <c r="H54" s="3">
-        <v>226932000</v>
+        <v>236406000</v>
       </c>
       <c r="I54" s="3">
-        <v>286180000</v>
+        <v>218827000</v>
       </c>
       <c r="J54" s="3">
+        <v>275959000</v>
+      </c>
+      <c r="K54" s="3">
         <v>274766000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275257000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10988500</v>
+        <v>6922800</v>
       </c>
       <c r="E57" s="3">
-        <v>5537800</v>
+        <v>10596100</v>
       </c>
       <c r="F57" s="3">
-        <v>12440700</v>
+        <v>5340000</v>
       </c>
       <c r="G57" s="3">
-        <v>7036500</v>
+        <v>11996400</v>
       </c>
       <c r="H57" s="3">
-        <v>6966700</v>
+        <v>6785200</v>
       </c>
       <c r="I57" s="3">
-        <v>12900600</v>
+        <v>6717900</v>
       </c>
       <c r="J57" s="3">
+        <v>12439800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2058,48 +2191,54 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>6552200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6318200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1989900</v>
+        <v>2186100</v>
       </c>
       <c r="E59" s="3">
-        <v>1917300</v>
+        <v>1918800</v>
       </c>
       <c r="F59" s="3">
-        <v>1870800</v>
+        <v>1848800</v>
       </c>
       <c r="G59" s="3">
-        <v>1688500</v>
+        <v>1804000</v>
       </c>
       <c r="H59" s="3">
-        <v>2219400</v>
+        <v>1628200</v>
       </c>
       <c r="I59" s="3">
-        <v>3866800</v>
+        <v>2140100</v>
       </c>
       <c r="J59" s="3">
+        <v>3728700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3097800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>241300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36868700</v>
+        <v>40146900</v>
       </c>
       <c r="E61" s="3">
-        <v>35262600</v>
+        <v>35552000</v>
       </c>
       <c r="F61" s="3">
-        <v>32236200</v>
+        <v>34003300</v>
       </c>
       <c r="G61" s="3">
-        <v>32915100</v>
+        <v>31084900</v>
       </c>
       <c r="H61" s="3">
-        <v>33136200</v>
+        <v>31739500</v>
       </c>
       <c r="I61" s="3">
-        <v>28906600</v>
+        <v>31952700</v>
       </c>
       <c r="J61" s="3">
+        <v>27874300</v>
+      </c>
+      <c r="K61" s="3">
         <v>44470300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>459200</v>
+        <v>543300</v>
       </c>
       <c r="E62" s="3">
-        <v>400200</v>
+        <v>442800</v>
       </c>
       <c r="F62" s="3">
-        <v>432700</v>
+        <v>385900</v>
       </c>
       <c r="G62" s="3">
-        <v>534000</v>
+        <v>417300</v>
       </c>
       <c r="H62" s="3">
-        <v>663100</v>
+        <v>514900</v>
       </c>
       <c r="I62" s="3">
-        <v>1353300</v>
+        <v>639400</v>
       </c>
       <c r="J62" s="3">
+        <v>1304900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1843300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1119700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>267714000</v>
+        <v>275781000</v>
       </c>
       <c r="E66" s="3">
-        <v>248581000</v>
+        <v>258153000</v>
       </c>
       <c r="F66" s="3">
-        <v>243849000</v>
+        <v>239703000</v>
       </c>
       <c r="G66" s="3">
-        <v>229043000</v>
+        <v>235140000</v>
       </c>
       <c r="H66" s="3">
-        <v>211826000</v>
+        <v>220863000</v>
       </c>
       <c r="I66" s="3">
-        <v>271218000</v>
+        <v>204261000</v>
       </c>
       <c r="J66" s="3">
+        <v>261531000</v>
+      </c>
+      <c r="K66" s="3">
         <v>259061000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>259836000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14384700</v>
+        <v>15004900</v>
       </c>
       <c r="E72" s="3">
-        <v>13120800</v>
+        <v>13871000</v>
       </c>
       <c r="F72" s="3">
-        <v>12273700</v>
+        <v>12652200</v>
       </c>
       <c r="G72" s="3">
-        <v>11529900</v>
+        <v>11835400</v>
       </c>
       <c r="H72" s="3">
-        <v>11898900</v>
+        <v>11118200</v>
       </c>
       <c r="I72" s="3">
-        <v>22029300</v>
+        <v>11473900</v>
       </c>
       <c r="J72" s="3">
+        <v>21242600</v>
+      </c>
+      <c r="K72" s="3">
         <v>11660400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10932000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18261500</v>
+        <v>17423400</v>
       </c>
       <c r="E76" s="3">
-        <v>17107300</v>
+        <v>17609300</v>
       </c>
       <c r="F76" s="3">
-        <v>17124400</v>
+        <v>16496400</v>
       </c>
       <c r="G76" s="3">
-        <v>16118300</v>
+        <v>16512800</v>
       </c>
       <c r="H76" s="3">
-        <v>15106100</v>
+        <v>15542700</v>
       </c>
       <c r="I76" s="3">
-        <v>14962200</v>
+        <v>14566600</v>
       </c>
       <c r="J76" s="3">
+        <v>14427800</v>
+      </c>
+      <c r="K76" s="3">
         <v>15704600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15421100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1580900</v>
+        <v>1513000</v>
       </c>
       <c r="E81" s="3">
-        <v>1129900</v>
+        <v>1524400</v>
       </c>
       <c r="F81" s="3">
-        <v>886000</v>
+        <v>1089500</v>
       </c>
       <c r="G81" s="3">
-        <v>735700</v>
+        <v>854300</v>
       </c>
       <c r="H81" s="3">
-        <v>977600</v>
+        <v>709400</v>
       </c>
       <c r="I81" s="3">
-        <v>-476400</v>
+        <v>942700</v>
       </c>
       <c r="J81" s="3">
+        <v>-459300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1349000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1893700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>228900</v>
+        <v>409600</v>
       </c>
       <c r="E83" s="3">
-        <v>198100</v>
+        <v>220800</v>
       </c>
       <c r="F83" s="3">
-        <v>211700</v>
+        <v>191000</v>
       </c>
       <c r="G83" s="3">
-        <v>202200</v>
+        <v>204100</v>
       </c>
       <c r="H83" s="3">
-        <v>207700</v>
+        <v>195000</v>
       </c>
       <c r="I83" s="3">
-        <v>252400</v>
+        <v>200200</v>
       </c>
       <c r="J83" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K83" s="3">
         <v>244500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>240800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7664800</v>
+        <v>1515000</v>
       </c>
       <c r="E89" s="3">
-        <v>-1662400</v>
+        <v>7419700</v>
       </c>
       <c r="F89" s="3">
-        <v>4120400</v>
+        <v>-1603000</v>
       </c>
       <c r="G89" s="3">
-        <v>-322500</v>
+        <v>3973300</v>
       </c>
       <c r="H89" s="3">
-        <v>236200</v>
+        <v>-311000</v>
       </c>
       <c r="I89" s="3">
-        <v>-3353900</v>
+        <v>227800</v>
       </c>
       <c r="J89" s="3">
+        <v>-3234100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-121000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-942600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99700</v>
+        <v>-347900</v>
       </c>
       <c r="E91" s="3">
-        <v>-136300</v>
+        <v>-96100</v>
       </c>
       <c r="F91" s="3">
-        <v>-110000</v>
+        <v>-131400</v>
       </c>
       <c r="G91" s="3">
-        <v>-108700</v>
+        <v>-106100</v>
       </c>
       <c r="H91" s="3">
-        <v>-118100</v>
+        <v>-104900</v>
       </c>
       <c r="I91" s="3">
-        <v>-133900</v>
+        <v>-113900</v>
       </c>
       <c r="J91" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-212100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-204600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9299800</v>
+        <v>-6956400</v>
       </c>
       <c r="E94" s="3">
-        <v>1582300</v>
+        <v>-8967600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3549500</v>
+        <v>1525800</v>
       </c>
       <c r="G94" s="3">
-        <v>1070300</v>
+        <v>-3422700</v>
       </c>
       <c r="H94" s="3">
-        <v>-958500</v>
+        <v>1032100</v>
       </c>
       <c r="I94" s="3">
-        <v>-330100</v>
+        <v>-924200</v>
       </c>
       <c r="J94" s="3">
+        <v>-318300</v>
+      </c>
+      <c r="K94" s="3">
         <v>1975800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2124000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-282800</v>
+        <v>-354500</v>
       </c>
       <c r="E96" s="3">
-        <v>-282800</v>
+        <v>-272700</v>
       </c>
       <c r="F96" s="3">
-        <v>-141400</v>
+        <v>-272700</v>
       </c>
       <c r="G96" s="3">
-        <v>-424200</v>
+        <v>-136300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-409000</v>
       </c>
       <c r="I96" s="3">
-        <v>-317900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-306500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-288400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-177300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1274100</v>
+        <v>4998500</v>
       </c>
       <c r="E100" s="3">
-        <v>-51300</v>
+        <v>1228600</v>
       </c>
       <c r="F100" s="3">
-        <v>279800</v>
+        <v>-49500</v>
       </c>
       <c r="G100" s="3">
-        <v>-404400</v>
+        <v>269800</v>
       </c>
       <c r="H100" s="3">
-        <v>261600</v>
+        <v>-389900</v>
       </c>
       <c r="I100" s="3">
-        <v>3511200</v>
+        <v>252300</v>
       </c>
       <c r="J100" s="3">
+        <v>3385800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2248200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>154300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>196500</v>
+        <v>155100</v>
       </c>
       <c r="E101" s="3">
-        <v>-442400</v>
+        <v>189500</v>
       </c>
       <c r="F101" s="3">
-        <v>-55000</v>
+        <v>-426600</v>
       </c>
       <c r="G101" s="3">
-        <v>228800</v>
+        <v>-53000</v>
       </c>
       <c r="H101" s="3">
-        <v>32500</v>
+        <v>220600</v>
       </c>
       <c r="I101" s="3">
-        <v>-79800</v>
+        <v>31400</v>
       </c>
       <c r="J101" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-143800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-164400</v>
+        <v>-287800</v>
       </c>
       <c r="E102" s="3">
-        <v>-573800</v>
+        <v>-129900</v>
       </c>
       <c r="F102" s="3">
-        <v>795700</v>
+        <v>-553300</v>
       </c>
       <c r="G102" s="3">
-        <v>572200</v>
+        <v>767300</v>
       </c>
       <c r="H102" s="3">
-        <v>-428100</v>
+        <v>551800</v>
       </c>
       <c r="I102" s="3">
-        <v>-252600</v>
+        <v>-412800</v>
       </c>
       <c r="J102" s="3">
+        <v>-243600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-537200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1360500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8567200</v>
+        <v>8884500</v>
       </c>
       <c r="E8" s="3">
-        <v>7844400</v>
+        <v>8135000</v>
       </c>
       <c r="F8" s="3">
-        <v>6926100</v>
+        <v>7182600</v>
       </c>
       <c r="G8" s="3">
-        <v>6895000</v>
+        <v>7150300</v>
       </c>
       <c r="H8" s="3">
-        <v>7045600</v>
+        <v>7306500</v>
       </c>
       <c r="I8" s="3">
-        <v>7461100</v>
+        <v>7737400</v>
       </c>
       <c r="J8" s="3">
-        <v>7689600</v>
+        <v>7974400</v>
       </c>
       <c r="K8" s="3">
         <v>9148600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-391600</v>
+        <v>-406100</v>
       </c>
       <c r="E15" s="3">
-        <v>-178800</v>
+        <v>-185500</v>
       </c>
       <c r="F15" s="3">
-        <v>-151900</v>
+        <v>-157500</v>
       </c>
       <c r="G15" s="3">
-        <v>-204100</v>
+        <v>-211700</v>
       </c>
       <c r="H15" s="3">
-        <v>-195000</v>
+        <v>-202200</v>
       </c>
       <c r="I15" s="3">
-        <v>-184600</v>
+        <v>-191400</v>
       </c>
       <c r="J15" s="3">
-        <v>-191400</v>
+        <v>-198500</v>
       </c>
       <c r="K15" s="3">
         <v>-187500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4107300</v>
+        <v>4259400</v>
       </c>
       <c r="E17" s="3">
-        <v>3606600</v>
+        <v>3740200</v>
       </c>
       <c r="F17" s="3">
-        <v>3395800</v>
+        <v>3521500</v>
       </c>
       <c r="G17" s="3">
-        <v>3550700</v>
+        <v>3682200</v>
       </c>
       <c r="H17" s="3">
-        <v>4089300</v>
+        <v>4240700</v>
       </c>
       <c r="I17" s="3">
-        <v>4725900</v>
+        <v>4900900</v>
       </c>
       <c r="J17" s="3">
-        <v>5833400</v>
+        <v>6049400</v>
       </c>
       <c r="K17" s="3">
         <v>6595600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4459900</v>
+        <v>4625100</v>
       </c>
       <c r="E18" s="3">
-        <v>4237900</v>
+        <v>4394800</v>
       </c>
       <c r="F18" s="3">
-        <v>3530300</v>
+        <v>3661000</v>
       </c>
       <c r="G18" s="3">
-        <v>3344300</v>
+        <v>3468200</v>
       </c>
       <c r="H18" s="3">
-        <v>2956300</v>
+        <v>3065800</v>
       </c>
       <c r="I18" s="3">
-        <v>2735200</v>
+        <v>2836600</v>
       </c>
       <c r="J18" s="3">
-        <v>1856300</v>
+        <v>1925000</v>
       </c>
       <c r="K18" s="3">
         <v>2553000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2254200</v>
+        <v>-2337700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1965900</v>
+        <v>-2038700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1951200</v>
+        <v>-2023500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2086100</v>
+        <v>-2163300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1780200</v>
+        <v>-1846200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2059400</v>
+        <v>-2135700</v>
       </c>
       <c r="J20" s="3">
-        <v>-1623300</v>
+        <v>-1683400</v>
       </c>
       <c r="K20" s="3">
         <v>-1177200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2615300</v>
+        <v>2712200</v>
       </c>
       <c r="E21" s="3">
-        <v>2492700</v>
+        <v>2585000</v>
       </c>
       <c r="F21" s="3">
-        <v>1770100</v>
+        <v>1835700</v>
       </c>
       <c r="G21" s="3">
-        <v>1462400</v>
+        <v>1516600</v>
       </c>
       <c r="H21" s="3">
-        <v>1371100</v>
+        <v>1421900</v>
       </c>
       <c r="I21" s="3">
-        <v>876100</v>
+        <v>908600</v>
       </c>
       <c r="J21" s="3">
-        <v>476400</v>
+        <v>494000</v>
       </c>
       <c r="K21" s="3">
         <v>1623200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2205700</v>
+        <v>2287400</v>
       </c>
       <c r="E23" s="3">
-        <v>2271900</v>
+        <v>2356100</v>
       </c>
       <c r="F23" s="3">
-        <v>1579100</v>
+        <v>1637600</v>
       </c>
       <c r="G23" s="3">
-        <v>1258200</v>
+        <v>1304800</v>
       </c>
       <c r="H23" s="3">
-        <v>1176100</v>
+        <v>1219600</v>
       </c>
       <c r="I23" s="3">
-        <v>675900</v>
+        <v>700900</v>
       </c>
       <c r="J23" s="3">
-        <v>233000</v>
+        <v>241600</v>
       </c>
       <c r="K23" s="3">
         <v>1375900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>555200</v>
+        <v>575800</v>
       </c>
       <c r="E24" s="3">
-        <v>610100</v>
+        <v>632700</v>
       </c>
       <c r="F24" s="3">
-        <v>339700</v>
+        <v>352300</v>
       </c>
       <c r="G24" s="3">
-        <v>223400</v>
+        <v>231700</v>
       </c>
       <c r="H24" s="3">
-        <v>305000</v>
+        <v>316300</v>
       </c>
       <c r="I24" s="3">
-        <v>233400</v>
+        <v>242100</v>
       </c>
       <c r="J24" s="3">
-        <v>28400</v>
+        <v>29500</v>
       </c>
       <c r="K24" s="3">
         <v>299700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1650500</v>
+        <v>1711600</v>
       </c>
       <c r="E26" s="3">
-        <v>1661800</v>
+        <v>1723400</v>
       </c>
       <c r="F26" s="3">
-        <v>1239400</v>
+        <v>1285300</v>
       </c>
       <c r="G26" s="3">
-        <v>1034800</v>
+        <v>1073100</v>
       </c>
       <c r="H26" s="3">
-        <v>871100</v>
+        <v>903300</v>
       </c>
       <c r="I26" s="3">
-        <v>442400</v>
+        <v>458800</v>
       </c>
       <c r="J26" s="3">
-        <v>204600</v>
+        <v>212200</v>
       </c>
       <c r="K26" s="3">
         <v>1076100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1513000</v>
+        <v>1569000</v>
       </c>
       <c r="E27" s="3">
-        <v>1524400</v>
+        <v>1580900</v>
       </c>
       <c r="F27" s="3">
-        <v>1089500</v>
+        <v>1129900</v>
       </c>
       <c r="G27" s="3">
-        <v>854300</v>
+        <v>886000</v>
       </c>
       <c r="H27" s="3">
-        <v>709400</v>
+        <v>735700</v>
       </c>
       <c r="I27" s="3">
-        <v>312000</v>
+        <v>323500</v>
       </c>
       <c r="J27" s="3">
-        <v>107400</v>
+        <v>111400</v>
       </c>
       <c r="K27" s="3">
         <v>955200</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>630700</v>
+        <v>654100</v>
       </c>
       <c r="J29" s="3">
-        <v>-566800</v>
+        <v>-587700</v>
       </c>
       <c r="K29" s="3">
         <v>393900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2254200</v>
+        <v>2337700</v>
       </c>
       <c r="E32" s="3">
-        <v>1965900</v>
+        <v>2038700</v>
       </c>
       <c r="F32" s="3">
-        <v>1951200</v>
+        <v>2023500</v>
       </c>
       <c r="G32" s="3">
-        <v>2086100</v>
+        <v>2163300</v>
       </c>
       <c r="H32" s="3">
-        <v>1780200</v>
+        <v>1846200</v>
       </c>
       <c r="I32" s="3">
-        <v>2059400</v>
+        <v>2135700</v>
       </c>
       <c r="J32" s="3">
-        <v>1623300</v>
+        <v>1683400</v>
       </c>
       <c r="K32" s="3">
         <v>1177200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1513000</v>
+        <v>1569000</v>
       </c>
       <c r="E33" s="3">
-        <v>1524400</v>
+        <v>1580900</v>
       </c>
       <c r="F33" s="3">
-        <v>1089500</v>
+        <v>1129900</v>
       </c>
       <c r="G33" s="3">
-        <v>854300</v>
+        <v>886000</v>
       </c>
       <c r="H33" s="3">
-        <v>709400</v>
+        <v>735700</v>
       </c>
       <c r="I33" s="3">
-        <v>942700</v>
+        <v>977600</v>
       </c>
       <c r="J33" s="3">
-        <v>-459300</v>
+        <v>-476400</v>
       </c>
       <c r="K33" s="3">
         <v>1349000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1513000</v>
+        <v>1569000</v>
       </c>
       <c r="E35" s="3">
-        <v>1524400</v>
+        <v>1580900</v>
       </c>
       <c r="F35" s="3">
-        <v>1089500</v>
+        <v>1129900</v>
       </c>
       <c r="G35" s="3">
-        <v>854300</v>
+        <v>886000</v>
       </c>
       <c r="H35" s="3">
-        <v>709400</v>
+        <v>735700</v>
       </c>
       <c r="I35" s="3">
-        <v>942700</v>
+        <v>977600</v>
       </c>
       <c r="J35" s="3">
-        <v>-459300</v>
+        <v>-476400</v>
       </c>
       <c r="K35" s="3">
         <v>1349000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5077100</v>
+        <v>5265200</v>
       </c>
       <c r="E41" s="3">
-        <v>5139600</v>
+        <v>5329900</v>
       </c>
       <c r="F41" s="3">
-        <v>4900400</v>
+        <v>5081900</v>
       </c>
       <c r="G41" s="3">
-        <v>5747000</v>
+        <v>5959800</v>
       </c>
       <c r="H41" s="3">
-        <v>4887500</v>
+        <v>5068600</v>
       </c>
       <c r="I41" s="3">
-        <v>4213200</v>
+        <v>4369300</v>
       </c>
       <c r="J41" s="3">
-        <v>8335700</v>
+        <v>8644500</v>
       </c>
       <c r="K41" s="3">
         <v>4853800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35907600</v>
+        <v>37237500</v>
       </c>
       <c r="E42" s="3">
-        <v>28713300</v>
+        <v>29776700</v>
       </c>
       <c r="F42" s="3">
-        <v>19267200</v>
+        <v>19980800</v>
       </c>
       <c r="G42" s="3">
-        <v>12783700</v>
+        <v>13257100</v>
       </c>
       <c r="H42" s="3">
-        <v>11469900</v>
+        <v>11894700</v>
       </c>
       <c r="I42" s="3">
-        <v>14255500</v>
+        <v>14783500</v>
       </c>
       <c r="J42" s="3">
-        <v>35275600</v>
+        <v>36582100</v>
       </c>
       <c r="K42" s="3">
         <v>47429400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>653200</v>
+        <v>677300</v>
       </c>
       <c r="E47" s="3">
-        <v>292800</v>
+        <v>303600</v>
       </c>
       <c r="F47" s="3">
-        <v>337800</v>
+        <v>350300</v>
       </c>
       <c r="G47" s="3">
-        <v>355600</v>
+        <v>368800</v>
       </c>
       <c r="H47" s="3">
-        <v>521500</v>
+        <v>540800</v>
       </c>
       <c r="I47" s="3">
-        <v>525200</v>
+        <v>544700</v>
       </c>
       <c r="J47" s="3">
-        <v>1442900</v>
+        <v>1496300</v>
       </c>
       <c r="K47" s="3">
         <v>871900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2952400</v>
+        <v>3061800</v>
       </c>
       <c r="E48" s="3">
-        <v>2283600</v>
+        <v>2368100</v>
       </c>
       <c r="F48" s="3">
-        <v>2307600</v>
+        <v>2393000</v>
       </c>
       <c r="G48" s="3">
-        <v>2281400</v>
+        <v>2365900</v>
       </c>
       <c r="H48" s="3">
-        <v>2286400</v>
+        <v>2371100</v>
       </c>
       <c r="I48" s="3">
-        <v>2315500</v>
+        <v>2401300</v>
       </c>
       <c r="J48" s="3">
-        <v>4660800</v>
+        <v>4833500</v>
       </c>
       <c r="K48" s="3">
         <v>4968600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>683700</v>
+        <v>709100</v>
       </c>
       <c r="E49" s="3">
-        <v>475700</v>
+        <v>493300</v>
       </c>
       <c r="F49" s="3">
-        <v>420100</v>
+        <v>435600</v>
       </c>
       <c r="G49" s="3">
-        <v>391800</v>
+        <v>406300</v>
       </c>
       <c r="H49" s="3">
-        <v>340000</v>
+        <v>352600</v>
       </c>
       <c r="I49" s="3">
-        <v>239500</v>
+        <v>248400</v>
       </c>
       <c r="J49" s="3">
-        <v>435700</v>
+        <v>451800</v>
       </c>
       <c r="K49" s="3">
         <v>728100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42700</v>
+        <v>44300</v>
       </c>
       <c r="E52" s="3">
-        <v>116100</v>
+        <v>120400</v>
       </c>
       <c r="F52" s="3">
-        <v>266300</v>
+        <v>276200</v>
       </c>
       <c r="G52" s="3">
-        <v>247300</v>
+        <v>256400</v>
       </c>
       <c r="H52" s="3">
-        <v>185100</v>
+        <v>191900</v>
       </c>
       <c r="I52" s="3">
-        <v>215400</v>
+        <v>223300</v>
       </c>
       <c r="J52" s="3">
-        <v>69100100</v>
+        <v>71659400</v>
       </c>
       <c r="K52" s="3">
         <v>200600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>293204000</v>
+        <v>304064000</v>
       </c>
       <c r="E54" s="3">
-        <v>275762000</v>
+        <v>285976000</v>
       </c>
       <c r="F54" s="3">
-        <v>256199000</v>
+        <v>265688000</v>
       </c>
       <c r="G54" s="3">
-        <v>251653000</v>
+        <v>260974000</v>
       </c>
       <c r="H54" s="3">
-        <v>236406000</v>
+        <v>245162000</v>
       </c>
       <c r="I54" s="3">
-        <v>218827000</v>
+        <v>226932000</v>
       </c>
       <c r="J54" s="3">
-        <v>275959000</v>
+        <v>286180000</v>
       </c>
       <c r="K54" s="3">
         <v>274766000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6922800</v>
+        <v>7179200</v>
       </c>
       <c r="E57" s="3">
-        <v>10596100</v>
+        <v>10988500</v>
       </c>
       <c r="F57" s="3">
-        <v>5340000</v>
+        <v>5537800</v>
       </c>
       <c r="G57" s="3">
-        <v>11996400</v>
+        <v>12440700</v>
       </c>
       <c r="H57" s="3">
-        <v>6785200</v>
+        <v>7036500</v>
       </c>
       <c r="I57" s="3">
-        <v>6717900</v>
+        <v>6966700</v>
       </c>
       <c r="J57" s="3">
-        <v>12439800</v>
+        <v>12900600</v>
       </c>
       <c r="K57" s="3">
         <v>1000300</v>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>6318200</v>
+        <v>6552200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2186100</v>
+        <v>2267100</v>
       </c>
       <c r="E59" s="3">
-        <v>1918800</v>
+        <v>1989900</v>
       </c>
       <c r="F59" s="3">
-        <v>1848800</v>
+        <v>1917300</v>
       </c>
       <c r="G59" s="3">
-        <v>1804000</v>
+        <v>1870800</v>
       </c>
       <c r="H59" s="3">
-        <v>1628200</v>
+        <v>1688500</v>
       </c>
       <c r="I59" s="3">
-        <v>2140100</v>
+        <v>2219400</v>
       </c>
       <c r="J59" s="3">
-        <v>3728700</v>
+        <v>3866800</v>
       </c>
       <c r="K59" s="3">
         <v>3097800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40146900</v>
+        <v>41633900</v>
       </c>
       <c r="E61" s="3">
-        <v>35552000</v>
+        <v>36868700</v>
       </c>
       <c r="F61" s="3">
-        <v>34003300</v>
+        <v>35262600</v>
       </c>
       <c r="G61" s="3">
-        <v>31084900</v>
+        <v>32236200</v>
       </c>
       <c r="H61" s="3">
-        <v>31739500</v>
+        <v>32915100</v>
       </c>
       <c r="I61" s="3">
-        <v>31952700</v>
+        <v>33136200</v>
       </c>
       <c r="J61" s="3">
-        <v>27874300</v>
+        <v>28906600</v>
       </c>
       <c r="K61" s="3">
         <v>44470300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>543300</v>
+        <v>563400</v>
       </c>
       <c r="E62" s="3">
-        <v>442800</v>
+        <v>459200</v>
       </c>
       <c r="F62" s="3">
-        <v>385900</v>
+        <v>400200</v>
       </c>
       <c r="G62" s="3">
-        <v>417300</v>
+        <v>432700</v>
       </c>
       <c r="H62" s="3">
-        <v>514900</v>
+        <v>534000</v>
       </c>
       <c r="I62" s="3">
-        <v>639400</v>
+        <v>663100</v>
       </c>
       <c r="J62" s="3">
-        <v>1304900</v>
+        <v>1353300</v>
       </c>
       <c r="K62" s="3">
         <v>1843300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>275781000</v>
+        <v>285995000</v>
       </c>
       <c r="E66" s="3">
-        <v>258153000</v>
+        <v>267714000</v>
       </c>
       <c r="F66" s="3">
-        <v>239703000</v>
+        <v>248581000</v>
       </c>
       <c r="G66" s="3">
-        <v>235140000</v>
+        <v>243849000</v>
       </c>
       <c r="H66" s="3">
-        <v>220863000</v>
+        <v>229043000</v>
       </c>
       <c r="I66" s="3">
-        <v>204261000</v>
+        <v>211826000</v>
       </c>
       <c r="J66" s="3">
-        <v>261531000</v>
+        <v>271218000</v>
       </c>
       <c r="K66" s="3">
         <v>259061000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15004900</v>
+        <v>15560600</v>
       </c>
       <c r="E72" s="3">
-        <v>13871000</v>
+        <v>14384700</v>
       </c>
       <c r="F72" s="3">
-        <v>12652200</v>
+        <v>13120800</v>
       </c>
       <c r="G72" s="3">
-        <v>11835400</v>
+        <v>12273700</v>
       </c>
       <c r="H72" s="3">
-        <v>11118200</v>
+        <v>11529900</v>
       </c>
       <c r="I72" s="3">
-        <v>11473900</v>
+        <v>11898900</v>
       </c>
       <c r="J72" s="3">
-        <v>21242600</v>
+        <v>22029300</v>
       </c>
       <c r="K72" s="3">
         <v>11660400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17423400</v>
+        <v>18068700</v>
       </c>
       <c r="E76" s="3">
-        <v>17609300</v>
+        <v>18261500</v>
       </c>
       <c r="F76" s="3">
-        <v>16496400</v>
+        <v>17107300</v>
       </c>
       <c r="G76" s="3">
-        <v>16512800</v>
+        <v>17124400</v>
       </c>
       <c r="H76" s="3">
-        <v>15542700</v>
+        <v>16118300</v>
       </c>
       <c r="I76" s="3">
-        <v>14566600</v>
+        <v>15106100</v>
       </c>
       <c r="J76" s="3">
-        <v>14427800</v>
+        <v>14962200</v>
       </c>
       <c r="K76" s="3">
         <v>15704600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1513000</v>
+        <v>1569000</v>
       </c>
       <c r="E81" s="3">
-        <v>1524400</v>
+        <v>1580900</v>
       </c>
       <c r="F81" s="3">
-        <v>1089500</v>
+        <v>1129900</v>
       </c>
       <c r="G81" s="3">
-        <v>854300</v>
+        <v>886000</v>
       </c>
       <c r="H81" s="3">
-        <v>709400</v>
+        <v>735700</v>
       </c>
       <c r="I81" s="3">
-        <v>942700</v>
+        <v>977600</v>
       </c>
       <c r="J81" s="3">
-        <v>-459300</v>
+        <v>-476400</v>
       </c>
       <c r="K81" s="3">
         <v>1349000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409600</v>
+        <v>424800</v>
       </c>
       <c r="E83" s="3">
-        <v>220800</v>
+        <v>228900</v>
       </c>
       <c r="F83" s="3">
-        <v>191000</v>
+        <v>198100</v>
       </c>
       <c r="G83" s="3">
-        <v>204100</v>
+        <v>211700</v>
       </c>
       <c r="H83" s="3">
-        <v>195000</v>
+        <v>202200</v>
       </c>
       <c r="I83" s="3">
-        <v>200200</v>
+        <v>207700</v>
       </c>
       <c r="J83" s="3">
-        <v>243400</v>
+        <v>252400</v>
       </c>
       <c r="K83" s="3">
         <v>244500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1515000</v>
+        <v>1571100</v>
       </c>
       <c r="E89" s="3">
-        <v>7419700</v>
+        <v>7694500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1603000</v>
+        <v>-1662400</v>
       </c>
       <c r="G89" s="3">
-        <v>3973300</v>
+        <v>4120400</v>
       </c>
       <c r="H89" s="3">
-        <v>-311000</v>
+        <v>-322500</v>
       </c>
       <c r="I89" s="3">
-        <v>227800</v>
+        <v>236200</v>
       </c>
       <c r="J89" s="3">
-        <v>-3234100</v>
+        <v>-3353900</v>
       </c>
       <c r="K89" s="3">
         <v>-121000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347900</v>
+        <v>-360800</v>
       </c>
       <c r="E91" s="3">
-        <v>-96100</v>
+        <v>-99700</v>
       </c>
       <c r="F91" s="3">
-        <v>-131400</v>
+        <v>-136300</v>
       </c>
       <c r="G91" s="3">
-        <v>-106100</v>
+        <v>-110000</v>
       </c>
       <c r="H91" s="3">
-        <v>-104900</v>
+        <v>-108700</v>
       </c>
       <c r="I91" s="3">
-        <v>-113900</v>
+        <v>-118100</v>
       </c>
       <c r="J91" s="3">
-        <v>-129100</v>
+        <v>-133900</v>
       </c>
       <c r="K91" s="3">
         <v>-212100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6956400</v>
+        <v>-7214000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8967600</v>
+        <v>-9299800</v>
       </c>
       <c r="F94" s="3">
-        <v>1525800</v>
+        <v>1582300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3422700</v>
+        <v>-3549500</v>
       </c>
       <c r="H94" s="3">
-        <v>1032100</v>
+        <v>1070300</v>
       </c>
       <c r="I94" s="3">
-        <v>-924200</v>
+        <v>-958500</v>
       </c>
       <c r="J94" s="3">
-        <v>-318300</v>
+        <v>-330100</v>
       </c>
       <c r="K94" s="3">
         <v>1975800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354500</v>
+        <v>-367600</v>
       </c>
       <c r="E96" s="3">
-        <v>-272700</v>
+        <v>-282800</v>
       </c>
       <c r="F96" s="3">
-        <v>-272700</v>
+        <v>-282800</v>
       </c>
       <c r="G96" s="3">
-        <v>-136300</v>
+        <v>-141400</v>
       </c>
       <c r="H96" s="3">
-        <v>-409000</v>
+        <v>-424200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-306500</v>
+        <v>-317900</v>
       </c>
       <c r="K96" s="3">
         <v>-288400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4998500</v>
+        <v>5183600</v>
       </c>
       <c r="E100" s="3">
-        <v>1228600</v>
+        <v>1274100</v>
       </c>
       <c r="F100" s="3">
-        <v>-49500</v>
+        <v>-51300</v>
       </c>
       <c r="G100" s="3">
-        <v>269800</v>
+        <v>279800</v>
       </c>
       <c r="H100" s="3">
-        <v>-389900</v>
+        <v>-404400</v>
       </c>
       <c r="I100" s="3">
-        <v>252300</v>
+        <v>261600</v>
       </c>
       <c r="J100" s="3">
-        <v>3385800</v>
+        <v>3511200</v>
       </c>
       <c r="K100" s="3">
         <v>-2248200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>155100</v>
+        <v>160800</v>
       </c>
       <c r="E101" s="3">
-        <v>189500</v>
+        <v>196500</v>
       </c>
       <c r="F101" s="3">
-        <v>-426600</v>
+        <v>-442400</v>
       </c>
       <c r="G101" s="3">
-        <v>-53000</v>
+        <v>-55000</v>
       </c>
       <c r="H101" s="3">
-        <v>220600</v>
+        <v>228800</v>
       </c>
       <c r="I101" s="3">
-        <v>31400</v>
+        <v>32500</v>
       </c>
       <c r="J101" s="3">
-        <v>-76900</v>
+        <v>-79800</v>
       </c>
       <c r="K101" s="3">
         <v>-143800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-287800</v>
+        <v>-298500</v>
       </c>
       <c r="E102" s="3">
-        <v>-129900</v>
+        <v>-134700</v>
       </c>
       <c r="F102" s="3">
-        <v>-553300</v>
+        <v>-573800</v>
       </c>
       <c r="G102" s="3">
-        <v>767300</v>
+        <v>795700</v>
       </c>
       <c r="H102" s="3">
-        <v>551800</v>
+        <v>572200</v>
       </c>
       <c r="I102" s="3">
-        <v>-412800</v>
+        <v>-428100</v>
       </c>
       <c r="J102" s="3">
-        <v>-243600</v>
+        <v>-252600</v>
       </c>
       <c r="K102" s="3">
         <v>-537200</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8884500</v>
+        <v>9624900</v>
       </c>
       <c r="E8" s="3">
-        <v>8135000</v>
+        <v>8812900</v>
       </c>
       <c r="F8" s="3">
-        <v>7182600</v>
+        <v>7781100</v>
       </c>
       <c r="G8" s="3">
-        <v>7150300</v>
+        <v>7746200</v>
       </c>
       <c r="H8" s="3">
-        <v>7306500</v>
+        <v>7915400</v>
       </c>
       <c r="I8" s="3">
-        <v>7737400</v>
+        <v>8382200</v>
       </c>
       <c r="J8" s="3">
-        <v>7974400</v>
+        <v>8639000</v>
       </c>
       <c r="K8" s="3">
         <v>9148600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-406100</v>
+        <v>-439900</v>
       </c>
       <c r="E15" s="3">
-        <v>-185500</v>
+        <v>-200900</v>
       </c>
       <c r="F15" s="3">
-        <v>-157500</v>
+        <v>-170600</v>
       </c>
       <c r="G15" s="3">
-        <v>-211700</v>
+        <v>-229300</v>
       </c>
       <c r="H15" s="3">
-        <v>-202200</v>
+        <v>-219100</v>
       </c>
       <c r="I15" s="3">
-        <v>-191400</v>
+        <v>-207400</v>
       </c>
       <c r="J15" s="3">
-        <v>-198500</v>
+        <v>-215000</v>
       </c>
       <c r="K15" s="3">
         <v>-187500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4259400</v>
+        <v>4614300</v>
       </c>
       <c r="E17" s="3">
-        <v>3740200</v>
+        <v>4051800</v>
       </c>
       <c r="F17" s="3">
-        <v>3521500</v>
+        <v>3815000</v>
       </c>
       <c r="G17" s="3">
-        <v>3682200</v>
+        <v>3989000</v>
       </c>
       <c r="H17" s="3">
-        <v>4240700</v>
+        <v>4594100</v>
       </c>
       <c r="I17" s="3">
-        <v>4900900</v>
+        <v>5309300</v>
       </c>
       <c r="J17" s="3">
-        <v>6049400</v>
+        <v>6553500</v>
       </c>
       <c r="K17" s="3">
         <v>6595600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4625100</v>
+        <v>5010500</v>
       </c>
       <c r="E18" s="3">
-        <v>4394800</v>
+        <v>4761000</v>
       </c>
       <c r="F18" s="3">
-        <v>3661000</v>
+        <v>3966100</v>
       </c>
       <c r="G18" s="3">
-        <v>3468200</v>
+        <v>3757200</v>
       </c>
       <c r="H18" s="3">
-        <v>3065800</v>
+        <v>3321300</v>
       </c>
       <c r="I18" s="3">
-        <v>2836600</v>
+        <v>3072900</v>
       </c>
       <c r="J18" s="3">
-        <v>1925000</v>
+        <v>2085400</v>
       </c>
       <c r="K18" s="3">
         <v>2553000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2337700</v>
+        <v>-2532500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2038700</v>
+        <v>-2208600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2023500</v>
+        <v>-2192100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2163300</v>
+        <v>-2343600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1846200</v>
+        <v>-2000000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2135700</v>
+        <v>-2313600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1683400</v>
+        <v>-1823700</v>
       </c>
       <c r="K20" s="3">
         <v>-1177200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2712200</v>
+        <v>2933100</v>
       </c>
       <c r="E21" s="3">
-        <v>2585000</v>
+        <v>2797700</v>
       </c>
       <c r="F21" s="3">
-        <v>1835700</v>
+        <v>1986300</v>
       </c>
       <c r="G21" s="3">
-        <v>1516600</v>
+        <v>1640400</v>
       </c>
       <c r="H21" s="3">
-        <v>1421900</v>
+        <v>1538000</v>
       </c>
       <c r="I21" s="3">
-        <v>908600</v>
+        <v>981800</v>
       </c>
       <c r="J21" s="3">
-        <v>494000</v>
+        <v>532200</v>
       </c>
       <c r="K21" s="3">
         <v>1623200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2287400</v>
+        <v>2478000</v>
       </c>
       <c r="E23" s="3">
-        <v>2356100</v>
+        <v>2552400</v>
       </c>
       <c r="F23" s="3">
-        <v>1637600</v>
+        <v>1774100</v>
       </c>
       <c r="G23" s="3">
-        <v>1304800</v>
+        <v>1413600</v>
       </c>
       <c r="H23" s="3">
-        <v>1219600</v>
+        <v>1321300</v>
       </c>
       <c r="I23" s="3">
-        <v>700900</v>
+        <v>759300</v>
       </c>
       <c r="J23" s="3">
-        <v>241600</v>
+        <v>261800</v>
       </c>
       <c r="K23" s="3">
         <v>1375900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>575800</v>
+        <v>623800</v>
       </c>
       <c r="E24" s="3">
-        <v>632700</v>
+        <v>685400</v>
       </c>
       <c r="F24" s="3">
-        <v>352300</v>
+        <v>381700</v>
       </c>
       <c r="G24" s="3">
-        <v>231700</v>
+        <v>251000</v>
       </c>
       <c r="H24" s="3">
-        <v>316300</v>
+        <v>342700</v>
       </c>
       <c r="I24" s="3">
-        <v>242100</v>
+        <v>262300</v>
       </c>
       <c r="J24" s="3">
-        <v>29500</v>
+        <v>31900</v>
       </c>
       <c r="K24" s="3">
         <v>299700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1711600</v>
+        <v>1854200</v>
       </c>
       <c r="E26" s="3">
-        <v>1723400</v>
+        <v>1867000</v>
       </c>
       <c r="F26" s="3">
-        <v>1285300</v>
+        <v>1392400</v>
       </c>
       <c r="G26" s="3">
-        <v>1073100</v>
+        <v>1162600</v>
       </c>
       <c r="H26" s="3">
-        <v>903300</v>
+        <v>978600</v>
       </c>
       <c r="I26" s="3">
-        <v>458800</v>
+        <v>497000</v>
       </c>
       <c r="J26" s="3">
-        <v>212200</v>
+        <v>229800</v>
       </c>
       <c r="K26" s="3">
         <v>1076100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1569000</v>
+        <v>1699700</v>
       </c>
       <c r="E27" s="3">
-        <v>1580900</v>
+        <v>1712600</v>
       </c>
       <c r="F27" s="3">
-        <v>1129900</v>
+        <v>1224000</v>
       </c>
       <c r="G27" s="3">
-        <v>886000</v>
+        <v>959800</v>
       </c>
       <c r="H27" s="3">
-        <v>735700</v>
+        <v>797000</v>
       </c>
       <c r="I27" s="3">
-        <v>323500</v>
+        <v>350500</v>
       </c>
       <c r="J27" s="3">
-        <v>111400</v>
+        <v>120700</v>
       </c>
       <c r="K27" s="3">
         <v>955200</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>654100</v>
+        <v>708600</v>
       </c>
       <c r="J29" s="3">
-        <v>-587700</v>
+        <v>-636700</v>
       </c>
       <c r="K29" s="3">
         <v>393900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2337700</v>
+        <v>2532500</v>
       </c>
       <c r="E32" s="3">
-        <v>2038700</v>
+        <v>2208600</v>
       </c>
       <c r="F32" s="3">
-        <v>2023500</v>
+        <v>2192100</v>
       </c>
       <c r="G32" s="3">
-        <v>2163300</v>
+        <v>2343600</v>
       </c>
       <c r="H32" s="3">
-        <v>1846200</v>
+        <v>2000000</v>
       </c>
       <c r="I32" s="3">
-        <v>2135700</v>
+        <v>2313600</v>
       </c>
       <c r="J32" s="3">
-        <v>1683400</v>
+        <v>1823700</v>
       </c>
       <c r="K32" s="3">
         <v>1177200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1569000</v>
+        <v>1699700</v>
       </c>
       <c r="E33" s="3">
-        <v>1580900</v>
+        <v>1712600</v>
       </c>
       <c r="F33" s="3">
-        <v>1129900</v>
+        <v>1224000</v>
       </c>
       <c r="G33" s="3">
-        <v>886000</v>
+        <v>959800</v>
       </c>
       <c r="H33" s="3">
-        <v>735700</v>
+        <v>797000</v>
       </c>
       <c r="I33" s="3">
-        <v>977600</v>
+        <v>1059100</v>
       </c>
       <c r="J33" s="3">
-        <v>-476400</v>
+        <v>-516000</v>
       </c>
       <c r="K33" s="3">
         <v>1349000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1569000</v>
+        <v>1699700</v>
       </c>
       <c r="E35" s="3">
-        <v>1580900</v>
+        <v>1712600</v>
       </c>
       <c r="F35" s="3">
-        <v>1129900</v>
+        <v>1224000</v>
       </c>
       <c r="G35" s="3">
-        <v>886000</v>
+        <v>959800</v>
       </c>
       <c r="H35" s="3">
-        <v>735700</v>
+        <v>797000</v>
       </c>
       <c r="I35" s="3">
-        <v>977600</v>
+        <v>1059100</v>
       </c>
       <c r="J35" s="3">
-        <v>-476400</v>
+        <v>-516000</v>
       </c>
       <c r="K35" s="3">
         <v>1349000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5265200</v>
+        <v>5703900</v>
       </c>
       <c r="E41" s="3">
-        <v>5329900</v>
+        <v>5774100</v>
       </c>
       <c r="F41" s="3">
-        <v>5081900</v>
+        <v>5505400</v>
       </c>
       <c r="G41" s="3">
-        <v>5959800</v>
+        <v>6456500</v>
       </c>
       <c r="H41" s="3">
-        <v>5068600</v>
+        <v>5490900</v>
       </c>
       <c r="I41" s="3">
-        <v>4369300</v>
+        <v>4733400</v>
       </c>
       <c r="J41" s="3">
-        <v>8644500</v>
+        <v>9364800</v>
       </c>
       <c r="K41" s="3">
         <v>4853800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37237500</v>
+        <v>40340600</v>
       </c>
       <c r="E42" s="3">
-        <v>29776700</v>
+        <v>32258100</v>
       </c>
       <c r="F42" s="3">
-        <v>19980800</v>
+        <v>21645900</v>
       </c>
       <c r="G42" s="3">
-        <v>13257100</v>
+        <v>14361900</v>
       </c>
       <c r="H42" s="3">
-        <v>11894700</v>
+        <v>12885900</v>
       </c>
       <c r="I42" s="3">
-        <v>14783500</v>
+        <v>16015400</v>
       </c>
       <c r="J42" s="3">
-        <v>36582100</v>
+        <v>39630600</v>
       </c>
       <c r="K42" s="3">
         <v>47429400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>677300</v>
+        <v>733800</v>
       </c>
       <c r="E47" s="3">
-        <v>303600</v>
+        <v>328900</v>
       </c>
       <c r="F47" s="3">
-        <v>350300</v>
+        <v>379500</v>
       </c>
       <c r="G47" s="3">
-        <v>368800</v>
+        <v>399500</v>
       </c>
       <c r="H47" s="3">
-        <v>540800</v>
+        <v>585900</v>
       </c>
       <c r="I47" s="3">
-        <v>544700</v>
+        <v>590100</v>
       </c>
       <c r="J47" s="3">
-        <v>1496300</v>
+        <v>1621000</v>
       </c>
       <c r="K47" s="3">
         <v>871900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3061800</v>
+        <v>3316900</v>
       </c>
       <c r="E48" s="3">
-        <v>2368100</v>
+        <v>2565500</v>
       </c>
       <c r="F48" s="3">
-        <v>2393000</v>
+        <v>2592400</v>
       </c>
       <c r="G48" s="3">
-        <v>2365900</v>
+        <v>2563000</v>
       </c>
       <c r="H48" s="3">
-        <v>2371100</v>
+        <v>2568700</v>
       </c>
       <c r="I48" s="3">
-        <v>2401300</v>
+        <v>2601400</v>
       </c>
       <c r="J48" s="3">
-        <v>4833500</v>
+        <v>5236300</v>
       </c>
       <c r="K48" s="3">
         <v>4968600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>709100</v>
+        <v>768100</v>
       </c>
       <c r="E49" s="3">
-        <v>493300</v>
+        <v>534400</v>
       </c>
       <c r="F49" s="3">
-        <v>435600</v>
+        <v>471900</v>
       </c>
       <c r="G49" s="3">
-        <v>406300</v>
+        <v>440200</v>
       </c>
       <c r="H49" s="3">
-        <v>352600</v>
+        <v>382000</v>
       </c>
       <c r="I49" s="3">
-        <v>248400</v>
+        <v>269100</v>
       </c>
       <c r="J49" s="3">
-        <v>451800</v>
+        <v>489400</v>
       </c>
       <c r="K49" s="3">
         <v>728100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44300</v>
+        <v>47900</v>
       </c>
       <c r="E52" s="3">
-        <v>120400</v>
+        <v>130500</v>
       </c>
       <c r="F52" s="3">
-        <v>276200</v>
+        <v>299200</v>
       </c>
       <c r="G52" s="3">
-        <v>256400</v>
+        <v>277800</v>
       </c>
       <c r="H52" s="3">
-        <v>191900</v>
+        <v>207900</v>
       </c>
       <c r="I52" s="3">
-        <v>223300</v>
+        <v>241900</v>
       </c>
       <c r="J52" s="3">
-        <v>71659400</v>
+        <v>77631000</v>
       </c>
       <c r="K52" s="3">
         <v>200600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>304064000</v>
+        <v>329403000</v>
       </c>
       <c r="E54" s="3">
-        <v>285976000</v>
+        <v>309807000</v>
       </c>
       <c r="F54" s="3">
-        <v>265688000</v>
+        <v>287829000</v>
       </c>
       <c r="G54" s="3">
-        <v>260974000</v>
+        <v>282721000</v>
       </c>
       <c r="H54" s="3">
-        <v>245162000</v>
+        <v>265592000</v>
       </c>
       <c r="I54" s="3">
-        <v>226932000</v>
+        <v>245843000</v>
       </c>
       <c r="J54" s="3">
-        <v>286180000</v>
+        <v>310028000</v>
       </c>
       <c r="K54" s="3">
         <v>274766000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7179200</v>
+        <v>7777500</v>
       </c>
       <c r="E57" s="3">
-        <v>10988500</v>
+        <v>11904200</v>
       </c>
       <c r="F57" s="3">
-        <v>5537800</v>
+        <v>5999300</v>
       </c>
       <c r="G57" s="3">
-        <v>12440700</v>
+        <v>13477500</v>
       </c>
       <c r="H57" s="3">
-        <v>7036500</v>
+        <v>7622900</v>
       </c>
       <c r="I57" s="3">
-        <v>6966700</v>
+        <v>7547300</v>
       </c>
       <c r="J57" s="3">
-        <v>12900600</v>
+        <v>13975600</v>
       </c>
       <c r="K57" s="3">
         <v>1000300</v>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>6552200</v>
+        <v>7098200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2267100</v>
+        <v>2456000</v>
       </c>
       <c r="E59" s="3">
-        <v>1989900</v>
+        <v>2155700</v>
       </c>
       <c r="F59" s="3">
-        <v>1917300</v>
+        <v>2077000</v>
       </c>
       <c r="G59" s="3">
-        <v>1870800</v>
+        <v>2026700</v>
       </c>
       <c r="H59" s="3">
-        <v>1688500</v>
+        <v>1829200</v>
       </c>
       <c r="I59" s="3">
-        <v>2219400</v>
+        <v>2404300</v>
       </c>
       <c r="J59" s="3">
-        <v>3866800</v>
+        <v>4189100</v>
       </c>
       <c r="K59" s="3">
         <v>3097800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41633900</v>
+        <v>45103400</v>
       </c>
       <c r="E61" s="3">
-        <v>36868700</v>
+        <v>39941100</v>
       </c>
       <c r="F61" s="3">
-        <v>35262600</v>
+        <v>38201200</v>
       </c>
       <c r="G61" s="3">
-        <v>32236200</v>
+        <v>34922500</v>
       </c>
       <c r="H61" s="3">
-        <v>32915100</v>
+        <v>35658000</v>
       </c>
       <c r="I61" s="3">
-        <v>33136200</v>
+        <v>35897500</v>
       </c>
       <c r="J61" s="3">
-        <v>28906600</v>
+        <v>31315500</v>
       </c>
       <c r="K61" s="3">
         <v>44470300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>563400</v>
+        <v>610400</v>
       </c>
       <c r="E62" s="3">
-        <v>459200</v>
+        <v>497500</v>
       </c>
       <c r="F62" s="3">
-        <v>400200</v>
+        <v>433500</v>
       </c>
       <c r="G62" s="3">
-        <v>432700</v>
+        <v>468800</v>
       </c>
       <c r="H62" s="3">
-        <v>534000</v>
+        <v>578500</v>
       </c>
       <c r="I62" s="3">
-        <v>663100</v>
+        <v>718300</v>
       </c>
       <c r="J62" s="3">
-        <v>1353300</v>
+        <v>1466000</v>
       </c>
       <c r="K62" s="3">
         <v>1843300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>285995000</v>
+        <v>309828000</v>
       </c>
       <c r="E66" s="3">
-        <v>267714000</v>
+        <v>290024000</v>
       </c>
       <c r="F66" s="3">
-        <v>248581000</v>
+        <v>269296000</v>
       </c>
       <c r="G66" s="3">
-        <v>243849000</v>
+        <v>264170000</v>
       </c>
       <c r="H66" s="3">
-        <v>229043000</v>
+        <v>248130000</v>
       </c>
       <c r="I66" s="3">
-        <v>211826000</v>
+        <v>229478000</v>
       </c>
       <c r="J66" s="3">
-        <v>271218000</v>
+        <v>293819000</v>
       </c>
       <c r="K66" s="3">
         <v>259061000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15560600</v>
+        <v>16857300</v>
       </c>
       <c r="E72" s="3">
-        <v>14384700</v>
+        <v>15583400</v>
       </c>
       <c r="F72" s="3">
-        <v>13120800</v>
+        <v>14214200</v>
       </c>
       <c r="G72" s="3">
-        <v>12273700</v>
+        <v>13296500</v>
       </c>
       <c r="H72" s="3">
-        <v>11529900</v>
+        <v>12490800</v>
       </c>
       <c r="I72" s="3">
-        <v>11898900</v>
+        <v>12890500</v>
       </c>
       <c r="J72" s="3">
-        <v>22029300</v>
+        <v>23865100</v>
       </c>
       <c r="K72" s="3">
         <v>11660400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18068700</v>
+        <v>19574400</v>
       </c>
       <c r="E76" s="3">
-        <v>18261500</v>
+        <v>19783300</v>
       </c>
       <c r="F76" s="3">
-        <v>17107300</v>
+        <v>18533000</v>
       </c>
       <c r="G76" s="3">
-        <v>17124400</v>
+        <v>18551400</v>
       </c>
       <c r="H76" s="3">
-        <v>16118300</v>
+        <v>17461500</v>
       </c>
       <c r="I76" s="3">
-        <v>15106100</v>
+        <v>16365000</v>
       </c>
       <c r="J76" s="3">
-        <v>14962200</v>
+        <v>16209000</v>
       </c>
       <c r="K76" s="3">
         <v>15704600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1569000</v>
+        <v>1699700</v>
       </c>
       <c r="E81" s="3">
-        <v>1580900</v>
+        <v>1712600</v>
       </c>
       <c r="F81" s="3">
-        <v>1129900</v>
+        <v>1224000</v>
       </c>
       <c r="G81" s="3">
-        <v>886000</v>
+        <v>959800</v>
       </c>
       <c r="H81" s="3">
-        <v>735700</v>
+        <v>797000</v>
       </c>
       <c r="I81" s="3">
-        <v>977600</v>
+        <v>1059100</v>
       </c>
       <c r="J81" s="3">
-        <v>-476400</v>
+        <v>-516000</v>
       </c>
       <c r="K81" s="3">
         <v>1349000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>424800</v>
+        <v>460200</v>
       </c>
       <c r="E83" s="3">
-        <v>228900</v>
+        <v>248000</v>
       </c>
       <c r="F83" s="3">
-        <v>198100</v>
+        <v>214600</v>
       </c>
       <c r="G83" s="3">
-        <v>211700</v>
+        <v>229300</v>
       </c>
       <c r="H83" s="3">
-        <v>202200</v>
+        <v>219100</v>
       </c>
       <c r="I83" s="3">
-        <v>207700</v>
+        <v>225000</v>
       </c>
       <c r="J83" s="3">
-        <v>252400</v>
+        <v>273400</v>
       </c>
       <c r="K83" s="3">
         <v>244500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1571100</v>
+        <v>1702000</v>
       </c>
       <c r="E89" s="3">
-        <v>7694500</v>
+        <v>8335700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1662400</v>
+        <v>-1800900</v>
       </c>
       <c r="G89" s="3">
-        <v>4120400</v>
+        <v>4463800</v>
       </c>
       <c r="H89" s="3">
-        <v>-322500</v>
+        <v>-349400</v>
       </c>
       <c r="I89" s="3">
-        <v>236200</v>
+        <v>255900</v>
       </c>
       <c r="J89" s="3">
-        <v>-3353900</v>
+        <v>-3633400</v>
       </c>
       <c r="K89" s="3">
         <v>-121000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-360800</v>
+        <v>-390900</v>
       </c>
       <c r="E91" s="3">
-        <v>-99700</v>
+        <v>-108000</v>
       </c>
       <c r="F91" s="3">
-        <v>-136300</v>
+        <v>-147600</v>
       </c>
       <c r="G91" s="3">
-        <v>-110000</v>
+        <v>-119200</v>
       </c>
       <c r="H91" s="3">
-        <v>-108700</v>
+        <v>-117800</v>
       </c>
       <c r="I91" s="3">
-        <v>-118100</v>
+        <v>-128000</v>
       </c>
       <c r="J91" s="3">
-        <v>-133900</v>
+        <v>-145100</v>
       </c>
       <c r="K91" s="3">
         <v>-212100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7214000</v>
+        <v>-7815200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9299800</v>
+        <v>-10074800</v>
       </c>
       <c r="F94" s="3">
-        <v>1582300</v>
+        <v>1714200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3549500</v>
+        <v>-3845300</v>
       </c>
       <c r="H94" s="3">
-        <v>1070300</v>
+        <v>1159500</v>
       </c>
       <c r="I94" s="3">
-        <v>-958500</v>
+        <v>-1038300</v>
       </c>
       <c r="J94" s="3">
-        <v>-330100</v>
+        <v>-357600</v>
       </c>
       <c r="K94" s="3">
         <v>1975800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-367600</v>
+        <v>-398200</v>
       </c>
       <c r="E96" s="3">
-        <v>-282800</v>
+        <v>-306300</v>
       </c>
       <c r="F96" s="3">
-        <v>-282800</v>
+        <v>-306300</v>
       </c>
       <c r="G96" s="3">
-        <v>-141400</v>
+        <v>-153200</v>
       </c>
       <c r="H96" s="3">
-        <v>-424200</v>
+        <v>-459500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-317900</v>
+        <v>-344300</v>
       </c>
       <c r="K96" s="3">
         <v>-288400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5183600</v>
+        <v>5615600</v>
       </c>
       <c r="E100" s="3">
-        <v>1274100</v>
+        <v>1380300</v>
       </c>
       <c r="F100" s="3">
-        <v>-51300</v>
+        <v>-55600</v>
       </c>
       <c r="G100" s="3">
-        <v>279800</v>
+        <v>303100</v>
       </c>
       <c r="H100" s="3">
-        <v>-404400</v>
+        <v>-438100</v>
       </c>
       <c r="I100" s="3">
-        <v>261600</v>
+        <v>283400</v>
       </c>
       <c r="J100" s="3">
-        <v>3511200</v>
+        <v>3803800</v>
       </c>
       <c r="K100" s="3">
         <v>-2248200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>160800</v>
+        <v>174200</v>
       </c>
       <c r="E101" s="3">
-        <v>196500</v>
+        <v>212900</v>
       </c>
       <c r="F101" s="3">
-        <v>-442400</v>
+        <v>-479200</v>
       </c>
       <c r="G101" s="3">
-        <v>-55000</v>
+        <v>-59600</v>
       </c>
       <c r="H101" s="3">
-        <v>228800</v>
+        <v>247900</v>
       </c>
       <c r="I101" s="3">
-        <v>32500</v>
+        <v>35300</v>
       </c>
       <c r="J101" s="3">
-        <v>-79800</v>
+        <v>-86400</v>
       </c>
       <c r="K101" s="3">
         <v>-143800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-298500</v>
+        <v>-323300</v>
       </c>
       <c r="E102" s="3">
-        <v>-134700</v>
+        <v>-146000</v>
       </c>
       <c r="F102" s="3">
-        <v>-573800</v>
+        <v>-621600</v>
       </c>
       <c r="G102" s="3">
-        <v>795700</v>
+        <v>862000</v>
       </c>
       <c r="H102" s="3">
-        <v>572200</v>
+        <v>619900</v>
       </c>
       <c r="I102" s="3">
-        <v>-428100</v>
+        <v>-463700</v>
       </c>
       <c r="J102" s="3">
-        <v>-252600</v>
+        <v>-273700</v>
       </c>
       <c r="K102" s="3">
         <v>-537200</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9624900</v>
+        <v>8381000</v>
       </c>
       <c r="E8" s="3">
-        <v>8812900</v>
+        <v>9307600</v>
       </c>
       <c r="F8" s="3">
-        <v>7781100</v>
+        <v>8522400</v>
       </c>
       <c r="G8" s="3">
-        <v>7746200</v>
+        <v>7524600</v>
       </c>
       <c r="H8" s="3">
-        <v>7915400</v>
+        <v>7490800</v>
       </c>
       <c r="I8" s="3">
-        <v>8382200</v>
+        <v>7654400</v>
       </c>
       <c r="J8" s="3">
+        <v>8105900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8639000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9148600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9763900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-439900</v>
+        <v>-460800</v>
       </c>
       <c r="E15" s="3">
-        <v>-200900</v>
+        <v>-425400</v>
       </c>
       <c r="F15" s="3">
-        <v>-170600</v>
+        <v>-194300</v>
       </c>
       <c r="G15" s="3">
-        <v>-229300</v>
+        <v>-165000</v>
       </c>
       <c r="H15" s="3">
-        <v>-219100</v>
+        <v>-221800</v>
       </c>
       <c r="I15" s="3">
-        <v>-207400</v>
+        <v>-211900</v>
       </c>
       <c r="J15" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-215000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-187500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-177900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4614300</v>
+        <v>3800000</v>
       </c>
       <c r="E17" s="3">
-        <v>4051800</v>
+        <v>4462200</v>
       </c>
       <c r="F17" s="3">
-        <v>3815000</v>
+        <v>3918300</v>
       </c>
       <c r="G17" s="3">
-        <v>3989000</v>
+        <v>3689200</v>
       </c>
       <c r="H17" s="3">
-        <v>4594100</v>
+        <v>3857500</v>
       </c>
       <c r="I17" s="3">
-        <v>5309300</v>
+        <v>4442700</v>
       </c>
       <c r="J17" s="3">
+        <v>5134300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6553500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6595600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7124100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5010500</v>
+        <v>4581000</v>
       </c>
       <c r="E18" s="3">
-        <v>4761000</v>
+        <v>4845300</v>
       </c>
       <c r="F18" s="3">
-        <v>3966100</v>
+        <v>4604100</v>
       </c>
       <c r="G18" s="3">
-        <v>3757200</v>
+        <v>3835400</v>
       </c>
       <c r="H18" s="3">
-        <v>3321300</v>
+        <v>3633300</v>
       </c>
       <c r="I18" s="3">
-        <v>3072900</v>
+        <v>3211800</v>
       </c>
       <c r="J18" s="3">
+        <v>2971600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2085400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2553000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2639700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2532500</v>
+        <v>-2819900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2208600</v>
+        <v>-2449100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2192100</v>
+        <v>-2135800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2343600</v>
+        <v>-2119800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000000</v>
+        <v>-2266300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2313600</v>
+        <v>-1934100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2237400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1823700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1177200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-578900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2933100</v>
+        <v>2232400</v>
       </c>
       <c r="E21" s="3">
-        <v>2797700</v>
+        <v>2841300</v>
       </c>
       <c r="F21" s="3">
-        <v>1986300</v>
+        <v>2708100</v>
       </c>
       <c r="G21" s="3">
-        <v>1640400</v>
+        <v>1923100</v>
       </c>
       <c r="H21" s="3">
-        <v>1538000</v>
+        <v>1588800</v>
       </c>
       <c r="I21" s="3">
-        <v>981800</v>
+        <v>1489600</v>
       </c>
       <c r="J21" s="3">
+        <v>951800</v>
+      </c>
+      <c r="K21" s="3">
         <v>532200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1623200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2301600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2478000</v>
+        <v>1761100</v>
       </c>
       <c r="E23" s="3">
-        <v>2552400</v>
+        <v>2396300</v>
       </c>
       <c r="F23" s="3">
-        <v>1774100</v>
+        <v>2468300</v>
       </c>
       <c r="G23" s="3">
-        <v>1413600</v>
+        <v>1715600</v>
       </c>
       <c r="H23" s="3">
-        <v>1321300</v>
+        <v>1367000</v>
       </c>
       <c r="I23" s="3">
-        <v>759300</v>
+        <v>1277700</v>
       </c>
       <c r="J23" s="3">
+        <v>734300</v>
+      </c>
+      <c r="K23" s="3">
         <v>261800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1375900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2060800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>623800</v>
+        <v>427700</v>
       </c>
       <c r="E24" s="3">
-        <v>685400</v>
+        <v>603200</v>
       </c>
       <c r="F24" s="3">
-        <v>381700</v>
+        <v>662800</v>
       </c>
       <c r="G24" s="3">
-        <v>251000</v>
+        <v>369100</v>
       </c>
       <c r="H24" s="3">
-        <v>342700</v>
+        <v>242800</v>
       </c>
       <c r="I24" s="3">
-        <v>262300</v>
+        <v>331400</v>
       </c>
       <c r="J24" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K24" s="3">
         <v>31900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>299700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>491900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1854200</v>
+        <v>1333400</v>
       </c>
       <c r="E26" s="3">
-        <v>1867000</v>
+        <v>1793100</v>
       </c>
       <c r="F26" s="3">
-        <v>1392400</v>
+        <v>1805500</v>
       </c>
       <c r="G26" s="3">
-        <v>1162600</v>
+        <v>1346500</v>
       </c>
       <c r="H26" s="3">
-        <v>978600</v>
+        <v>1124200</v>
       </c>
       <c r="I26" s="3">
-        <v>497000</v>
+        <v>946300</v>
       </c>
       <c r="J26" s="3">
+        <v>480700</v>
+      </c>
+      <c r="K26" s="3">
         <v>229800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1076100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1568900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1699700</v>
+        <v>1107300</v>
       </c>
       <c r="E27" s="3">
-        <v>1712600</v>
+        <v>1643700</v>
       </c>
       <c r="F27" s="3">
-        <v>1224000</v>
+        <v>1656100</v>
       </c>
       <c r="G27" s="3">
-        <v>959800</v>
+        <v>1183700</v>
       </c>
       <c r="H27" s="3">
-        <v>797000</v>
+        <v>928200</v>
       </c>
       <c r="I27" s="3">
-        <v>350500</v>
+        <v>770700</v>
       </c>
       <c r="J27" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K27" s="3">
         <v>120700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>955200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1437400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,24 +1424,27 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>708600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>685200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-636700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>393900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>456200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2532500</v>
+        <v>2819900</v>
       </c>
       <c r="E32" s="3">
-        <v>2208600</v>
+        <v>2449100</v>
       </c>
       <c r="F32" s="3">
-        <v>2192100</v>
+        <v>2135800</v>
       </c>
       <c r="G32" s="3">
-        <v>2343600</v>
+        <v>2119800</v>
       </c>
       <c r="H32" s="3">
-        <v>2000000</v>
+        <v>2266300</v>
       </c>
       <c r="I32" s="3">
-        <v>2313600</v>
+        <v>1934100</v>
       </c>
       <c r="J32" s="3">
+        <v>2237400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1823700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1177200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>578900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1699700</v>
+        <v>1107300</v>
       </c>
       <c r="E33" s="3">
-        <v>1712600</v>
+        <v>1643700</v>
       </c>
       <c r="F33" s="3">
-        <v>1224000</v>
+        <v>1656100</v>
       </c>
       <c r="G33" s="3">
-        <v>959800</v>
+        <v>1183700</v>
       </c>
       <c r="H33" s="3">
-        <v>797000</v>
+        <v>928200</v>
       </c>
       <c r="I33" s="3">
-        <v>1059100</v>
+        <v>770700</v>
       </c>
       <c r="J33" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-516000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1349000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1893700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1699700</v>
+        <v>1107300</v>
       </c>
       <c r="E35" s="3">
-        <v>1712600</v>
+        <v>1643700</v>
       </c>
       <c r="F35" s="3">
-        <v>1224000</v>
+        <v>1656100</v>
       </c>
       <c r="G35" s="3">
-        <v>959800</v>
+        <v>1183700</v>
       </c>
       <c r="H35" s="3">
-        <v>797000</v>
+        <v>928200</v>
       </c>
       <c r="I35" s="3">
-        <v>1059100</v>
+        <v>770700</v>
       </c>
       <c r="J35" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-516000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1349000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1893700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5703900</v>
+        <v>8307400</v>
       </c>
       <c r="E41" s="3">
-        <v>5774100</v>
+        <v>5515900</v>
       </c>
       <c r="F41" s="3">
-        <v>5505400</v>
+        <v>5583700</v>
       </c>
       <c r="G41" s="3">
-        <v>6456500</v>
+        <v>5323900</v>
       </c>
       <c r="H41" s="3">
-        <v>5490900</v>
+        <v>6243600</v>
       </c>
       <c r="I41" s="3">
-        <v>4733400</v>
+        <v>5309900</v>
       </c>
       <c r="J41" s="3">
+        <v>4577300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9364800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4853800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5647100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40340600</v>
+        <v>46580900</v>
       </c>
       <c r="E42" s="3">
-        <v>32258100</v>
+        <v>39010700</v>
       </c>
       <c r="F42" s="3">
-        <v>21645900</v>
+        <v>31194700</v>
       </c>
       <c r="G42" s="3">
-        <v>14361900</v>
+        <v>20932300</v>
       </c>
       <c r="H42" s="3">
-        <v>12885900</v>
+        <v>13888400</v>
       </c>
       <c r="I42" s="3">
-        <v>16015400</v>
+        <v>12461100</v>
       </c>
       <c r="J42" s="3">
+        <v>15487500</v>
+      </c>
+      <c r="K42" s="3">
         <v>39630600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47429400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>733800</v>
+        <v>874100</v>
       </c>
       <c r="E47" s="3">
-        <v>328900</v>
+        <v>709600</v>
       </c>
       <c r="F47" s="3">
-        <v>379500</v>
+        <v>318100</v>
       </c>
       <c r="G47" s="3">
-        <v>399500</v>
+        <v>367000</v>
       </c>
       <c r="H47" s="3">
-        <v>585900</v>
+        <v>386300</v>
       </c>
       <c r="I47" s="3">
-        <v>590100</v>
+        <v>566600</v>
       </c>
       <c r="J47" s="3">
+        <v>570600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1621000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>871900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>816800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3316900</v>
+        <v>3233700</v>
       </c>
       <c r="E48" s="3">
-        <v>2565500</v>
+        <v>3207600</v>
       </c>
       <c r="F48" s="3">
-        <v>2592400</v>
+        <v>2480900</v>
       </c>
       <c r="G48" s="3">
-        <v>2563000</v>
+        <v>2507000</v>
       </c>
       <c r="H48" s="3">
-        <v>2568700</v>
+        <v>2478500</v>
       </c>
       <c r="I48" s="3">
-        <v>2601400</v>
+        <v>2484000</v>
       </c>
       <c r="J48" s="3">
+        <v>2515600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5236300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4968600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3197500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>768100</v>
+        <v>697000</v>
       </c>
       <c r="E49" s="3">
-        <v>534400</v>
+        <v>742800</v>
       </c>
       <c r="F49" s="3">
-        <v>471900</v>
+        <v>516800</v>
       </c>
       <c r="G49" s="3">
-        <v>440200</v>
+        <v>456400</v>
       </c>
       <c r="H49" s="3">
-        <v>382000</v>
+        <v>425700</v>
       </c>
       <c r="I49" s="3">
-        <v>269100</v>
+        <v>369400</v>
       </c>
       <c r="J49" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K49" s="3">
         <v>489400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>728100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>394100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47900</v>
+        <v>98300</v>
       </c>
       <c r="E52" s="3">
-        <v>130500</v>
+        <v>46400</v>
       </c>
       <c r="F52" s="3">
-        <v>299200</v>
+        <v>126200</v>
       </c>
       <c r="G52" s="3">
-        <v>277800</v>
+        <v>289300</v>
       </c>
       <c r="H52" s="3">
-        <v>207900</v>
+        <v>268700</v>
       </c>
       <c r="I52" s="3">
-        <v>241900</v>
+        <v>201100</v>
       </c>
       <c r="J52" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K52" s="3">
         <v>77631000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>329403000</v>
+        <v>351191000</v>
       </c>
       <c r="E54" s="3">
-        <v>309807000</v>
+        <v>318543000</v>
       </c>
       <c r="F54" s="3">
-        <v>287829000</v>
+        <v>299594000</v>
       </c>
       <c r="G54" s="3">
-        <v>282721000</v>
+        <v>278340000</v>
       </c>
       <c r="H54" s="3">
-        <v>265592000</v>
+        <v>273401000</v>
       </c>
       <c r="I54" s="3">
-        <v>245843000</v>
+        <v>256836000</v>
       </c>
       <c r="J54" s="3">
+        <v>237738000</v>
+      </c>
+      <c r="K54" s="3">
         <v>310028000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>274766000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275257000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2267,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7777500</v>
+        <v>4398300</v>
       </c>
       <c r="E57" s="3">
-        <v>11904200</v>
+        <v>7521100</v>
       </c>
       <c r="F57" s="3">
-        <v>5999300</v>
+        <v>11511800</v>
       </c>
       <c r="G57" s="3">
-        <v>13477500</v>
+        <v>5801500</v>
       </c>
       <c r="H57" s="3">
-        <v>7622900</v>
+        <v>13033100</v>
       </c>
       <c r="I57" s="3">
-        <v>7547300</v>
+        <v>7371600</v>
       </c>
       <c r="J57" s="3">
+        <v>7298400</v>
+      </c>
+      <c r="K57" s="3">
         <v>13975600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>7098200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2456000</v>
+        <v>2129700</v>
       </c>
       <c r="E59" s="3">
-        <v>2155700</v>
+        <v>2375100</v>
       </c>
       <c r="F59" s="3">
-        <v>2077000</v>
+        <v>2084600</v>
       </c>
       <c r="G59" s="3">
-        <v>2026700</v>
+        <v>2008600</v>
       </c>
       <c r="H59" s="3">
-        <v>1829200</v>
+        <v>1959900</v>
       </c>
       <c r="I59" s="3">
-        <v>2404300</v>
+        <v>1768900</v>
       </c>
       <c r="J59" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4189100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3097800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>241300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45103400</v>
+        <v>50643200</v>
       </c>
       <c r="E61" s="3">
-        <v>39941100</v>
+        <v>43616400</v>
       </c>
       <c r="F61" s="3">
-        <v>38201200</v>
+        <v>38624400</v>
       </c>
       <c r="G61" s="3">
-        <v>34922500</v>
+        <v>36941800</v>
       </c>
       <c r="H61" s="3">
-        <v>35658000</v>
+        <v>33771200</v>
       </c>
       <c r="I61" s="3">
-        <v>35897500</v>
+        <v>34482400</v>
       </c>
       <c r="J61" s="3">
+        <v>34714100</v>
+      </c>
+      <c r="K61" s="3">
         <v>31315500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44470300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>610400</v>
+        <v>628400</v>
       </c>
       <c r="E62" s="3">
-        <v>497500</v>
+        <v>590300</v>
       </c>
       <c r="F62" s="3">
-        <v>433500</v>
+        <v>481100</v>
       </c>
       <c r="G62" s="3">
-        <v>468800</v>
+        <v>419200</v>
       </c>
       <c r="H62" s="3">
-        <v>578500</v>
+        <v>453300</v>
       </c>
       <c r="I62" s="3">
-        <v>718300</v>
+        <v>559400</v>
       </c>
       <c r="J62" s="3">
+        <v>694600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1466000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1843300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1119700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>309828000</v>
+        <v>330904000</v>
       </c>
       <c r="E66" s="3">
-        <v>290024000</v>
+        <v>299614000</v>
       </c>
       <c r="F66" s="3">
-        <v>269296000</v>
+        <v>280462000</v>
       </c>
       <c r="G66" s="3">
-        <v>264170000</v>
+        <v>260418000</v>
       </c>
       <c r="H66" s="3">
-        <v>248130000</v>
+        <v>255461000</v>
       </c>
       <c r="I66" s="3">
-        <v>229478000</v>
+        <v>239950000</v>
       </c>
       <c r="J66" s="3">
+        <v>221913000</v>
+      </c>
+      <c r="K66" s="3">
         <v>293819000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>259061000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>259836000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16857300</v>
+        <v>16956100</v>
       </c>
       <c r="E72" s="3">
-        <v>15583400</v>
+        <v>16301600</v>
       </c>
       <c r="F72" s="3">
-        <v>14214200</v>
+        <v>15069700</v>
       </c>
       <c r="G72" s="3">
-        <v>13296500</v>
+        <v>13745600</v>
       </c>
       <c r="H72" s="3">
-        <v>12490800</v>
+        <v>12858200</v>
       </c>
       <c r="I72" s="3">
-        <v>12890500</v>
+        <v>12079000</v>
       </c>
       <c r="J72" s="3">
+        <v>12465500</v>
+      </c>
+      <c r="K72" s="3">
         <v>23865100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11660400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10932000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19574400</v>
+        <v>20287200</v>
       </c>
       <c r="E76" s="3">
-        <v>19783300</v>
+        <v>18929100</v>
       </c>
       <c r="F76" s="3">
-        <v>18533000</v>
+        <v>19131100</v>
       </c>
       <c r="G76" s="3">
-        <v>18551400</v>
+        <v>17922000</v>
       </c>
       <c r="H76" s="3">
-        <v>17461500</v>
+        <v>17939800</v>
       </c>
       <c r="I76" s="3">
-        <v>16365000</v>
+        <v>16885900</v>
       </c>
       <c r="J76" s="3">
+        <v>15825500</v>
+      </c>
+      <c r="K76" s="3">
         <v>16209000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15704600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15421100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1699700</v>
+        <v>1107300</v>
       </c>
       <c r="E81" s="3">
-        <v>1712600</v>
+        <v>1643700</v>
       </c>
       <c r="F81" s="3">
-        <v>1224000</v>
+        <v>1656100</v>
       </c>
       <c r="G81" s="3">
-        <v>959800</v>
+        <v>1183700</v>
       </c>
       <c r="H81" s="3">
-        <v>797000</v>
+        <v>928200</v>
       </c>
       <c r="I81" s="3">
-        <v>1059100</v>
+        <v>770700</v>
       </c>
       <c r="J81" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-516000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1349000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1893700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>460200</v>
+        <v>471300</v>
       </c>
       <c r="E83" s="3">
-        <v>248000</v>
+        <v>445000</v>
       </c>
       <c r="F83" s="3">
-        <v>214600</v>
+        <v>239800</v>
       </c>
       <c r="G83" s="3">
-        <v>229300</v>
+        <v>207500</v>
       </c>
       <c r="H83" s="3">
-        <v>219100</v>
+        <v>221800</v>
       </c>
       <c r="I83" s="3">
-        <v>225000</v>
+        <v>211900</v>
       </c>
       <c r="J83" s="3">
+        <v>217600</v>
+      </c>
+      <c r="K83" s="3">
         <v>273400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>244500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>240800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1702000</v>
+        <v>3173300</v>
       </c>
       <c r="E89" s="3">
-        <v>8335700</v>
+        <v>1645900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1800900</v>
+        <v>8060900</v>
       </c>
       <c r="G89" s="3">
-        <v>4463800</v>
+        <v>-1741500</v>
       </c>
       <c r="H89" s="3">
-        <v>-349400</v>
+        <v>4316700</v>
       </c>
       <c r="I89" s="3">
-        <v>255900</v>
+        <v>-337800</v>
       </c>
       <c r="J89" s="3">
+        <v>247500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3633400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-121000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-942600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-390900</v>
+        <v>-131400</v>
       </c>
       <c r="E91" s="3">
-        <v>-108000</v>
+        <v>-378000</v>
       </c>
       <c r="F91" s="3">
-        <v>-147600</v>
+        <v>-104400</v>
       </c>
       <c r="G91" s="3">
-        <v>-119200</v>
+        <v>-142800</v>
       </c>
       <c r="H91" s="3">
-        <v>-117800</v>
+        <v>-115300</v>
       </c>
       <c r="I91" s="3">
-        <v>-128000</v>
+        <v>-113900</v>
       </c>
       <c r="J91" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-145100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-212100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-204600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7815200</v>
+        <v>-1281700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10074800</v>
+        <v>-7557600</v>
       </c>
       <c r="F94" s="3">
-        <v>1714200</v>
+        <v>-9742600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3845300</v>
+        <v>1657700</v>
       </c>
       <c r="H94" s="3">
-        <v>1159500</v>
+        <v>-3718500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1038300</v>
+        <v>1121200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1004100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-357600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1975800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2124000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-398200</v>
+        <v>-444900</v>
       </c>
       <c r="E96" s="3">
-        <v>-306300</v>
+        <v>-385100</v>
       </c>
       <c r="F96" s="3">
-        <v>-306300</v>
+        <v>-296200</v>
       </c>
       <c r="G96" s="3">
-        <v>-153200</v>
+        <v>-296200</v>
       </c>
       <c r="H96" s="3">
-        <v>-459500</v>
+        <v>-148100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-444400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-344300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-288400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-177300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5615600</v>
+        <v>2083200</v>
       </c>
       <c r="E100" s="3">
-        <v>1380300</v>
+        <v>5430500</v>
       </c>
       <c r="F100" s="3">
-        <v>-55600</v>
+        <v>1334800</v>
       </c>
       <c r="G100" s="3">
-        <v>303100</v>
+        <v>-53800</v>
       </c>
       <c r="H100" s="3">
-        <v>-438100</v>
+        <v>293100</v>
       </c>
       <c r="I100" s="3">
-        <v>283400</v>
+        <v>-423600</v>
       </c>
       <c r="J100" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K100" s="3">
         <v>3803800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2248200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>154300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>174200</v>
+        <v>-808200</v>
       </c>
       <c r="E101" s="3">
-        <v>212900</v>
+        <v>168500</v>
       </c>
       <c r="F101" s="3">
-        <v>-479200</v>
+        <v>205900</v>
       </c>
       <c r="G101" s="3">
-        <v>-59600</v>
+        <v>-463400</v>
       </c>
       <c r="H101" s="3">
-        <v>247900</v>
+        <v>-57600</v>
       </c>
       <c r="I101" s="3">
-        <v>35300</v>
+        <v>239700</v>
       </c>
       <c r="J101" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-86400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-143800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-323300</v>
+        <v>3166600</v>
       </c>
       <c r="E102" s="3">
-        <v>-146000</v>
+        <v>-312700</v>
       </c>
       <c r="F102" s="3">
-        <v>-621600</v>
+        <v>-141100</v>
       </c>
       <c r="G102" s="3">
-        <v>862000</v>
+        <v>-601100</v>
       </c>
       <c r="H102" s="3">
-        <v>619900</v>
+        <v>833600</v>
       </c>
       <c r="I102" s="3">
-        <v>-463700</v>
+        <v>599500</v>
       </c>
       <c r="J102" s="3">
+        <v>-448400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-273700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-537200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1360500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8381000</v>
+        <v>8476200</v>
       </c>
       <c r="E8" s="3">
-        <v>9307600</v>
+        <v>9413300</v>
       </c>
       <c r="F8" s="3">
-        <v>8522400</v>
+        <v>8619200</v>
       </c>
       <c r="G8" s="3">
-        <v>7524600</v>
+        <v>7610100</v>
       </c>
       <c r="H8" s="3">
-        <v>7490800</v>
+        <v>7576000</v>
       </c>
       <c r="I8" s="3">
-        <v>7654400</v>
+        <v>7741400</v>
       </c>
       <c r="J8" s="3">
-        <v>8105900</v>
+        <v>8198000</v>
       </c>
       <c r="K8" s="3">
         <v>8639000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-460800</v>
+        <v>-466100</v>
       </c>
       <c r="E15" s="3">
-        <v>-425400</v>
+        <v>-430200</v>
       </c>
       <c r="F15" s="3">
-        <v>-194300</v>
+        <v>-196500</v>
       </c>
       <c r="G15" s="3">
-        <v>-165000</v>
+        <v>-166900</v>
       </c>
       <c r="H15" s="3">
-        <v>-221800</v>
+        <v>-224300</v>
       </c>
       <c r="I15" s="3">
-        <v>-211900</v>
+        <v>-214300</v>
       </c>
       <c r="J15" s="3">
-        <v>-200600</v>
+        <v>-202800</v>
       </c>
       <c r="K15" s="3">
         <v>-215000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3800000</v>
+        <v>3843200</v>
       </c>
       <c r="E17" s="3">
-        <v>4462200</v>
+        <v>4512900</v>
       </c>
       <c r="F17" s="3">
-        <v>3918300</v>
+        <v>3962800</v>
       </c>
       <c r="G17" s="3">
-        <v>3689200</v>
+        <v>3731200</v>
       </c>
       <c r="H17" s="3">
-        <v>3857500</v>
+        <v>3901300</v>
       </c>
       <c r="I17" s="3">
-        <v>4442700</v>
+        <v>4493100</v>
       </c>
       <c r="J17" s="3">
-        <v>5134300</v>
+        <v>5192600</v>
       </c>
       <c r="K17" s="3">
         <v>6553500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4581000</v>
+        <v>4633000</v>
       </c>
       <c r="E18" s="3">
-        <v>4845300</v>
+        <v>4900400</v>
       </c>
       <c r="F18" s="3">
-        <v>4604100</v>
+        <v>4656400</v>
       </c>
       <c r="G18" s="3">
-        <v>3835400</v>
+        <v>3879000</v>
       </c>
       <c r="H18" s="3">
-        <v>3633300</v>
+        <v>3674600</v>
       </c>
       <c r="I18" s="3">
-        <v>3211800</v>
+        <v>3248300</v>
       </c>
       <c r="J18" s="3">
-        <v>2971600</v>
+        <v>3005400</v>
       </c>
       <c r="K18" s="3">
         <v>2085400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2819900</v>
+        <v>-2851900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2449100</v>
+        <v>-2476900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2135800</v>
+        <v>-2160100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2119800</v>
+        <v>-2143900</v>
       </c>
       <c r="H20" s="3">
-        <v>-2266300</v>
+        <v>-2292100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1934100</v>
+        <v>-1956100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2237400</v>
+        <v>-2262800</v>
       </c>
       <c r="K20" s="3">
         <v>-1823700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2232400</v>
+        <v>2257800</v>
       </c>
       <c r="E21" s="3">
-        <v>2841300</v>
+        <v>2873600</v>
       </c>
       <c r="F21" s="3">
-        <v>2708100</v>
+        <v>2738900</v>
       </c>
       <c r="G21" s="3">
-        <v>1923100</v>
+        <v>1944900</v>
       </c>
       <c r="H21" s="3">
-        <v>1588800</v>
+        <v>1606800</v>
       </c>
       <c r="I21" s="3">
-        <v>1489600</v>
+        <v>1506500</v>
       </c>
       <c r="J21" s="3">
-        <v>951800</v>
+        <v>962600</v>
       </c>
       <c r="K21" s="3">
         <v>532200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1761100</v>
+        <v>1781100</v>
       </c>
       <c r="E23" s="3">
-        <v>2396300</v>
+        <v>2423500</v>
       </c>
       <c r="F23" s="3">
-        <v>2468300</v>
+        <v>2496300</v>
       </c>
       <c r="G23" s="3">
-        <v>1715600</v>
+        <v>1735100</v>
       </c>
       <c r="H23" s="3">
-        <v>1367000</v>
+        <v>1382500</v>
       </c>
       <c r="I23" s="3">
-        <v>1277700</v>
+        <v>1292200</v>
       </c>
       <c r="J23" s="3">
-        <v>734300</v>
+        <v>742600</v>
       </c>
       <c r="K23" s="3">
         <v>261800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>427700</v>
+        <v>432500</v>
       </c>
       <c r="E24" s="3">
-        <v>603200</v>
+        <v>610100</v>
       </c>
       <c r="F24" s="3">
-        <v>662800</v>
+        <v>670400</v>
       </c>
       <c r="G24" s="3">
-        <v>369100</v>
+        <v>373300</v>
       </c>
       <c r="H24" s="3">
-        <v>242800</v>
+        <v>245500</v>
       </c>
       <c r="I24" s="3">
-        <v>331400</v>
+        <v>335100</v>
       </c>
       <c r="J24" s="3">
-        <v>253600</v>
+        <v>256500</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1333400</v>
+        <v>1348600</v>
       </c>
       <c r="E26" s="3">
-        <v>1793100</v>
+        <v>1813500</v>
       </c>
       <c r="F26" s="3">
-        <v>1805500</v>
+        <v>1826000</v>
       </c>
       <c r="G26" s="3">
-        <v>1346500</v>
+        <v>1361800</v>
       </c>
       <c r="H26" s="3">
-        <v>1124200</v>
+        <v>1137000</v>
       </c>
       <c r="I26" s="3">
-        <v>946300</v>
+        <v>957100</v>
       </c>
       <c r="J26" s="3">
-        <v>480700</v>
+        <v>486100</v>
       </c>
       <c r="K26" s="3">
         <v>229800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1107300</v>
+        <v>1119900</v>
       </c>
       <c r="E27" s="3">
-        <v>1643700</v>
+        <v>1662400</v>
       </c>
       <c r="F27" s="3">
-        <v>1656100</v>
+        <v>1675000</v>
       </c>
       <c r="G27" s="3">
-        <v>1183700</v>
+        <v>1197100</v>
       </c>
       <c r="H27" s="3">
-        <v>928200</v>
+        <v>938700</v>
       </c>
       <c r="I27" s="3">
-        <v>770700</v>
+        <v>779500</v>
       </c>
       <c r="J27" s="3">
-        <v>338900</v>
+        <v>342800</v>
       </c>
       <c r="K27" s="3">
         <v>120700</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>685200</v>
+        <v>693000</v>
       </c>
       <c r="K29" s="3">
         <v>-636700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2819900</v>
+        <v>2851900</v>
       </c>
       <c r="E32" s="3">
-        <v>2449100</v>
+        <v>2476900</v>
       </c>
       <c r="F32" s="3">
-        <v>2135800</v>
+        <v>2160100</v>
       </c>
       <c r="G32" s="3">
-        <v>2119800</v>
+        <v>2143900</v>
       </c>
       <c r="H32" s="3">
-        <v>2266300</v>
+        <v>2292100</v>
       </c>
       <c r="I32" s="3">
-        <v>1934100</v>
+        <v>1956100</v>
       </c>
       <c r="J32" s="3">
-        <v>2237400</v>
+        <v>2262800</v>
       </c>
       <c r="K32" s="3">
         <v>1823700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1107300</v>
+        <v>1119900</v>
       </c>
       <c r="E33" s="3">
-        <v>1643700</v>
+        <v>1662400</v>
       </c>
       <c r="F33" s="3">
-        <v>1656100</v>
+        <v>1675000</v>
       </c>
       <c r="G33" s="3">
-        <v>1183700</v>
+        <v>1197100</v>
       </c>
       <c r="H33" s="3">
-        <v>928200</v>
+        <v>938700</v>
       </c>
       <c r="I33" s="3">
-        <v>770700</v>
+        <v>779500</v>
       </c>
       <c r="J33" s="3">
-        <v>1024200</v>
+        <v>1035800</v>
       </c>
       <c r="K33" s="3">
         <v>-516000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1107300</v>
+        <v>1119900</v>
       </c>
       <c r="E35" s="3">
-        <v>1643700</v>
+        <v>1662400</v>
       </c>
       <c r="F35" s="3">
-        <v>1656100</v>
+        <v>1675000</v>
       </c>
       <c r="G35" s="3">
-        <v>1183700</v>
+        <v>1197100</v>
       </c>
       <c r="H35" s="3">
-        <v>928200</v>
+        <v>938700</v>
       </c>
       <c r="I35" s="3">
-        <v>770700</v>
+        <v>779500</v>
       </c>
       <c r="J35" s="3">
-        <v>1024200</v>
+        <v>1035800</v>
       </c>
       <c r="K35" s="3">
         <v>-516000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8307400</v>
+        <v>8401800</v>
       </c>
       <c r="E41" s="3">
-        <v>5515900</v>
+        <v>5578600</v>
       </c>
       <c r="F41" s="3">
-        <v>5583700</v>
+        <v>5647200</v>
       </c>
       <c r="G41" s="3">
-        <v>5323900</v>
+        <v>5384400</v>
       </c>
       <c r="H41" s="3">
-        <v>6243600</v>
+        <v>6314600</v>
       </c>
       <c r="I41" s="3">
-        <v>5309900</v>
+        <v>5370300</v>
       </c>
       <c r="J41" s="3">
-        <v>4577300</v>
+        <v>4629300</v>
       </c>
       <c r="K41" s="3">
         <v>9364800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46580900</v>
+        <v>47110300</v>
       </c>
       <c r="E42" s="3">
-        <v>39010700</v>
+        <v>39454000</v>
       </c>
       <c r="F42" s="3">
-        <v>31194700</v>
+        <v>31549200</v>
       </c>
       <c r="G42" s="3">
-        <v>20932300</v>
+        <v>21170200</v>
       </c>
       <c r="H42" s="3">
-        <v>13888400</v>
+        <v>14046200</v>
       </c>
       <c r="I42" s="3">
-        <v>12461100</v>
+        <v>12602700</v>
       </c>
       <c r="J42" s="3">
-        <v>15487500</v>
+        <v>15663400</v>
       </c>
       <c r="K42" s="3">
         <v>39630600</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>874100</v>
+        <v>884000</v>
       </c>
       <c r="E47" s="3">
-        <v>709600</v>
+        <v>717700</v>
       </c>
       <c r="F47" s="3">
-        <v>318100</v>
+        <v>321700</v>
       </c>
       <c r="G47" s="3">
-        <v>367000</v>
+        <v>371200</v>
       </c>
       <c r="H47" s="3">
-        <v>386300</v>
+        <v>390700</v>
       </c>
       <c r="I47" s="3">
-        <v>566600</v>
+        <v>573000</v>
       </c>
       <c r="J47" s="3">
-        <v>570600</v>
+        <v>577100</v>
       </c>
       <c r="K47" s="3">
         <v>1621000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3233700</v>
+        <v>3270400</v>
       </c>
       <c r="E48" s="3">
-        <v>3207600</v>
+        <v>3244000</v>
       </c>
       <c r="F48" s="3">
-        <v>2480900</v>
+        <v>2509100</v>
       </c>
       <c r="G48" s="3">
-        <v>2507000</v>
+        <v>2535500</v>
       </c>
       <c r="H48" s="3">
-        <v>2478500</v>
+        <v>2506700</v>
       </c>
       <c r="I48" s="3">
-        <v>2484000</v>
+        <v>2512200</v>
       </c>
       <c r="J48" s="3">
-        <v>2515600</v>
+        <v>2544200</v>
       </c>
       <c r="K48" s="3">
         <v>5236300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>697000</v>
+        <v>704900</v>
       </c>
       <c r="E49" s="3">
-        <v>742800</v>
+        <v>751300</v>
       </c>
       <c r="F49" s="3">
-        <v>516800</v>
+        <v>522700</v>
       </c>
       <c r="G49" s="3">
-        <v>456400</v>
+        <v>461600</v>
       </c>
       <c r="H49" s="3">
-        <v>425700</v>
+        <v>430500</v>
       </c>
       <c r="I49" s="3">
-        <v>369400</v>
+        <v>373600</v>
       </c>
       <c r="J49" s="3">
-        <v>260200</v>
+        <v>263200</v>
       </c>
       <c r="K49" s="3">
         <v>489400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98300</v>
+        <v>99500</v>
       </c>
       <c r="E52" s="3">
-        <v>46400</v>
+        <v>46900</v>
       </c>
       <c r="F52" s="3">
-        <v>126200</v>
+        <v>127600</v>
       </c>
       <c r="G52" s="3">
-        <v>289300</v>
+        <v>292600</v>
       </c>
       <c r="H52" s="3">
-        <v>268700</v>
+        <v>271700</v>
       </c>
       <c r="I52" s="3">
-        <v>201100</v>
+        <v>203400</v>
       </c>
       <c r="J52" s="3">
-        <v>234000</v>
+        <v>236600</v>
       </c>
       <c r="K52" s="3">
         <v>77631000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351191000</v>
+        <v>355182000</v>
       </c>
       <c r="E54" s="3">
-        <v>318543000</v>
+        <v>322163000</v>
       </c>
       <c r="F54" s="3">
-        <v>299594000</v>
+        <v>302998000</v>
       </c>
       <c r="G54" s="3">
-        <v>278340000</v>
+        <v>281503000</v>
       </c>
       <c r="H54" s="3">
-        <v>273401000</v>
+        <v>276508000</v>
       </c>
       <c r="I54" s="3">
-        <v>256836000</v>
+        <v>259755000</v>
       </c>
       <c r="J54" s="3">
-        <v>237738000</v>
+        <v>240440000</v>
       </c>
       <c r="K54" s="3">
         <v>310028000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4398300</v>
+        <v>4448300</v>
       </c>
       <c r="E57" s="3">
-        <v>7521100</v>
+        <v>7606600</v>
       </c>
       <c r="F57" s="3">
-        <v>11511800</v>
+        <v>11642600</v>
       </c>
       <c r="G57" s="3">
-        <v>5801500</v>
+        <v>5867400</v>
       </c>
       <c r="H57" s="3">
-        <v>13033100</v>
+        <v>13181300</v>
       </c>
       <c r="I57" s="3">
-        <v>7371600</v>
+        <v>7455300</v>
       </c>
       <c r="J57" s="3">
-        <v>7298400</v>
+        <v>7381400</v>
       </c>
       <c r="K57" s="3">
         <v>13975600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2129700</v>
+        <v>2153900</v>
       </c>
       <c r="E59" s="3">
-        <v>2375100</v>
+        <v>2402000</v>
       </c>
       <c r="F59" s="3">
-        <v>2084600</v>
+        <v>2108300</v>
       </c>
       <c r="G59" s="3">
-        <v>2008600</v>
+        <v>2031400</v>
       </c>
       <c r="H59" s="3">
-        <v>1959900</v>
+        <v>1982100</v>
       </c>
       <c r="I59" s="3">
-        <v>1768900</v>
+        <v>1789000</v>
       </c>
       <c r="J59" s="3">
-        <v>2325000</v>
+        <v>2351500</v>
       </c>
       <c r="K59" s="3">
         <v>4189100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50643200</v>
+        <v>51218700</v>
       </c>
       <c r="E61" s="3">
-        <v>43616400</v>
+        <v>44112100</v>
       </c>
       <c r="F61" s="3">
-        <v>38624400</v>
+        <v>39063300</v>
       </c>
       <c r="G61" s="3">
-        <v>36941800</v>
+        <v>37361600</v>
       </c>
       <c r="H61" s="3">
-        <v>33771200</v>
+        <v>34155000</v>
       </c>
       <c r="I61" s="3">
-        <v>34482400</v>
+        <v>34874300</v>
       </c>
       <c r="J61" s="3">
-        <v>34714100</v>
+        <v>35108600</v>
       </c>
       <c r="K61" s="3">
         <v>31315500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>628400</v>
+        <v>635600</v>
       </c>
       <c r="E62" s="3">
-        <v>590300</v>
+        <v>597000</v>
       </c>
       <c r="F62" s="3">
-        <v>481100</v>
+        <v>486600</v>
       </c>
       <c r="G62" s="3">
-        <v>419200</v>
+        <v>424000</v>
       </c>
       <c r="H62" s="3">
-        <v>453300</v>
+        <v>458500</v>
       </c>
       <c r="I62" s="3">
-        <v>559400</v>
+        <v>565700</v>
       </c>
       <c r="J62" s="3">
-        <v>694600</v>
+        <v>702500</v>
       </c>
       <c r="K62" s="3">
         <v>1466000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>330904000</v>
+        <v>334664000</v>
       </c>
       <c r="E66" s="3">
-        <v>299614000</v>
+        <v>303019000</v>
       </c>
       <c r="F66" s="3">
-        <v>280462000</v>
+        <v>283650000</v>
       </c>
       <c r="G66" s="3">
-        <v>260418000</v>
+        <v>263377000</v>
       </c>
       <c r="H66" s="3">
-        <v>255461000</v>
+        <v>258364000</v>
       </c>
       <c r="I66" s="3">
-        <v>239950000</v>
+        <v>242677000</v>
       </c>
       <c r="J66" s="3">
-        <v>221913000</v>
+        <v>224435000</v>
       </c>
       <c r="K66" s="3">
         <v>293819000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16956100</v>
+        <v>17148800</v>
       </c>
       <c r="E72" s="3">
-        <v>16301600</v>
+        <v>16486800</v>
       </c>
       <c r="F72" s="3">
-        <v>15069700</v>
+        <v>15240900</v>
       </c>
       <c r="G72" s="3">
-        <v>13745600</v>
+        <v>13901800</v>
       </c>
       <c r="H72" s="3">
-        <v>12858200</v>
+        <v>13004300</v>
       </c>
       <c r="I72" s="3">
-        <v>12079000</v>
+        <v>12216200</v>
       </c>
       <c r="J72" s="3">
-        <v>12465500</v>
+        <v>12607200</v>
       </c>
       <c r="K72" s="3">
         <v>23865100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20287200</v>
+        <v>20517700</v>
       </c>
       <c r="E76" s="3">
-        <v>18929100</v>
+        <v>19144200</v>
       </c>
       <c r="F76" s="3">
-        <v>19131100</v>
+        <v>19348500</v>
       </c>
       <c r="G76" s="3">
-        <v>17922000</v>
+        <v>18125600</v>
       </c>
       <c r="H76" s="3">
-        <v>17939800</v>
+        <v>18143700</v>
       </c>
       <c r="I76" s="3">
-        <v>16885900</v>
+        <v>17077700</v>
       </c>
       <c r="J76" s="3">
-        <v>15825500</v>
+        <v>16005300</v>
       </c>
       <c r="K76" s="3">
         <v>16209000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1107300</v>
+        <v>1119900</v>
       </c>
       <c r="E81" s="3">
-        <v>1643700</v>
+        <v>1662400</v>
       </c>
       <c r="F81" s="3">
-        <v>1656100</v>
+        <v>1675000</v>
       </c>
       <c r="G81" s="3">
-        <v>1183700</v>
+        <v>1197100</v>
       </c>
       <c r="H81" s="3">
-        <v>928200</v>
+        <v>938700</v>
       </c>
       <c r="I81" s="3">
-        <v>770700</v>
+        <v>779500</v>
       </c>
       <c r="J81" s="3">
-        <v>1024200</v>
+        <v>1035800</v>
       </c>
       <c r="K81" s="3">
         <v>-516000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>471300</v>
+        <v>476600</v>
       </c>
       <c r="E83" s="3">
-        <v>445000</v>
+        <v>450100</v>
       </c>
       <c r="F83" s="3">
-        <v>239800</v>
+        <v>242600</v>
       </c>
       <c r="G83" s="3">
-        <v>207500</v>
+        <v>209900</v>
       </c>
       <c r="H83" s="3">
-        <v>221800</v>
+        <v>224300</v>
       </c>
       <c r="I83" s="3">
-        <v>211900</v>
+        <v>214300</v>
       </c>
       <c r="J83" s="3">
-        <v>217600</v>
+        <v>220000</v>
       </c>
       <c r="K83" s="3">
         <v>273400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3173300</v>
+        <v>3209300</v>
       </c>
       <c r="E89" s="3">
-        <v>1645900</v>
+        <v>1664600</v>
       </c>
       <c r="F89" s="3">
-        <v>8060900</v>
+        <v>8152500</v>
       </c>
       <c r="G89" s="3">
-        <v>-1741500</v>
+        <v>-1761300</v>
       </c>
       <c r="H89" s="3">
-        <v>4316700</v>
+        <v>4365700</v>
       </c>
       <c r="I89" s="3">
-        <v>-337800</v>
+        <v>-341700</v>
       </c>
       <c r="J89" s="3">
-        <v>247500</v>
+        <v>250300</v>
       </c>
       <c r="K89" s="3">
         <v>-3633400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131400</v>
+        <v>-132900</v>
       </c>
       <c r="E91" s="3">
-        <v>-378000</v>
+        <v>-382300</v>
       </c>
       <c r="F91" s="3">
-        <v>-104400</v>
+        <v>-105600</v>
       </c>
       <c r="G91" s="3">
-        <v>-142800</v>
+        <v>-144400</v>
       </c>
       <c r="H91" s="3">
-        <v>-115300</v>
+        <v>-116600</v>
       </c>
       <c r="I91" s="3">
-        <v>-113900</v>
+        <v>-115200</v>
       </c>
       <c r="J91" s="3">
-        <v>-123800</v>
+        <v>-125200</v>
       </c>
       <c r="K91" s="3">
         <v>-145100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1281700</v>
+        <v>-1296200</v>
       </c>
       <c r="E94" s="3">
-        <v>-7557600</v>
+        <v>-7643400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9742600</v>
+        <v>-9853300</v>
       </c>
       <c r="G94" s="3">
-        <v>1657700</v>
+        <v>1676500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3718500</v>
+        <v>-3760800</v>
       </c>
       <c r="I94" s="3">
-        <v>1121200</v>
+        <v>1134000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1004100</v>
+        <v>-1015500</v>
       </c>
       <c r="K94" s="3">
         <v>-357600</v>
@@ -3531,22 +3531,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-444900</v>
+        <v>-450000</v>
       </c>
       <c r="E96" s="3">
-        <v>-385100</v>
+        <v>-389500</v>
       </c>
       <c r="F96" s="3">
-        <v>-296200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-296200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-148100</v>
+        <v>-149800</v>
       </c>
       <c r="I96" s="3">
-        <v>-444400</v>
+        <v>-449400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2083200</v>
+        <v>2106800</v>
       </c>
       <c r="E100" s="3">
-        <v>5430500</v>
+        <v>5492200</v>
       </c>
       <c r="F100" s="3">
-        <v>1334800</v>
+        <v>1349900</v>
       </c>
       <c r="G100" s="3">
-        <v>-53800</v>
+        <v>-54400</v>
       </c>
       <c r="H100" s="3">
-        <v>293100</v>
+        <v>296400</v>
       </c>
       <c r="I100" s="3">
-        <v>-423600</v>
+        <v>-428500</v>
       </c>
       <c r="J100" s="3">
-        <v>274100</v>
+        <v>277200</v>
       </c>
       <c r="K100" s="3">
         <v>3803800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-808200</v>
+        <v>-817400</v>
       </c>
       <c r="E101" s="3">
-        <v>168500</v>
+        <v>170400</v>
       </c>
       <c r="F101" s="3">
-        <v>205900</v>
+        <v>208200</v>
       </c>
       <c r="G101" s="3">
-        <v>-463400</v>
+        <v>-468700</v>
       </c>
       <c r="H101" s="3">
-        <v>-57600</v>
+        <v>-58300</v>
       </c>
       <c r="I101" s="3">
-        <v>239700</v>
+        <v>242400</v>
       </c>
       <c r="J101" s="3">
-        <v>34100</v>
+        <v>34500</v>
       </c>
       <c r="K101" s="3">
         <v>-86400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3166600</v>
+        <v>3202600</v>
       </c>
       <c r="E102" s="3">
-        <v>-312700</v>
+        <v>-316200</v>
       </c>
       <c r="F102" s="3">
-        <v>-141100</v>
+        <v>-142700</v>
       </c>
       <c r="G102" s="3">
-        <v>-601100</v>
+        <v>-607900</v>
       </c>
       <c r="H102" s="3">
-        <v>833600</v>
+        <v>843100</v>
       </c>
       <c r="I102" s="3">
-        <v>599500</v>
+        <v>606300</v>
       </c>
       <c r="J102" s="3">
-        <v>-448400</v>
+        <v>-453500</v>
       </c>
       <c r="K102" s="3">
         <v>-273700</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8476200</v>
+        <v>8095300</v>
       </c>
       <c r="E8" s="3">
-        <v>9413300</v>
+        <v>8990300</v>
       </c>
       <c r="F8" s="3">
-        <v>8619200</v>
+        <v>8231800</v>
       </c>
       <c r="G8" s="3">
-        <v>7610100</v>
+        <v>7268100</v>
       </c>
       <c r="H8" s="3">
-        <v>7576000</v>
+        <v>7235500</v>
       </c>
       <c r="I8" s="3">
-        <v>7741400</v>
+        <v>7393500</v>
       </c>
       <c r="J8" s="3">
-        <v>8198000</v>
+        <v>7829600</v>
       </c>
       <c r="K8" s="3">
         <v>8639000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-466100</v>
+        <v>-445100</v>
       </c>
       <c r="E15" s="3">
-        <v>-430200</v>
+        <v>-410900</v>
       </c>
       <c r="F15" s="3">
-        <v>-196500</v>
+        <v>-187700</v>
       </c>
       <c r="G15" s="3">
-        <v>-166900</v>
+        <v>-159400</v>
       </c>
       <c r="H15" s="3">
-        <v>-224300</v>
+        <v>-214200</v>
       </c>
       <c r="I15" s="3">
-        <v>-214300</v>
+        <v>-204600</v>
       </c>
       <c r="J15" s="3">
-        <v>-202800</v>
+        <v>-193700</v>
       </c>
       <c r="K15" s="3">
         <v>-215000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3843200</v>
+        <v>3670500</v>
       </c>
       <c r="E17" s="3">
-        <v>4512900</v>
+        <v>4310100</v>
       </c>
       <c r="F17" s="3">
-        <v>3962800</v>
+        <v>3784700</v>
       </c>
       <c r="G17" s="3">
-        <v>3731200</v>
+        <v>3563500</v>
       </c>
       <c r="H17" s="3">
-        <v>3901300</v>
+        <v>3726000</v>
       </c>
       <c r="I17" s="3">
-        <v>4493100</v>
+        <v>4291200</v>
       </c>
       <c r="J17" s="3">
-        <v>5192600</v>
+        <v>4959200</v>
       </c>
       <c r="K17" s="3">
         <v>6553500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4633000</v>
+        <v>4424800</v>
       </c>
       <c r="E18" s="3">
-        <v>4900400</v>
+        <v>4680200</v>
       </c>
       <c r="F18" s="3">
-        <v>4656400</v>
+        <v>4447100</v>
       </c>
       <c r="G18" s="3">
-        <v>3879000</v>
+        <v>3704600</v>
       </c>
       <c r="H18" s="3">
-        <v>3674600</v>
+        <v>3509500</v>
       </c>
       <c r="I18" s="3">
-        <v>3248300</v>
+        <v>3102300</v>
       </c>
       <c r="J18" s="3">
-        <v>3005400</v>
+        <v>2870300</v>
       </c>
       <c r="K18" s="3">
         <v>2085400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2851900</v>
+        <v>-2723800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2476900</v>
+        <v>-2365600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2160100</v>
+        <v>-2063000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2143900</v>
+        <v>-2047500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2292100</v>
+        <v>-2189100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1956100</v>
+        <v>-1868100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2262800</v>
+        <v>-2161100</v>
       </c>
       <c r="K20" s="3">
         <v>-1823700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2257800</v>
+        <v>2156300</v>
       </c>
       <c r="E21" s="3">
-        <v>2873600</v>
+        <v>2744500</v>
       </c>
       <c r="F21" s="3">
-        <v>2738900</v>
+        <v>2615800</v>
       </c>
       <c r="G21" s="3">
-        <v>1944900</v>
+        <v>1857500</v>
       </c>
       <c r="H21" s="3">
-        <v>1606800</v>
+        <v>1534600</v>
       </c>
       <c r="I21" s="3">
-        <v>1506500</v>
+        <v>1438800</v>
       </c>
       <c r="J21" s="3">
-        <v>962600</v>
+        <v>919400</v>
       </c>
       <c r="K21" s="3">
         <v>532200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1781100</v>
+        <v>1701100</v>
       </c>
       <c r="E23" s="3">
-        <v>2423500</v>
+        <v>2314600</v>
       </c>
       <c r="F23" s="3">
-        <v>2496300</v>
+        <v>2384100</v>
       </c>
       <c r="G23" s="3">
-        <v>1735100</v>
+        <v>1657100</v>
       </c>
       <c r="H23" s="3">
-        <v>1382500</v>
+        <v>1320400</v>
       </c>
       <c r="I23" s="3">
-        <v>1292200</v>
+        <v>1234200</v>
       </c>
       <c r="J23" s="3">
-        <v>742600</v>
+        <v>709200</v>
       </c>
       <c r="K23" s="3">
         <v>261800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>432500</v>
+        <v>413100</v>
       </c>
       <c r="E24" s="3">
-        <v>610100</v>
+        <v>582600</v>
       </c>
       <c r="F24" s="3">
-        <v>670400</v>
+        <v>640200</v>
       </c>
       <c r="G24" s="3">
-        <v>373300</v>
+        <v>356500</v>
       </c>
       <c r="H24" s="3">
-        <v>245500</v>
+        <v>234500</v>
       </c>
       <c r="I24" s="3">
-        <v>335100</v>
+        <v>320100</v>
       </c>
       <c r="J24" s="3">
-        <v>256500</v>
+        <v>245000</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1348600</v>
+        <v>1288000</v>
       </c>
       <c r="E26" s="3">
-        <v>1813500</v>
+        <v>1732000</v>
       </c>
       <c r="F26" s="3">
-        <v>1826000</v>
+        <v>1743900</v>
       </c>
       <c r="G26" s="3">
-        <v>1361800</v>
+        <v>1300600</v>
       </c>
       <c r="H26" s="3">
-        <v>1137000</v>
+        <v>1085900</v>
       </c>
       <c r="I26" s="3">
-        <v>957100</v>
+        <v>914100</v>
       </c>
       <c r="J26" s="3">
-        <v>486100</v>
+        <v>464300</v>
       </c>
       <c r="K26" s="3">
         <v>229800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1119900</v>
+        <v>1069600</v>
       </c>
       <c r="E27" s="3">
-        <v>1662400</v>
+        <v>1587700</v>
       </c>
       <c r="F27" s="3">
-        <v>1675000</v>
+        <v>1599700</v>
       </c>
       <c r="G27" s="3">
-        <v>1197100</v>
+        <v>1143300</v>
       </c>
       <c r="H27" s="3">
-        <v>938700</v>
+        <v>896500</v>
       </c>
       <c r="I27" s="3">
-        <v>779500</v>
+        <v>744500</v>
       </c>
       <c r="J27" s="3">
-        <v>342800</v>
+        <v>327400</v>
       </c>
       <c r="K27" s="3">
         <v>120700</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>693000</v>
+        <v>661900</v>
       </c>
       <c r="K29" s="3">
         <v>-636700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2851900</v>
+        <v>2723800</v>
       </c>
       <c r="E32" s="3">
-        <v>2476900</v>
+        <v>2365600</v>
       </c>
       <c r="F32" s="3">
-        <v>2160100</v>
+        <v>2063000</v>
       </c>
       <c r="G32" s="3">
-        <v>2143900</v>
+        <v>2047500</v>
       </c>
       <c r="H32" s="3">
-        <v>2292100</v>
+        <v>2189100</v>
       </c>
       <c r="I32" s="3">
-        <v>1956100</v>
+        <v>1868100</v>
       </c>
       <c r="J32" s="3">
-        <v>2262800</v>
+        <v>2161100</v>
       </c>
       <c r="K32" s="3">
         <v>1823700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1119900</v>
+        <v>1069600</v>
       </c>
       <c r="E33" s="3">
-        <v>1662400</v>
+        <v>1587700</v>
       </c>
       <c r="F33" s="3">
-        <v>1675000</v>
+        <v>1599700</v>
       </c>
       <c r="G33" s="3">
-        <v>1197100</v>
+        <v>1143300</v>
       </c>
       <c r="H33" s="3">
-        <v>938700</v>
+        <v>896500</v>
       </c>
       <c r="I33" s="3">
-        <v>779500</v>
+        <v>744500</v>
       </c>
       <c r="J33" s="3">
-        <v>1035800</v>
+        <v>989300</v>
       </c>
       <c r="K33" s="3">
         <v>-516000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1119900</v>
+        <v>1069600</v>
       </c>
       <c r="E35" s="3">
-        <v>1662400</v>
+        <v>1587700</v>
       </c>
       <c r="F35" s="3">
-        <v>1675000</v>
+        <v>1599700</v>
       </c>
       <c r="G35" s="3">
-        <v>1197100</v>
+        <v>1143300</v>
       </c>
       <c r="H35" s="3">
-        <v>938700</v>
+        <v>896500</v>
       </c>
       <c r="I35" s="3">
-        <v>779500</v>
+        <v>744500</v>
       </c>
       <c r="J35" s="3">
-        <v>1035800</v>
+        <v>989300</v>
       </c>
       <c r="K35" s="3">
         <v>-516000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8401800</v>
+        <v>8024200</v>
       </c>
       <c r="E41" s="3">
-        <v>5578600</v>
+        <v>5327800</v>
       </c>
       <c r="F41" s="3">
-        <v>5647200</v>
+        <v>5393400</v>
       </c>
       <c r="G41" s="3">
-        <v>5384400</v>
+        <v>5142400</v>
       </c>
       <c r="H41" s="3">
-        <v>6314600</v>
+        <v>6030800</v>
       </c>
       <c r="I41" s="3">
-        <v>5370300</v>
+        <v>5128900</v>
       </c>
       <c r="J41" s="3">
-        <v>4629300</v>
+        <v>4421300</v>
       </c>
       <c r="K41" s="3">
         <v>9364800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47110300</v>
+        <v>44993000</v>
       </c>
       <c r="E42" s="3">
-        <v>39454000</v>
+        <v>37680800</v>
       </c>
       <c r="F42" s="3">
-        <v>31549200</v>
+        <v>30131200</v>
       </c>
       <c r="G42" s="3">
-        <v>21170200</v>
+        <v>20218700</v>
       </c>
       <c r="H42" s="3">
-        <v>14046200</v>
+        <v>13414900</v>
       </c>
       <c r="I42" s="3">
-        <v>12602700</v>
+        <v>12036300</v>
       </c>
       <c r="J42" s="3">
-        <v>15663400</v>
+        <v>14959500</v>
       </c>
       <c r="K42" s="3">
         <v>39630600</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>884000</v>
+        <v>844300</v>
       </c>
       <c r="E47" s="3">
-        <v>717700</v>
+        <v>685400</v>
       </c>
       <c r="F47" s="3">
-        <v>321700</v>
+        <v>307200</v>
       </c>
       <c r="G47" s="3">
-        <v>371200</v>
+        <v>354500</v>
       </c>
       <c r="H47" s="3">
-        <v>390700</v>
+        <v>373200</v>
       </c>
       <c r="I47" s="3">
-        <v>573000</v>
+        <v>547300</v>
       </c>
       <c r="J47" s="3">
-        <v>577100</v>
+        <v>551200</v>
       </c>
       <c r="K47" s="3">
         <v>1621000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3270400</v>
+        <v>3123500</v>
       </c>
       <c r="E48" s="3">
-        <v>3244000</v>
+        <v>3098200</v>
       </c>
       <c r="F48" s="3">
-        <v>2509100</v>
+        <v>2396300</v>
       </c>
       <c r="G48" s="3">
-        <v>2535500</v>
+        <v>2421500</v>
       </c>
       <c r="H48" s="3">
-        <v>2506700</v>
+        <v>2394000</v>
       </c>
       <c r="I48" s="3">
-        <v>2512200</v>
+        <v>2399300</v>
       </c>
       <c r="J48" s="3">
-        <v>2544200</v>
+        <v>2429900</v>
       </c>
       <c r="K48" s="3">
         <v>5236300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>704900</v>
+        <v>673300</v>
       </c>
       <c r="E49" s="3">
-        <v>751300</v>
+        <v>717500</v>
       </c>
       <c r="F49" s="3">
-        <v>522700</v>
+        <v>499200</v>
       </c>
       <c r="G49" s="3">
-        <v>461600</v>
+        <v>440800</v>
       </c>
       <c r="H49" s="3">
-        <v>430500</v>
+        <v>411200</v>
       </c>
       <c r="I49" s="3">
-        <v>373600</v>
+        <v>356800</v>
       </c>
       <c r="J49" s="3">
-        <v>263200</v>
+        <v>251400</v>
       </c>
       <c r="K49" s="3">
         <v>489400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>99500</v>
+        <v>95000</v>
       </c>
       <c r="E52" s="3">
-        <v>46900</v>
+        <v>44800</v>
       </c>
       <c r="F52" s="3">
-        <v>127600</v>
+        <v>121900</v>
       </c>
       <c r="G52" s="3">
-        <v>292600</v>
+        <v>279400</v>
       </c>
       <c r="H52" s="3">
-        <v>271700</v>
+        <v>259500</v>
       </c>
       <c r="I52" s="3">
-        <v>203400</v>
+        <v>194200</v>
       </c>
       <c r="J52" s="3">
-        <v>236600</v>
+        <v>226000</v>
       </c>
       <c r="K52" s="3">
         <v>77631000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>355182000</v>
+        <v>339219000</v>
       </c>
       <c r="E54" s="3">
-        <v>322163000</v>
+        <v>307684000</v>
       </c>
       <c r="F54" s="3">
-        <v>302998000</v>
+        <v>289380000</v>
       </c>
       <c r="G54" s="3">
-        <v>281503000</v>
+        <v>268851000</v>
       </c>
       <c r="H54" s="3">
-        <v>276508000</v>
+        <v>264080000</v>
       </c>
       <c r="I54" s="3">
-        <v>259755000</v>
+        <v>248080000</v>
       </c>
       <c r="J54" s="3">
-        <v>240440000</v>
+        <v>229634000</v>
       </c>
       <c r="K54" s="3">
         <v>310028000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4448300</v>
+        <v>4248400</v>
       </c>
       <c r="E57" s="3">
-        <v>7606600</v>
+        <v>7264700</v>
       </c>
       <c r="F57" s="3">
-        <v>11642600</v>
+        <v>11119300</v>
       </c>
       <c r="G57" s="3">
-        <v>5867400</v>
+        <v>5603700</v>
       </c>
       <c r="H57" s="3">
-        <v>13181300</v>
+        <v>12588800</v>
       </c>
       <c r="I57" s="3">
-        <v>7455300</v>
+        <v>7120300</v>
       </c>
       <c r="J57" s="3">
-        <v>7381400</v>
+        <v>7049600</v>
       </c>
       <c r="K57" s="3">
         <v>13975600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2153900</v>
+        <v>2057100</v>
       </c>
       <c r="E59" s="3">
-        <v>2402000</v>
+        <v>2294100</v>
       </c>
       <c r="F59" s="3">
-        <v>2108300</v>
+        <v>2013600</v>
       </c>
       <c r="G59" s="3">
-        <v>2031400</v>
+        <v>1940100</v>
       </c>
       <c r="H59" s="3">
-        <v>1982100</v>
+        <v>1893100</v>
       </c>
       <c r="I59" s="3">
-        <v>1789000</v>
+        <v>1708600</v>
       </c>
       <c r="J59" s="3">
-        <v>2351500</v>
+        <v>2245800</v>
       </c>
       <c r="K59" s="3">
         <v>4189100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51218700</v>
+        <v>48916800</v>
       </c>
       <c r="E61" s="3">
-        <v>44112100</v>
+        <v>42129500</v>
       </c>
       <c r="F61" s="3">
-        <v>39063300</v>
+        <v>37307600</v>
       </c>
       <c r="G61" s="3">
-        <v>37361600</v>
+        <v>35682400</v>
       </c>
       <c r="H61" s="3">
-        <v>34155000</v>
+        <v>32619900</v>
       </c>
       <c r="I61" s="3">
-        <v>34874300</v>
+        <v>33306900</v>
       </c>
       <c r="J61" s="3">
-        <v>35108600</v>
+        <v>33530700</v>
       </c>
       <c r="K61" s="3">
         <v>31315500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>635600</v>
+        <v>607000</v>
       </c>
       <c r="E62" s="3">
-        <v>597000</v>
+        <v>570200</v>
       </c>
       <c r="F62" s="3">
-        <v>486600</v>
+        <v>464700</v>
       </c>
       <c r="G62" s="3">
-        <v>424000</v>
+        <v>405000</v>
       </c>
       <c r="H62" s="3">
-        <v>458500</v>
+        <v>437900</v>
       </c>
       <c r="I62" s="3">
-        <v>565700</v>
+        <v>540300</v>
       </c>
       <c r="J62" s="3">
-        <v>702500</v>
+        <v>671000</v>
       </c>
       <c r="K62" s="3">
         <v>1466000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>334664000</v>
+        <v>319623000</v>
       </c>
       <c r="E66" s="3">
-        <v>303019000</v>
+        <v>289400000</v>
       </c>
       <c r="F66" s="3">
-        <v>283650000</v>
+        <v>270901000</v>
       </c>
       <c r="G66" s="3">
-        <v>263377000</v>
+        <v>251540000</v>
       </c>
       <c r="H66" s="3">
-        <v>258364000</v>
+        <v>246752000</v>
       </c>
       <c r="I66" s="3">
-        <v>242677000</v>
+        <v>231770000</v>
       </c>
       <c r="J66" s="3">
-        <v>224435000</v>
+        <v>214348000</v>
       </c>
       <c r="K66" s="3">
         <v>293819000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17148800</v>
+        <v>16378000</v>
       </c>
       <c r="E72" s="3">
-        <v>16486800</v>
+        <v>15745800</v>
       </c>
       <c r="F72" s="3">
-        <v>15240900</v>
+        <v>14556000</v>
       </c>
       <c r="G72" s="3">
-        <v>13901800</v>
+        <v>13277000</v>
       </c>
       <c r="H72" s="3">
-        <v>13004300</v>
+        <v>12419800</v>
       </c>
       <c r="I72" s="3">
-        <v>12216200</v>
+        <v>11667200</v>
       </c>
       <c r="J72" s="3">
-        <v>12607200</v>
+        <v>12040600</v>
       </c>
       <c r="K72" s="3">
         <v>23865100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20517700</v>
+        <v>19595600</v>
       </c>
       <c r="E76" s="3">
-        <v>19144200</v>
+        <v>18283800</v>
       </c>
       <c r="F76" s="3">
-        <v>19348500</v>
+        <v>18478900</v>
       </c>
       <c r="G76" s="3">
-        <v>18125600</v>
+        <v>17311000</v>
       </c>
       <c r="H76" s="3">
-        <v>18143700</v>
+        <v>17328200</v>
       </c>
       <c r="I76" s="3">
-        <v>17077700</v>
+        <v>16310200</v>
       </c>
       <c r="J76" s="3">
-        <v>16005300</v>
+        <v>15286000</v>
       </c>
       <c r="K76" s="3">
         <v>16209000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1119900</v>
+        <v>1069600</v>
       </c>
       <c r="E81" s="3">
-        <v>1662400</v>
+        <v>1587700</v>
       </c>
       <c r="F81" s="3">
-        <v>1675000</v>
+        <v>1599700</v>
       </c>
       <c r="G81" s="3">
-        <v>1197100</v>
+        <v>1143300</v>
       </c>
       <c r="H81" s="3">
-        <v>938700</v>
+        <v>896500</v>
       </c>
       <c r="I81" s="3">
-        <v>779500</v>
+        <v>744500</v>
       </c>
       <c r="J81" s="3">
-        <v>1035800</v>
+        <v>989300</v>
       </c>
       <c r="K81" s="3">
         <v>-516000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>476600</v>
+        <v>455200</v>
       </c>
       <c r="E83" s="3">
-        <v>450100</v>
+        <v>429900</v>
       </c>
       <c r="F83" s="3">
-        <v>242600</v>
+        <v>231700</v>
       </c>
       <c r="G83" s="3">
-        <v>209900</v>
+        <v>200400</v>
       </c>
       <c r="H83" s="3">
-        <v>224300</v>
+        <v>214200</v>
       </c>
       <c r="I83" s="3">
-        <v>214300</v>
+        <v>204600</v>
       </c>
       <c r="J83" s="3">
-        <v>220000</v>
+        <v>210100</v>
       </c>
       <c r="K83" s="3">
         <v>273400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3209300</v>
+        <v>3065100</v>
       </c>
       <c r="E89" s="3">
-        <v>1664600</v>
+        <v>1589800</v>
       </c>
       <c r="F89" s="3">
-        <v>8152500</v>
+        <v>7786100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1761300</v>
+        <v>-1682200</v>
       </c>
       <c r="H89" s="3">
-        <v>4365700</v>
+        <v>4169500</v>
       </c>
       <c r="I89" s="3">
-        <v>-341700</v>
+        <v>-326300</v>
       </c>
       <c r="J89" s="3">
-        <v>250300</v>
+        <v>239100</v>
       </c>
       <c r="K89" s="3">
         <v>-3633400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-132900</v>
+        <v>-126900</v>
       </c>
       <c r="E91" s="3">
-        <v>-382300</v>
+        <v>-365100</v>
       </c>
       <c r="F91" s="3">
-        <v>-105600</v>
+        <v>-100900</v>
       </c>
       <c r="G91" s="3">
-        <v>-144400</v>
+        <v>-137900</v>
       </c>
       <c r="H91" s="3">
-        <v>-116600</v>
+        <v>-111400</v>
       </c>
       <c r="I91" s="3">
-        <v>-115200</v>
+        <v>-110000</v>
       </c>
       <c r="J91" s="3">
-        <v>-125200</v>
+        <v>-119500</v>
       </c>
       <c r="K91" s="3">
         <v>-145100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1296200</v>
+        <v>-1238000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7643400</v>
+        <v>-7299900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9853300</v>
+        <v>-9410500</v>
       </c>
       <c r="G94" s="3">
-        <v>1676500</v>
+        <v>1601200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3760800</v>
+        <v>-3591800</v>
       </c>
       <c r="I94" s="3">
-        <v>1134000</v>
+        <v>1083000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1015500</v>
+        <v>-969900</v>
       </c>
       <c r="K94" s="3">
         <v>-357600</v>
@@ -3531,22 +3531,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-450000</v>
+        <v>-429700</v>
       </c>
       <c r="E96" s="3">
-        <v>-389500</v>
+        <v>-372000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-286100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-286100</v>
       </c>
       <c r="H96" s="3">
-        <v>-149800</v>
+        <v>-143100</v>
       </c>
       <c r="I96" s="3">
-        <v>-449400</v>
+        <v>-429200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2106800</v>
+        <v>2012200</v>
       </c>
       <c r="E100" s="3">
-        <v>5492200</v>
+        <v>5245400</v>
       </c>
       <c r="F100" s="3">
-        <v>1349900</v>
+        <v>1289300</v>
       </c>
       <c r="G100" s="3">
-        <v>-54400</v>
+        <v>-51900</v>
       </c>
       <c r="H100" s="3">
-        <v>296400</v>
+        <v>283100</v>
       </c>
       <c r="I100" s="3">
-        <v>-428500</v>
+        <v>-409200</v>
       </c>
       <c r="J100" s="3">
-        <v>277200</v>
+        <v>264700</v>
       </c>
       <c r="K100" s="3">
         <v>3803800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-817400</v>
+        <v>-780600</v>
       </c>
       <c r="E101" s="3">
-        <v>170400</v>
+        <v>162700</v>
       </c>
       <c r="F101" s="3">
-        <v>208200</v>
+        <v>198800</v>
       </c>
       <c r="G101" s="3">
-        <v>-468700</v>
+        <v>-447600</v>
       </c>
       <c r="H101" s="3">
-        <v>-58300</v>
+        <v>-55600</v>
       </c>
       <c r="I101" s="3">
-        <v>242400</v>
+        <v>231500</v>
       </c>
       <c r="J101" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="K101" s="3">
         <v>-86400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3202600</v>
+        <v>3058700</v>
       </c>
       <c r="E102" s="3">
-        <v>-316200</v>
+        <v>-302000</v>
       </c>
       <c r="F102" s="3">
-        <v>-142700</v>
+        <v>-136300</v>
       </c>
       <c r="G102" s="3">
-        <v>-607900</v>
+        <v>-580600</v>
       </c>
       <c r="H102" s="3">
-        <v>843100</v>
+        <v>805200</v>
       </c>
       <c r="I102" s="3">
-        <v>606300</v>
+        <v>579000</v>
       </c>
       <c r="J102" s="3">
-        <v>-453500</v>
+        <v>-433200</v>
       </c>
       <c r="K102" s="3">
         <v>-273700</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8095300</v>
+        <v>8000000</v>
       </c>
       <c r="E8" s="3">
-        <v>8990300</v>
+        <v>8884500</v>
       </c>
       <c r="F8" s="3">
-        <v>8231800</v>
+        <v>8135000</v>
       </c>
       <c r="G8" s="3">
-        <v>7268100</v>
+        <v>7182600</v>
       </c>
       <c r="H8" s="3">
-        <v>7235500</v>
+        <v>7150300</v>
       </c>
       <c r="I8" s="3">
-        <v>7393500</v>
+        <v>7306500</v>
       </c>
       <c r="J8" s="3">
-        <v>7829600</v>
+        <v>7737400</v>
       </c>
       <c r="K8" s="3">
         <v>8639000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-445100</v>
+        <v>-439900</v>
       </c>
       <c r="E15" s="3">
-        <v>-410900</v>
+        <v>-406100</v>
       </c>
       <c r="F15" s="3">
-        <v>-187700</v>
+        <v>-185500</v>
       </c>
       <c r="G15" s="3">
-        <v>-159400</v>
+        <v>-157500</v>
       </c>
       <c r="H15" s="3">
-        <v>-214200</v>
+        <v>-211700</v>
       </c>
       <c r="I15" s="3">
-        <v>-204600</v>
+        <v>-202200</v>
       </c>
       <c r="J15" s="3">
-        <v>-193700</v>
+        <v>-191400</v>
       </c>
       <c r="K15" s="3">
         <v>-215000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3670500</v>
+        <v>3627300</v>
       </c>
       <c r="E17" s="3">
-        <v>4310100</v>
+        <v>4259400</v>
       </c>
       <c r="F17" s="3">
-        <v>3784700</v>
+        <v>3740200</v>
       </c>
       <c r="G17" s="3">
-        <v>3563500</v>
+        <v>3521500</v>
       </c>
       <c r="H17" s="3">
-        <v>3726000</v>
+        <v>3682200</v>
       </c>
       <c r="I17" s="3">
-        <v>4291200</v>
+        <v>4240700</v>
       </c>
       <c r="J17" s="3">
-        <v>4959200</v>
+        <v>4900900</v>
       </c>
       <c r="K17" s="3">
         <v>6553500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4424800</v>
+        <v>4372800</v>
       </c>
       <c r="E18" s="3">
-        <v>4680200</v>
+        <v>4625100</v>
       </c>
       <c r="F18" s="3">
-        <v>4447100</v>
+        <v>4394800</v>
       </c>
       <c r="G18" s="3">
-        <v>3704600</v>
+        <v>3661000</v>
       </c>
       <c r="H18" s="3">
-        <v>3509500</v>
+        <v>3468200</v>
       </c>
       <c r="I18" s="3">
-        <v>3102300</v>
+        <v>3065800</v>
       </c>
       <c r="J18" s="3">
-        <v>2870300</v>
+        <v>2836600</v>
       </c>
       <c r="K18" s="3">
         <v>2085400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2723800</v>
+        <v>-2691700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2365600</v>
+        <v>-2337700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2063000</v>
+        <v>-2038700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2047500</v>
+        <v>-2023500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2189100</v>
+        <v>-2163300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1868100</v>
+        <v>-1846200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2161100</v>
+        <v>-2135700</v>
       </c>
       <c r="K20" s="3">
         <v>-1823700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2156300</v>
+        <v>2130900</v>
       </c>
       <c r="E21" s="3">
-        <v>2744500</v>
+        <v>2712200</v>
       </c>
       <c r="F21" s="3">
-        <v>2615800</v>
+        <v>2585000</v>
       </c>
       <c r="G21" s="3">
-        <v>1857500</v>
+        <v>1835700</v>
       </c>
       <c r="H21" s="3">
-        <v>1534600</v>
+        <v>1516600</v>
       </c>
       <c r="I21" s="3">
-        <v>1438800</v>
+        <v>1421900</v>
       </c>
       <c r="J21" s="3">
-        <v>919400</v>
+        <v>908600</v>
       </c>
       <c r="K21" s="3">
         <v>532200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1701100</v>
+        <v>1681100</v>
       </c>
       <c r="E23" s="3">
-        <v>2314600</v>
+        <v>2287400</v>
       </c>
       <c r="F23" s="3">
-        <v>2384100</v>
+        <v>2356100</v>
       </c>
       <c r="G23" s="3">
-        <v>1657100</v>
+        <v>1637600</v>
       </c>
       <c r="H23" s="3">
-        <v>1320400</v>
+        <v>1304800</v>
       </c>
       <c r="I23" s="3">
-        <v>1234200</v>
+        <v>1219600</v>
       </c>
       <c r="J23" s="3">
-        <v>709200</v>
+        <v>700900</v>
       </c>
       <c r="K23" s="3">
         <v>261800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>413100</v>
+        <v>408200</v>
       </c>
       <c r="E24" s="3">
-        <v>582600</v>
+        <v>575800</v>
       </c>
       <c r="F24" s="3">
-        <v>640200</v>
+        <v>632700</v>
       </c>
       <c r="G24" s="3">
-        <v>356500</v>
+        <v>352300</v>
       </c>
       <c r="H24" s="3">
-        <v>234500</v>
+        <v>231700</v>
       </c>
       <c r="I24" s="3">
-        <v>320100</v>
+        <v>316300</v>
       </c>
       <c r="J24" s="3">
-        <v>245000</v>
+        <v>242100</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1288000</v>
+        <v>1272800</v>
       </c>
       <c r="E26" s="3">
-        <v>1732000</v>
+        <v>1711600</v>
       </c>
       <c r="F26" s="3">
-        <v>1743900</v>
+        <v>1723400</v>
       </c>
       <c r="G26" s="3">
-        <v>1300600</v>
+        <v>1285300</v>
       </c>
       <c r="H26" s="3">
-        <v>1085900</v>
+        <v>1073100</v>
       </c>
       <c r="I26" s="3">
-        <v>914100</v>
+        <v>903300</v>
       </c>
       <c r="J26" s="3">
-        <v>464300</v>
+        <v>458800</v>
       </c>
       <c r="K26" s="3">
         <v>229800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1069600</v>
+        <v>1057000</v>
       </c>
       <c r="E27" s="3">
-        <v>1587700</v>
+        <v>1569000</v>
       </c>
       <c r="F27" s="3">
-        <v>1599700</v>
+        <v>1580900</v>
       </c>
       <c r="G27" s="3">
-        <v>1143300</v>
+        <v>1129900</v>
       </c>
       <c r="H27" s="3">
-        <v>896500</v>
+        <v>886000</v>
       </c>
       <c r="I27" s="3">
-        <v>744500</v>
+        <v>735700</v>
       </c>
       <c r="J27" s="3">
-        <v>327400</v>
+        <v>323500</v>
       </c>
       <c r="K27" s="3">
         <v>120700</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>661900</v>
+        <v>654100</v>
       </c>
       <c r="K29" s="3">
         <v>-636700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2723800</v>
+        <v>2691700</v>
       </c>
       <c r="E32" s="3">
-        <v>2365600</v>
+        <v>2337700</v>
       </c>
       <c r="F32" s="3">
-        <v>2063000</v>
+        <v>2038700</v>
       </c>
       <c r="G32" s="3">
-        <v>2047500</v>
+        <v>2023500</v>
       </c>
       <c r="H32" s="3">
-        <v>2189100</v>
+        <v>2163300</v>
       </c>
       <c r="I32" s="3">
-        <v>1868100</v>
+        <v>1846200</v>
       </c>
       <c r="J32" s="3">
-        <v>2161100</v>
+        <v>2135700</v>
       </c>
       <c r="K32" s="3">
         <v>1823700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1069600</v>
+        <v>1057000</v>
       </c>
       <c r="E33" s="3">
-        <v>1587700</v>
+        <v>1569000</v>
       </c>
       <c r="F33" s="3">
-        <v>1599700</v>
+        <v>1580900</v>
       </c>
       <c r="G33" s="3">
-        <v>1143300</v>
+        <v>1129900</v>
       </c>
       <c r="H33" s="3">
-        <v>896500</v>
+        <v>886000</v>
       </c>
       <c r="I33" s="3">
-        <v>744500</v>
+        <v>735700</v>
       </c>
       <c r="J33" s="3">
-        <v>989300</v>
+        <v>977600</v>
       </c>
       <c r="K33" s="3">
         <v>-516000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1069600</v>
+        <v>1057000</v>
       </c>
       <c r="E35" s="3">
-        <v>1587700</v>
+        <v>1569000</v>
       </c>
       <c r="F35" s="3">
-        <v>1599700</v>
+        <v>1580900</v>
       </c>
       <c r="G35" s="3">
-        <v>1143300</v>
+        <v>1129900</v>
       </c>
       <c r="H35" s="3">
-        <v>896500</v>
+        <v>886000</v>
       </c>
       <c r="I35" s="3">
-        <v>744500</v>
+        <v>735700</v>
       </c>
       <c r="J35" s="3">
-        <v>989300</v>
+        <v>977600</v>
       </c>
       <c r="K35" s="3">
         <v>-516000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8024200</v>
+        <v>7929800</v>
       </c>
       <c r="E41" s="3">
-        <v>5327800</v>
+        <v>5265200</v>
       </c>
       <c r="F41" s="3">
-        <v>5393400</v>
+        <v>5329900</v>
       </c>
       <c r="G41" s="3">
-        <v>5142400</v>
+        <v>5081900</v>
       </c>
       <c r="H41" s="3">
-        <v>6030800</v>
+        <v>5959800</v>
       </c>
       <c r="I41" s="3">
-        <v>5128900</v>
+        <v>5068600</v>
       </c>
       <c r="J41" s="3">
-        <v>4421300</v>
+        <v>4369300</v>
       </c>
       <c r="K41" s="3">
         <v>9364800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44993000</v>
+        <v>44463600</v>
       </c>
       <c r="E42" s="3">
-        <v>37680800</v>
+        <v>37237500</v>
       </c>
       <c r="F42" s="3">
-        <v>30131200</v>
+        <v>29776700</v>
       </c>
       <c r="G42" s="3">
-        <v>20218700</v>
+        <v>19980800</v>
       </c>
       <c r="H42" s="3">
-        <v>13414900</v>
+        <v>13257100</v>
       </c>
       <c r="I42" s="3">
-        <v>12036300</v>
+        <v>11894700</v>
       </c>
       <c r="J42" s="3">
-        <v>14959500</v>
+        <v>14783500</v>
       </c>
       <c r="K42" s="3">
         <v>39630600</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>844300</v>
+        <v>834400</v>
       </c>
       <c r="E47" s="3">
-        <v>685400</v>
+        <v>677300</v>
       </c>
       <c r="F47" s="3">
-        <v>307200</v>
+        <v>303600</v>
       </c>
       <c r="G47" s="3">
-        <v>354500</v>
+        <v>350300</v>
       </c>
       <c r="H47" s="3">
-        <v>373200</v>
+        <v>368800</v>
       </c>
       <c r="I47" s="3">
-        <v>547300</v>
+        <v>540800</v>
       </c>
       <c r="J47" s="3">
-        <v>551200</v>
+        <v>544700</v>
       </c>
       <c r="K47" s="3">
         <v>1621000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3123500</v>
+        <v>3086700</v>
       </c>
       <c r="E48" s="3">
-        <v>3098200</v>
+        <v>3061800</v>
       </c>
       <c r="F48" s="3">
-        <v>2396300</v>
+        <v>2368100</v>
       </c>
       <c r="G48" s="3">
-        <v>2421500</v>
+        <v>2393000</v>
       </c>
       <c r="H48" s="3">
-        <v>2394000</v>
+        <v>2365900</v>
       </c>
       <c r="I48" s="3">
-        <v>2399300</v>
+        <v>2371100</v>
       </c>
       <c r="J48" s="3">
-        <v>2429900</v>
+        <v>2401300</v>
       </c>
       <c r="K48" s="3">
         <v>5236300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>673300</v>
+        <v>665300</v>
       </c>
       <c r="E49" s="3">
-        <v>717500</v>
+        <v>709100</v>
       </c>
       <c r="F49" s="3">
-        <v>499200</v>
+        <v>493300</v>
       </c>
       <c r="G49" s="3">
-        <v>440800</v>
+        <v>435600</v>
       </c>
       <c r="H49" s="3">
-        <v>411200</v>
+        <v>406300</v>
       </c>
       <c r="I49" s="3">
-        <v>356800</v>
+        <v>352600</v>
       </c>
       <c r="J49" s="3">
-        <v>251400</v>
+        <v>248400</v>
       </c>
       <c r="K49" s="3">
         <v>489400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95000</v>
+        <v>93900</v>
       </c>
       <c r="E52" s="3">
-        <v>44800</v>
+        <v>44300</v>
       </c>
       <c r="F52" s="3">
-        <v>121900</v>
+        <v>120400</v>
       </c>
       <c r="G52" s="3">
-        <v>279400</v>
+        <v>276200</v>
       </c>
       <c r="H52" s="3">
-        <v>259500</v>
+        <v>256400</v>
       </c>
       <c r="I52" s="3">
-        <v>194200</v>
+        <v>191900</v>
       </c>
       <c r="J52" s="3">
-        <v>226000</v>
+        <v>223300</v>
       </c>
       <c r="K52" s="3">
         <v>77631000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339219000</v>
+        <v>335228000</v>
       </c>
       <c r="E54" s="3">
-        <v>307684000</v>
+        <v>304064000</v>
       </c>
       <c r="F54" s="3">
-        <v>289380000</v>
+        <v>285976000</v>
       </c>
       <c r="G54" s="3">
-        <v>268851000</v>
+        <v>265688000</v>
       </c>
       <c r="H54" s="3">
-        <v>264080000</v>
+        <v>260974000</v>
       </c>
       <c r="I54" s="3">
-        <v>248080000</v>
+        <v>245162000</v>
       </c>
       <c r="J54" s="3">
-        <v>229634000</v>
+        <v>226932000</v>
       </c>
       <c r="K54" s="3">
         <v>310028000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4248400</v>
+        <v>4198400</v>
       </c>
       <c r="E57" s="3">
-        <v>7264700</v>
+        <v>7179200</v>
       </c>
       <c r="F57" s="3">
-        <v>11119300</v>
+        <v>10988500</v>
       </c>
       <c r="G57" s="3">
-        <v>5603700</v>
+        <v>5537800</v>
       </c>
       <c r="H57" s="3">
-        <v>12588800</v>
+        <v>12440700</v>
       </c>
       <c r="I57" s="3">
-        <v>7120300</v>
+        <v>7036500</v>
       </c>
       <c r="J57" s="3">
-        <v>7049600</v>
+        <v>6966700</v>
       </c>
       <c r="K57" s="3">
         <v>13975600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2057100</v>
+        <v>2032900</v>
       </c>
       <c r="E59" s="3">
-        <v>2294100</v>
+        <v>2267100</v>
       </c>
       <c r="F59" s="3">
-        <v>2013600</v>
+        <v>1989900</v>
       </c>
       <c r="G59" s="3">
-        <v>1940100</v>
+        <v>1917300</v>
       </c>
       <c r="H59" s="3">
-        <v>1893100</v>
+        <v>1870800</v>
       </c>
       <c r="I59" s="3">
-        <v>1708600</v>
+        <v>1688500</v>
       </c>
       <c r="J59" s="3">
-        <v>2245800</v>
+        <v>2219400</v>
       </c>
       <c r="K59" s="3">
         <v>4189100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48916800</v>
+        <v>48341300</v>
       </c>
       <c r="E61" s="3">
-        <v>42129500</v>
+        <v>41633900</v>
       </c>
       <c r="F61" s="3">
-        <v>37307600</v>
+        <v>36868700</v>
       </c>
       <c r="G61" s="3">
-        <v>35682400</v>
+        <v>35262600</v>
       </c>
       <c r="H61" s="3">
-        <v>32619900</v>
+        <v>32236200</v>
       </c>
       <c r="I61" s="3">
-        <v>33306900</v>
+        <v>32915100</v>
       </c>
       <c r="J61" s="3">
-        <v>33530700</v>
+        <v>33136200</v>
       </c>
       <c r="K61" s="3">
         <v>31315500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>607000</v>
+        <v>599900</v>
       </c>
       <c r="E62" s="3">
-        <v>570200</v>
+        <v>563400</v>
       </c>
       <c r="F62" s="3">
-        <v>464700</v>
+        <v>459200</v>
       </c>
       <c r="G62" s="3">
-        <v>405000</v>
+        <v>400200</v>
       </c>
       <c r="H62" s="3">
-        <v>437900</v>
+        <v>432700</v>
       </c>
       <c r="I62" s="3">
-        <v>540300</v>
+        <v>534000</v>
       </c>
       <c r="J62" s="3">
-        <v>671000</v>
+        <v>663100</v>
       </c>
       <c r="K62" s="3">
         <v>1466000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>319623000</v>
+        <v>315863000</v>
       </c>
       <c r="E66" s="3">
-        <v>289400000</v>
+        <v>285995000</v>
       </c>
       <c r="F66" s="3">
-        <v>270901000</v>
+        <v>267714000</v>
       </c>
       <c r="G66" s="3">
-        <v>251540000</v>
+        <v>248581000</v>
       </c>
       <c r="H66" s="3">
-        <v>246752000</v>
+        <v>243849000</v>
       </c>
       <c r="I66" s="3">
-        <v>231770000</v>
+        <v>229043000</v>
       </c>
       <c r="J66" s="3">
-        <v>214348000</v>
+        <v>211826000</v>
       </c>
       <c r="K66" s="3">
         <v>293819000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16378000</v>
+        <v>16185300</v>
       </c>
       <c r="E72" s="3">
-        <v>15745800</v>
+        <v>15560600</v>
       </c>
       <c r="F72" s="3">
-        <v>14556000</v>
+        <v>14384700</v>
       </c>
       <c r="G72" s="3">
-        <v>13277000</v>
+        <v>13120800</v>
       </c>
       <c r="H72" s="3">
-        <v>12419800</v>
+        <v>12273700</v>
       </c>
       <c r="I72" s="3">
-        <v>11667200</v>
+        <v>11529900</v>
       </c>
       <c r="J72" s="3">
-        <v>12040600</v>
+        <v>11898900</v>
       </c>
       <c r="K72" s="3">
         <v>23865100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19595600</v>
+        <v>19365000</v>
       </c>
       <c r="E76" s="3">
-        <v>18283800</v>
+        <v>18068700</v>
       </c>
       <c r="F76" s="3">
-        <v>18478900</v>
+        <v>18261500</v>
       </c>
       <c r="G76" s="3">
-        <v>17311000</v>
+        <v>17107300</v>
       </c>
       <c r="H76" s="3">
-        <v>17328200</v>
+        <v>17124400</v>
       </c>
       <c r="I76" s="3">
-        <v>16310200</v>
+        <v>16118300</v>
       </c>
       <c r="J76" s="3">
-        <v>15286000</v>
+        <v>15106100</v>
       </c>
       <c r="K76" s="3">
         <v>16209000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1069600</v>
+        <v>1057000</v>
       </c>
       <c r="E81" s="3">
-        <v>1587700</v>
+        <v>1569000</v>
       </c>
       <c r="F81" s="3">
-        <v>1599700</v>
+        <v>1580900</v>
       </c>
       <c r="G81" s="3">
-        <v>1143300</v>
+        <v>1129900</v>
       </c>
       <c r="H81" s="3">
-        <v>896500</v>
+        <v>886000</v>
       </c>
       <c r="I81" s="3">
-        <v>744500</v>
+        <v>735700</v>
       </c>
       <c r="J81" s="3">
-        <v>989300</v>
+        <v>977600</v>
       </c>
       <c r="K81" s="3">
         <v>-516000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>455200</v>
+        <v>449900</v>
       </c>
       <c r="E83" s="3">
-        <v>429900</v>
+        <v>424800</v>
       </c>
       <c r="F83" s="3">
-        <v>231700</v>
+        <v>228900</v>
       </c>
       <c r="G83" s="3">
-        <v>200400</v>
+        <v>198100</v>
       </c>
       <c r="H83" s="3">
-        <v>214200</v>
+        <v>211700</v>
       </c>
       <c r="I83" s="3">
-        <v>204600</v>
+        <v>202200</v>
       </c>
       <c r="J83" s="3">
-        <v>210100</v>
+        <v>207700</v>
       </c>
       <c r="K83" s="3">
         <v>273400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3065100</v>
+        <v>3029000</v>
       </c>
       <c r="E89" s="3">
-        <v>1589800</v>
+        <v>1571100</v>
       </c>
       <c r="F89" s="3">
-        <v>7786100</v>
+        <v>7694500</v>
       </c>
       <c r="G89" s="3">
-        <v>-1682200</v>
+        <v>-1662400</v>
       </c>
       <c r="H89" s="3">
-        <v>4169500</v>
+        <v>4120400</v>
       </c>
       <c r="I89" s="3">
-        <v>-326300</v>
+        <v>-322500</v>
       </c>
       <c r="J89" s="3">
-        <v>239100</v>
+        <v>236200</v>
       </c>
       <c r="K89" s="3">
         <v>-3633400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126900</v>
+        <v>-125400</v>
       </c>
       <c r="E91" s="3">
-        <v>-365100</v>
+        <v>-360800</v>
       </c>
       <c r="F91" s="3">
-        <v>-100900</v>
+        <v>-99700</v>
       </c>
       <c r="G91" s="3">
-        <v>-137900</v>
+        <v>-136300</v>
       </c>
       <c r="H91" s="3">
-        <v>-111400</v>
+        <v>-110000</v>
       </c>
       <c r="I91" s="3">
-        <v>-110000</v>
+        <v>-108700</v>
       </c>
       <c r="J91" s="3">
-        <v>-119500</v>
+        <v>-118100</v>
       </c>
       <c r="K91" s="3">
         <v>-145100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1238000</v>
+        <v>-1223400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7299900</v>
+        <v>-7214000</v>
       </c>
       <c r="F94" s="3">
-        <v>-9410500</v>
+        <v>-9299800</v>
       </c>
       <c r="G94" s="3">
-        <v>1601200</v>
+        <v>1582300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3591800</v>
+        <v>-3549500</v>
       </c>
       <c r="I94" s="3">
-        <v>1083000</v>
+        <v>1070300</v>
       </c>
       <c r="J94" s="3">
-        <v>-969900</v>
+        <v>-958500</v>
       </c>
       <c r="K94" s="3">
         <v>-357600</v>
@@ -3531,22 +3531,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-429700</v>
+        <v>-424700</v>
       </c>
       <c r="E96" s="3">
-        <v>-372000</v>
+        <v>-367600</v>
       </c>
       <c r="F96" s="3">
-        <v>-286100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-286100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-143100</v>
+        <v>-141400</v>
       </c>
       <c r="I96" s="3">
-        <v>-429200</v>
+        <v>-424200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2012200</v>
+        <v>1988500</v>
       </c>
       <c r="E100" s="3">
-        <v>5245400</v>
+        <v>5183600</v>
       </c>
       <c r="F100" s="3">
-        <v>1289300</v>
+        <v>1274100</v>
       </c>
       <c r="G100" s="3">
-        <v>-51900</v>
+        <v>-51300</v>
       </c>
       <c r="H100" s="3">
-        <v>283100</v>
+        <v>279800</v>
       </c>
       <c r="I100" s="3">
-        <v>-409200</v>
+        <v>-404400</v>
       </c>
       <c r="J100" s="3">
-        <v>264700</v>
+        <v>261600</v>
       </c>
       <c r="K100" s="3">
         <v>3803800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-780600</v>
+        <v>-771400</v>
       </c>
       <c r="E101" s="3">
-        <v>162700</v>
+        <v>160800</v>
       </c>
       <c r="F101" s="3">
-        <v>198800</v>
+        <v>196500</v>
       </c>
       <c r="G101" s="3">
-        <v>-447600</v>
+        <v>-442400</v>
       </c>
       <c r="H101" s="3">
-        <v>-55600</v>
+        <v>-55000</v>
       </c>
       <c r="I101" s="3">
-        <v>231500</v>
+        <v>228800</v>
       </c>
       <c r="J101" s="3">
-        <v>32900</v>
+        <v>32500</v>
       </c>
       <c r="K101" s="3">
         <v>-86400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3058700</v>
+        <v>3022700</v>
       </c>
       <c r="E102" s="3">
-        <v>-302000</v>
+        <v>-298500</v>
       </c>
       <c r="F102" s="3">
-        <v>-136300</v>
+        <v>-134700</v>
       </c>
       <c r="G102" s="3">
-        <v>-580600</v>
+        <v>-573800</v>
       </c>
       <c r="H102" s="3">
-        <v>805200</v>
+        <v>795700</v>
       </c>
       <c r="I102" s="3">
-        <v>579000</v>
+        <v>572200</v>
       </c>
       <c r="J102" s="3">
-        <v>-433200</v>
+        <v>-428100</v>
       </c>
       <c r="K102" s="3">
         <v>-273700</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8000000</v>
+        <v>7714300</v>
       </c>
       <c r="E8" s="3">
-        <v>8884500</v>
+        <v>8567200</v>
       </c>
       <c r="F8" s="3">
-        <v>8135000</v>
+        <v>7844400</v>
       </c>
       <c r="G8" s="3">
-        <v>7182600</v>
+        <v>6926100</v>
       </c>
       <c r="H8" s="3">
-        <v>7150300</v>
+        <v>6895000</v>
       </c>
       <c r="I8" s="3">
-        <v>7306500</v>
+        <v>7045600</v>
       </c>
       <c r="J8" s="3">
-        <v>7737400</v>
+        <v>7461100</v>
       </c>
       <c r="K8" s="3">
         <v>8639000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-439900</v>
+        <v>-424200</v>
       </c>
       <c r="E15" s="3">
-        <v>-406100</v>
+        <v>-391600</v>
       </c>
       <c r="F15" s="3">
-        <v>-185500</v>
+        <v>-178800</v>
       </c>
       <c r="G15" s="3">
-        <v>-157500</v>
+        <v>-151900</v>
       </c>
       <c r="H15" s="3">
-        <v>-211700</v>
+        <v>-204100</v>
       </c>
       <c r="I15" s="3">
-        <v>-202200</v>
+        <v>-195000</v>
       </c>
       <c r="J15" s="3">
-        <v>-191400</v>
+        <v>-184600</v>
       </c>
       <c r="K15" s="3">
         <v>-215000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3627300</v>
+        <v>3497700</v>
       </c>
       <c r="E17" s="3">
-        <v>4259400</v>
+        <v>4107300</v>
       </c>
       <c r="F17" s="3">
-        <v>3740200</v>
+        <v>3606600</v>
       </c>
       <c r="G17" s="3">
-        <v>3521500</v>
+        <v>3395800</v>
       </c>
       <c r="H17" s="3">
-        <v>3682200</v>
+        <v>3550700</v>
       </c>
       <c r="I17" s="3">
-        <v>4240700</v>
+        <v>4089300</v>
       </c>
       <c r="J17" s="3">
-        <v>4900900</v>
+        <v>4725900</v>
       </c>
       <c r="K17" s="3">
         <v>6553500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4372800</v>
+        <v>4216600</v>
       </c>
       <c r="E18" s="3">
-        <v>4625100</v>
+        <v>4459900</v>
       </c>
       <c r="F18" s="3">
-        <v>4394800</v>
+        <v>4237900</v>
       </c>
       <c r="G18" s="3">
-        <v>3661000</v>
+        <v>3530300</v>
       </c>
       <c r="H18" s="3">
-        <v>3468200</v>
+        <v>3344300</v>
       </c>
       <c r="I18" s="3">
-        <v>3065800</v>
+        <v>2956300</v>
       </c>
       <c r="J18" s="3">
-        <v>2836600</v>
+        <v>2735200</v>
       </c>
       <c r="K18" s="3">
         <v>2085400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2691700</v>
+        <v>-2595600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2337700</v>
+        <v>-2254200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2038700</v>
+        <v>-1965900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2023500</v>
+        <v>-1951200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2163300</v>
+        <v>-2086100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1846200</v>
+        <v>-1780200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2135700</v>
+        <v>-2059400</v>
       </c>
       <c r="K20" s="3">
         <v>-1823700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2130900</v>
+        <v>2035700</v>
       </c>
       <c r="E21" s="3">
-        <v>2712200</v>
+        <v>2429200</v>
       </c>
       <c r="F21" s="3">
-        <v>2585000</v>
+        <v>2465300</v>
       </c>
       <c r="G21" s="3">
-        <v>1835700</v>
+        <v>1785800</v>
       </c>
       <c r="H21" s="3">
-        <v>1516600</v>
+        <v>1455700</v>
       </c>
       <c r="I21" s="3">
-        <v>1421900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>908600</v>
+        <v>1378800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>532200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1681100</v>
+        <v>1621000</v>
       </c>
       <c r="E23" s="3">
-        <v>2287400</v>
+        <v>2205700</v>
       </c>
       <c r="F23" s="3">
-        <v>2356100</v>
+        <v>2271900</v>
       </c>
       <c r="G23" s="3">
-        <v>1637600</v>
+        <v>1579100</v>
       </c>
       <c r="H23" s="3">
-        <v>1304800</v>
+        <v>1258200</v>
       </c>
       <c r="I23" s="3">
-        <v>1219600</v>
+        <v>1176100</v>
       </c>
       <c r="J23" s="3">
-        <v>700900</v>
+        <v>675900</v>
       </c>
       <c r="K23" s="3">
         <v>261800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>408200</v>
+        <v>393700</v>
       </c>
       <c r="E24" s="3">
-        <v>575800</v>
+        <v>555200</v>
       </c>
       <c r="F24" s="3">
-        <v>632700</v>
+        <v>610100</v>
       </c>
       <c r="G24" s="3">
-        <v>352300</v>
+        <v>339700</v>
       </c>
       <c r="H24" s="3">
-        <v>231700</v>
+        <v>223400</v>
       </c>
       <c r="I24" s="3">
-        <v>316300</v>
+        <v>305000</v>
       </c>
       <c r="J24" s="3">
-        <v>242100</v>
+        <v>233400</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1272800</v>
+        <v>1227400</v>
       </c>
       <c r="E26" s="3">
-        <v>1711600</v>
+        <v>1650500</v>
       </c>
       <c r="F26" s="3">
-        <v>1723400</v>
+        <v>1661800</v>
       </c>
       <c r="G26" s="3">
-        <v>1285300</v>
+        <v>1239400</v>
       </c>
       <c r="H26" s="3">
-        <v>1073100</v>
+        <v>1034800</v>
       </c>
       <c r="I26" s="3">
-        <v>903300</v>
+        <v>871100</v>
       </c>
       <c r="J26" s="3">
-        <v>458800</v>
+        <v>442400</v>
       </c>
       <c r="K26" s="3">
         <v>229800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1057000</v>
+        <v>1019300</v>
       </c>
       <c r="E27" s="3">
-        <v>1569000</v>
+        <v>1513000</v>
       </c>
       <c r="F27" s="3">
-        <v>1580900</v>
+        <v>1524400</v>
       </c>
       <c r="G27" s="3">
-        <v>1129900</v>
+        <v>1089500</v>
       </c>
       <c r="H27" s="3">
-        <v>886000</v>
+        <v>854300</v>
       </c>
       <c r="I27" s="3">
-        <v>735700</v>
+        <v>709400</v>
       </c>
       <c r="J27" s="3">
-        <v>323500</v>
+        <v>312000</v>
       </c>
       <c r="K27" s="3">
         <v>120700</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>654100</v>
+        <v>630700</v>
       </c>
       <c r="K29" s="3">
         <v>-636700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2691700</v>
+        <v>2595600</v>
       </c>
       <c r="E32" s="3">
-        <v>2337700</v>
+        <v>2254200</v>
       </c>
       <c r="F32" s="3">
-        <v>2038700</v>
+        <v>1965900</v>
       </c>
       <c r="G32" s="3">
-        <v>2023500</v>
+        <v>1951200</v>
       </c>
       <c r="H32" s="3">
-        <v>2163300</v>
+        <v>2086100</v>
       </c>
       <c r="I32" s="3">
-        <v>1846200</v>
+        <v>1780200</v>
       </c>
       <c r="J32" s="3">
-        <v>2135700</v>
+        <v>2059400</v>
       </c>
       <c r="K32" s="3">
         <v>1823700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1057000</v>
+        <v>1019300</v>
       </c>
       <c r="E33" s="3">
-        <v>1569000</v>
+        <v>1513000</v>
       </c>
       <c r="F33" s="3">
-        <v>1580900</v>
+        <v>1524400</v>
       </c>
       <c r="G33" s="3">
-        <v>1129900</v>
+        <v>1089500</v>
       </c>
       <c r="H33" s="3">
-        <v>886000</v>
+        <v>854300</v>
       </c>
       <c r="I33" s="3">
-        <v>735700</v>
+        <v>709400</v>
       </c>
       <c r="J33" s="3">
-        <v>977600</v>
+        <v>942700</v>
       </c>
       <c r="K33" s="3">
         <v>-516000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1057000</v>
+        <v>1019300</v>
       </c>
       <c r="E35" s="3">
-        <v>1569000</v>
+        <v>1513000</v>
       </c>
       <c r="F35" s="3">
-        <v>1580900</v>
+        <v>1524400</v>
       </c>
       <c r="G35" s="3">
-        <v>1129900</v>
+        <v>1089500</v>
       </c>
       <c r="H35" s="3">
-        <v>886000</v>
+        <v>854300</v>
       </c>
       <c r="I35" s="3">
-        <v>735700</v>
+        <v>709400</v>
       </c>
       <c r="J35" s="3">
-        <v>977600</v>
+        <v>942700</v>
       </c>
       <c r="K35" s="3">
         <v>-516000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7929800</v>
+        <v>7646600</v>
       </c>
       <c r="E41" s="3">
-        <v>5265200</v>
+        <v>5077100</v>
       </c>
       <c r="F41" s="3">
-        <v>5329900</v>
+        <v>5139600</v>
       </c>
       <c r="G41" s="3">
-        <v>5081900</v>
+        <v>4900400</v>
       </c>
       <c r="H41" s="3">
-        <v>5959800</v>
+        <v>5747000</v>
       </c>
       <c r="I41" s="3">
-        <v>5068600</v>
+        <v>4887500</v>
       </c>
       <c r="J41" s="3">
-        <v>4369300</v>
+        <v>4213200</v>
       </c>
       <c r="K41" s="3">
         <v>9364800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44463600</v>
+        <v>42875600</v>
       </c>
       <c r="E42" s="3">
-        <v>37237500</v>
+        <v>35907600</v>
       </c>
       <c r="F42" s="3">
-        <v>29776700</v>
+        <v>28713300</v>
       </c>
       <c r="G42" s="3">
-        <v>19980800</v>
+        <v>19267200</v>
       </c>
       <c r="H42" s="3">
-        <v>13257100</v>
+        <v>12783700</v>
       </c>
       <c r="I42" s="3">
-        <v>11894700</v>
+        <v>11469900</v>
       </c>
       <c r="J42" s="3">
-        <v>14783500</v>
+        <v>14255500</v>
       </c>
       <c r="K42" s="3">
         <v>39630600</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>834400</v>
+        <v>804600</v>
       </c>
       <c r="E47" s="3">
-        <v>677300</v>
+        <v>653200</v>
       </c>
       <c r="F47" s="3">
-        <v>303600</v>
+        <v>292800</v>
       </c>
       <c r="G47" s="3">
-        <v>350300</v>
+        <v>337800</v>
       </c>
       <c r="H47" s="3">
-        <v>368800</v>
+        <v>355600</v>
       </c>
       <c r="I47" s="3">
-        <v>540800</v>
+        <v>521500</v>
       </c>
       <c r="J47" s="3">
-        <v>544700</v>
+        <v>525200</v>
       </c>
       <c r="K47" s="3">
         <v>1621000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3086700</v>
+        <v>2976500</v>
       </c>
       <c r="E48" s="3">
-        <v>3061800</v>
+        <v>2952400</v>
       </c>
       <c r="F48" s="3">
-        <v>2368100</v>
+        <v>2283600</v>
       </c>
       <c r="G48" s="3">
-        <v>2393000</v>
+        <v>2307600</v>
       </c>
       <c r="H48" s="3">
-        <v>2365900</v>
+        <v>2281400</v>
       </c>
       <c r="I48" s="3">
-        <v>2371100</v>
+        <v>2286400</v>
       </c>
       <c r="J48" s="3">
-        <v>2401300</v>
+        <v>2315500</v>
       </c>
       <c r="K48" s="3">
         <v>5236300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>665300</v>
+        <v>641600</v>
       </c>
       <c r="E49" s="3">
-        <v>709100</v>
+        <v>683700</v>
       </c>
       <c r="F49" s="3">
-        <v>493300</v>
+        <v>475700</v>
       </c>
       <c r="G49" s="3">
-        <v>435600</v>
+        <v>420100</v>
       </c>
       <c r="H49" s="3">
-        <v>406300</v>
+        <v>391800</v>
       </c>
       <c r="I49" s="3">
-        <v>352600</v>
+        <v>340000</v>
       </c>
       <c r="J49" s="3">
-        <v>248400</v>
+        <v>239500</v>
       </c>
       <c r="K49" s="3">
         <v>489400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93900</v>
+        <v>90500</v>
       </c>
       <c r="E52" s="3">
-        <v>44300</v>
+        <v>42700</v>
       </c>
       <c r="F52" s="3">
-        <v>120400</v>
+        <v>116100</v>
       </c>
       <c r="G52" s="3">
-        <v>276200</v>
+        <v>266300</v>
       </c>
       <c r="H52" s="3">
-        <v>256400</v>
+        <v>247300</v>
       </c>
       <c r="I52" s="3">
-        <v>191900</v>
+        <v>185100</v>
       </c>
       <c r="J52" s="3">
-        <v>223300</v>
+        <v>215400</v>
       </c>
       <c r="K52" s="3">
         <v>77631000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335228000</v>
+        <v>323256000</v>
       </c>
       <c r="E54" s="3">
-        <v>304064000</v>
+        <v>293204000</v>
       </c>
       <c r="F54" s="3">
-        <v>285976000</v>
+        <v>275762000</v>
       </c>
       <c r="G54" s="3">
-        <v>265688000</v>
+        <v>256199000</v>
       </c>
       <c r="H54" s="3">
-        <v>260974000</v>
+        <v>251653000</v>
       </c>
       <c r="I54" s="3">
-        <v>245162000</v>
+        <v>236406000</v>
       </c>
       <c r="J54" s="3">
-        <v>226932000</v>
+        <v>218827000</v>
       </c>
       <c r="K54" s="3">
         <v>310028000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4198400</v>
+        <v>4048400</v>
       </c>
       <c r="E57" s="3">
-        <v>7179200</v>
+        <v>6922800</v>
       </c>
       <c r="F57" s="3">
-        <v>10988500</v>
+        <v>10596100</v>
       </c>
       <c r="G57" s="3">
-        <v>5537800</v>
+        <v>5340000</v>
       </c>
       <c r="H57" s="3">
-        <v>12440700</v>
+        <v>11996400</v>
       </c>
       <c r="I57" s="3">
-        <v>7036500</v>
+        <v>6785200</v>
       </c>
       <c r="J57" s="3">
-        <v>6966700</v>
+        <v>6717900</v>
       </c>
       <c r="K57" s="3">
         <v>13975600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2032900</v>
+        <v>1960300</v>
       </c>
       <c r="E59" s="3">
-        <v>2267100</v>
+        <v>2186100</v>
       </c>
       <c r="F59" s="3">
-        <v>1989900</v>
+        <v>1918800</v>
       </c>
       <c r="G59" s="3">
-        <v>1917300</v>
+        <v>1848800</v>
       </c>
       <c r="H59" s="3">
-        <v>1870800</v>
+        <v>1804000</v>
       </c>
       <c r="I59" s="3">
-        <v>1688500</v>
+        <v>1628200</v>
       </c>
       <c r="J59" s="3">
-        <v>2219400</v>
+        <v>2140100</v>
       </c>
       <c r="K59" s="3">
         <v>4189100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48341300</v>
+        <v>46614800</v>
       </c>
       <c r="E61" s="3">
-        <v>41633900</v>
+        <v>40146900</v>
       </c>
       <c r="F61" s="3">
-        <v>36868700</v>
+        <v>35552000</v>
       </c>
       <c r="G61" s="3">
-        <v>35262600</v>
+        <v>34003300</v>
       </c>
       <c r="H61" s="3">
-        <v>32236200</v>
+        <v>31084900</v>
       </c>
       <c r="I61" s="3">
-        <v>32915100</v>
+        <v>31739500</v>
       </c>
       <c r="J61" s="3">
-        <v>33136200</v>
+        <v>31952700</v>
       </c>
       <c r="K61" s="3">
         <v>31315500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>599900</v>
+        <v>578400</v>
       </c>
       <c r="E62" s="3">
-        <v>563400</v>
+        <v>543300</v>
       </c>
       <c r="F62" s="3">
-        <v>459200</v>
+        <v>442800</v>
       </c>
       <c r="G62" s="3">
-        <v>400200</v>
+        <v>385900</v>
       </c>
       <c r="H62" s="3">
-        <v>432700</v>
+        <v>417300</v>
       </c>
       <c r="I62" s="3">
-        <v>534000</v>
+        <v>514900</v>
       </c>
       <c r="J62" s="3">
-        <v>663100</v>
+        <v>639400</v>
       </c>
       <c r="K62" s="3">
         <v>1466000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>315863000</v>
+        <v>304582000</v>
       </c>
       <c r="E66" s="3">
-        <v>285995000</v>
+        <v>275781000</v>
       </c>
       <c r="F66" s="3">
-        <v>267714000</v>
+        <v>258153000</v>
       </c>
       <c r="G66" s="3">
-        <v>248581000</v>
+        <v>239703000</v>
       </c>
       <c r="H66" s="3">
-        <v>243849000</v>
+        <v>235140000</v>
       </c>
       <c r="I66" s="3">
-        <v>229043000</v>
+        <v>220863000</v>
       </c>
       <c r="J66" s="3">
-        <v>211826000</v>
+        <v>204261000</v>
       </c>
       <c r="K66" s="3">
         <v>293819000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16185300</v>
+        <v>15607300</v>
       </c>
       <c r="E72" s="3">
-        <v>15560600</v>
+        <v>15004900</v>
       </c>
       <c r="F72" s="3">
-        <v>14384700</v>
+        <v>13871000</v>
       </c>
       <c r="G72" s="3">
-        <v>13120800</v>
+        <v>12652200</v>
       </c>
       <c r="H72" s="3">
-        <v>12273700</v>
+        <v>11835400</v>
       </c>
       <c r="I72" s="3">
-        <v>11529900</v>
+        <v>11118200</v>
       </c>
       <c r="J72" s="3">
-        <v>11898900</v>
+        <v>11473900</v>
       </c>
       <c r="K72" s="3">
         <v>23865100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19365000</v>
+        <v>18673400</v>
       </c>
       <c r="E76" s="3">
-        <v>18068700</v>
+        <v>17423400</v>
       </c>
       <c r="F76" s="3">
-        <v>18261500</v>
+        <v>17609300</v>
       </c>
       <c r="G76" s="3">
-        <v>17107300</v>
+        <v>16496400</v>
       </c>
       <c r="H76" s="3">
-        <v>17124400</v>
+        <v>16512800</v>
       </c>
       <c r="I76" s="3">
-        <v>16118300</v>
+        <v>15542700</v>
       </c>
       <c r="J76" s="3">
-        <v>15106100</v>
+        <v>14566600</v>
       </c>
       <c r="K76" s="3">
         <v>16209000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1057000</v>
+        <v>1019300</v>
       </c>
       <c r="E81" s="3">
-        <v>1569000</v>
+        <v>1513000</v>
       </c>
       <c r="F81" s="3">
-        <v>1580900</v>
+        <v>1524400</v>
       </c>
       <c r="G81" s="3">
-        <v>1129900</v>
+        <v>1089500</v>
       </c>
       <c r="H81" s="3">
-        <v>886000</v>
+        <v>854300</v>
       </c>
       <c r="I81" s="3">
-        <v>735700</v>
+        <v>709400</v>
       </c>
       <c r="J81" s="3">
-        <v>977600</v>
+        <v>942700</v>
       </c>
       <c r="K81" s="3">
         <v>-516000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>449900</v>
+        <v>409600</v>
       </c>
       <c r="E83" s="3">
-        <v>424800</v>
+        <v>220800</v>
       </c>
       <c r="F83" s="3">
-        <v>228900</v>
+        <v>191000</v>
       </c>
       <c r="G83" s="3">
-        <v>198100</v>
+        <v>204100</v>
       </c>
       <c r="H83" s="3">
-        <v>211700</v>
+        <v>195000</v>
       </c>
       <c r="I83" s="3">
-        <v>202200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>207700</v>
+        <v>200200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>273400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3029000</v>
+        <v>1515000</v>
       </c>
       <c r="E89" s="3">
-        <v>1571100</v>
+        <v>7419700</v>
       </c>
       <c r="F89" s="3">
-        <v>7694500</v>
+        <v>-1603000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1662400</v>
+        <v>3973300</v>
       </c>
       <c r="H89" s="3">
-        <v>4120400</v>
+        <v>-311000</v>
       </c>
       <c r="I89" s="3">
-        <v>-322500</v>
+        <v>227800</v>
       </c>
       <c r="J89" s="3">
-        <v>236200</v>
+        <v>-3234100</v>
       </c>
       <c r="K89" s="3">
         <v>-3633400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125400</v>
+        <v>-347900</v>
       </c>
       <c r="E91" s="3">
-        <v>-360800</v>
+        <v>-96100</v>
       </c>
       <c r="F91" s="3">
-        <v>-99700</v>
+        <v>-131400</v>
       </c>
       <c r="G91" s="3">
-        <v>-136300</v>
+        <v>-106100</v>
       </c>
       <c r="H91" s="3">
-        <v>-110000</v>
+        <v>-104900</v>
       </c>
       <c r="I91" s="3">
-        <v>-108700</v>
+        <v>-113900</v>
       </c>
       <c r="J91" s="3">
-        <v>-118100</v>
+        <v>-129100</v>
       </c>
       <c r="K91" s="3">
         <v>-145100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1223400</v>
+        <v>-6956400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7214000</v>
+        <v>-8967600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9299800</v>
+        <v>1525800</v>
       </c>
       <c r="G94" s="3">
-        <v>1582300</v>
+        <v>-3422700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3549500</v>
+        <v>1032100</v>
       </c>
       <c r="I94" s="3">
-        <v>1070300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-958500</v>
+        <v>-924200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>-357600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-424700</v>
+        <v>-354500</v>
       </c>
       <c r="E96" s="3">
-        <v>-367600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-136300</v>
       </c>
       <c r="H96" s="3">
-        <v>-141400</v>
+        <v>-409000</v>
       </c>
       <c r="I96" s="3">
-        <v>-424200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-306500</v>
       </c>
       <c r="K96" s="3">
         <v>-344300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1988500</v>
+        <v>4998500</v>
       </c>
       <c r="E100" s="3">
-        <v>5183600</v>
+        <v>1228600</v>
       </c>
       <c r="F100" s="3">
-        <v>1274100</v>
+        <v>-49500</v>
       </c>
       <c r="G100" s="3">
-        <v>-51300</v>
+        <v>269800</v>
       </c>
       <c r="H100" s="3">
-        <v>279800</v>
+        <v>-389900</v>
       </c>
       <c r="I100" s="3">
-        <v>-404400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>261600</v>
+        <v>252300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>3803800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-771400</v>
+        <v>155100</v>
       </c>
       <c r="E101" s="3">
-        <v>160800</v>
+        <v>189500</v>
       </c>
       <c r="F101" s="3">
-        <v>196500</v>
+        <v>-426600</v>
       </c>
       <c r="G101" s="3">
-        <v>-442400</v>
+        <v>-53000</v>
       </c>
       <c r="H101" s="3">
-        <v>-55000</v>
+        <v>220600</v>
       </c>
       <c r="I101" s="3">
-        <v>228800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>32500</v>
+        <v>31400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-86400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3022700</v>
+        <v>-287800</v>
       </c>
       <c r="E102" s="3">
-        <v>-298500</v>
+        <v>-129900</v>
       </c>
       <c r="F102" s="3">
-        <v>-134700</v>
+        <v>-553300</v>
       </c>
       <c r="G102" s="3">
-        <v>-573800</v>
+        <v>767300</v>
       </c>
       <c r="H102" s="3">
-        <v>795700</v>
+        <v>551800</v>
       </c>
       <c r="I102" s="3">
-        <v>572200</v>
+        <v>-412800</v>
       </c>
       <c r="J102" s="3">
-        <v>-428100</v>
+        <v>-243600</v>
       </c>
       <c r="K102" s="3">
         <v>-273700</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7714300</v>
+        <v>7619000</v>
       </c>
       <c r="E8" s="3">
-        <v>8567200</v>
+        <v>7333400</v>
       </c>
       <c r="F8" s="3">
-        <v>7844400</v>
+        <v>8144100</v>
       </c>
       <c r="G8" s="3">
-        <v>6926100</v>
+        <v>7457100</v>
       </c>
       <c r="H8" s="3">
-        <v>6895000</v>
+        <v>6584000</v>
       </c>
       <c r="I8" s="3">
-        <v>7045600</v>
+        <v>6554500</v>
       </c>
       <c r="J8" s="3">
+        <v>6697600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7461100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8639000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9148600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9763900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-424200</v>
+        <v>-405800</v>
       </c>
       <c r="E15" s="3">
-        <v>-391600</v>
+        <v>-403200</v>
       </c>
       <c r="F15" s="3">
-        <v>-178800</v>
+        <v>-372200</v>
       </c>
       <c r="G15" s="3">
-        <v>-151900</v>
+        <v>-170000</v>
       </c>
       <c r="H15" s="3">
-        <v>-204100</v>
+        <v>-144400</v>
       </c>
       <c r="I15" s="3">
-        <v>-195000</v>
+        <v>-194100</v>
       </c>
       <c r="J15" s="3">
+        <v>-185400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-184600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-215000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-187500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-177900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3497700</v>
+        <v>2669200</v>
       </c>
       <c r="E17" s="3">
-        <v>4107300</v>
+        <v>3325000</v>
       </c>
       <c r="F17" s="3">
-        <v>3606600</v>
+        <v>3904400</v>
       </c>
       <c r="G17" s="3">
-        <v>3395800</v>
+        <v>3428500</v>
       </c>
       <c r="H17" s="3">
-        <v>3550700</v>
+        <v>3228100</v>
       </c>
       <c r="I17" s="3">
-        <v>4089300</v>
+        <v>3375300</v>
       </c>
       <c r="J17" s="3">
+        <v>3887300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4725900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6553500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6595600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7124100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4216600</v>
+        <v>4949700</v>
       </c>
       <c r="E18" s="3">
-        <v>4459900</v>
+        <v>4008400</v>
       </c>
       <c r="F18" s="3">
-        <v>4237900</v>
+        <v>4239700</v>
       </c>
       <c r="G18" s="3">
-        <v>3530300</v>
+        <v>4028600</v>
       </c>
       <c r="H18" s="3">
-        <v>3344300</v>
+        <v>3356000</v>
       </c>
       <c r="I18" s="3">
-        <v>2956300</v>
+        <v>3179200</v>
       </c>
       <c r="J18" s="3">
+        <v>2810300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2735200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2085400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2553000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2639700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2595600</v>
+        <v>-2062800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2254200</v>
+        <v>-2467400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1965900</v>
+        <v>-2142900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1951200</v>
+        <v>-1868800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2086100</v>
+        <v>-1854800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1780200</v>
+        <v>-1983100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1692300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2059400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1823700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1177200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-578900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2035700</v>
+        <v>3504600</v>
       </c>
       <c r="E21" s="3">
-        <v>2429200</v>
+        <v>1958700</v>
       </c>
       <c r="F21" s="3">
-        <v>2465300</v>
+        <v>2491200</v>
       </c>
       <c r="G21" s="3">
-        <v>1785800</v>
+        <v>2372300</v>
       </c>
       <c r="H21" s="3">
-        <v>1455700</v>
+        <v>1685000</v>
       </c>
       <c r="I21" s="3">
-        <v>1378800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>1392700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1305800</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>532200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1623200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2301600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1621000</v>
+        <v>2886900</v>
       </c>
       <c r="E23" s="3">
-        <v>2205700</v>
+        <v>1541000</v>
       </c>
       <c r="F23" s="3">
-        <v>2271900</v>
+        <v>2096700</v>
       </c>
       <c r="G23" s="3">
-        <v>1579100</v>
+        <v>2159800</v>
       </c>
       <c r="H23" s="3">
-        <v>1258200</v>
+        <v>1501100</v>
       </c>
       <c r="I23" s="3">
-        <v>1176100</v>
+        <v>1196100</v>
       </c>
       <c r="J23" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="K23" s="3">
         <v>675900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>261800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1375900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2060800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>393700</v>
+        <v>725200</v>
       </c>
       <c r="E24" s="3">
-        <v>555200</v>
+        <v>374200</v>
       </c>
       <c r="F24" s="3">
-        <v>610100</v>
+        <v>527800</v>
       </c>
       <c r="G24" s="3">
-        <v>339700</v>
+        <v>580000</v>
       </c>
       <c r="H24" s="3">
-        <v>223400</v>
+        <v>323000</v>
       </c>
       <c r="I24" s="3">
-        <v>305000</v>
+        <v>212400</v>
       </c>
       <c r="J24" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K24" s="3">
         <v>233400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>299700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>491900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1227400</v>
+        <v>2161700</v>
       </c>
       <c r="E26" s="3">
-        <v>1650500</v>
+        <v>1166700</v>
       </c>
       <c r="F26" s="3">
-        <v>1661800</v>
+        <v>1568900</v>
       </c>
       <c r="G26" s="3">
-        <v>1239400</v>
+        <v>1579800</v>
       </c>
       <c r="H26" s="3">
-        <v>1034800</v>
+        <v>1178200</v>
       </c>
       <c r="I26" s="3">
-        <v>871100</v>
+        <v>983700</v>
       </c>
       <c r="J26" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K26" s="3">
         <v>442400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>229800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1076100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1568900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1019300</v>
+        <v>1941700</v>
       </c>
       <c r="E27" s="3">
-        <v>1513000</v>
+        <v>968900</v>
       </c>
       <c r="F27" s="3">
-        <v>1524400</v>
+        <v>1438200</v>
       </c>
       <c r="G27" s="3">
-        <v>1089500</v>
+        <v>1449100</v>
       </c>
       <c r="H27" s="3">
-        <v>854300</v>
+        <v>1035700</v>
       </c>
       <c r="I27" s="3">
-        <v>709400</v>
+        <v>812200</v>
       </c>
       <c r="J27" s="3">
+        <v>674400</v>
+      </c>
+      <c r="K27" s="3">
         <v>312000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>955200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1437400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,24 +1487,27 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>630700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-636700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>393900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>456200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2595600</v>
+        <v>2062800</v>
       </c>
       <c r="E32" s="3">
-        <v>2254200</v>
+        <v>2467400</v>
       </c>
       <c r="F32" s="3">
-        <v>1965900</v>
+        <v>2142900</v>
       </c>
       <c r="G32" s="3">
-        <v>1951200</v>
+        <v>1868800</v>
       </c>
       <c r="H32" s="3">
-        <v>2086100</v>
+        <v>1854800</v>
       </c>
       <c r="I32" s="3">
-        <v>1780200</v>
+        <v>1983100</v>
       </c>
       <c r="J32" s="3">
+        <v>1692300</v>
+      </c>
+      <c r="K32" s="3">
         <v>2059400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1823700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1177200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>578900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1019300</v>
+        <v>1941700</v>
       </c>
       <c r="E33" s="3">
-        <v>1513000</v>
+        <v>968900</v>
       </c>
       <c r="F33" s="3">
-        <v>1524400</v>
+        <v>1438200</v>
       </c>
       <c r="G33" s="3">
-        <v>1089500</v>
+        <v>1449100</v>
       </c>
       <c r="H33" s="3">
-        <v>854300</v>
+        <v>1035700</v>
       </c>
       <c r="I33" s="3">
-        <v>709400</v>
+        <v>812200</v>
       </c>
       <c r="J33" s="3">
+        <v>674400</v>
+      </c>
+      <c r="K33" s="3">
         <v>942700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-516000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1349000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1893700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1019300</v>
+        <v>1941700</v>
       </c>
       <c r="E35" s="3">
-        <v>1513000</v>
+        <v>968900</v>
       </c>
       <c r="F35" s="3">
-        <v>1524400</v>
+        <v>1438200</v>
       </c>
       <c r="G35" s="3">
-        <v>1089500</v>
+        <v>1449100</v>
       </c>
       <c r="H35" s="3">
-        <v>854300</v>
+        <v>1035700</v>
       </c>
       <c r="I35" s="3">
-        <v>709400</v>
+        <v>812200</v>
       </c>
       <c r="J35" s="3">
+        <v>674400</v>
+      </c>
+      <c r="K35" s="3">
         <v>942700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-516000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1349000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1893700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7646600</v>
+        <v>5703500</v>
       </c>
       <c r="E41" s="3">
-        <v>5077100</v>
+        <v>7269000</v>
       </c>
       <c r="F41" s="3">
-        <v>5139600</v>
+        <v>4826400</v>
       </c>
       <c r="G41" s="3">
-        <v>4900400</v>
+        <v>4885800</v>
       </c>
       <c r="H41" s="3">
-        <v>5747000</v>
+        <v>4658400</v>
       </c>
       <c r="I41" s="3">
-        <v>4887500</v>
+        <v>5463200</v>
       </c>
       <c r="J41" s="3">
+        <v>4646200</v>
+      </c>
+      <c r="K41" s="3">
         <v>4213200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9364800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4853800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5647100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42875600</v>
+        <v>45259000</v>
       </c>
       <c r="E42" s="3">
-        <v>35907600</v>
+        <v>40758300</v>
       </c>
       <c r="F42" s="3">
-        <v>28713300</v>
+        <v>34134400</v>
       </c>
       <c r="G42" s="3">
-        <v>19267200</v>
+        <v>27295300</v>
       </c>
       <c r="H42" s="3">
-        <v>12783700</v>
+        <v>18315800</v>
       </c>
       <c r="I42" s="3">
-        <v>11469900</v>
+        <v>12152400</v>
       </c>
       <c r="J42" s="3">
+        <v>10903500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14255500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39630600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47429400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>804600</v>
+        <v>1028100</v>
       </c>
       <c r="E47" s="3">
-        <v>653200</v>
+        <v>764800</v>
       </c>
       <c r="F47" s="3">
-        <v>292800</v>
+        <v>620900</v>
       </c>
       <c r="G47" s="3">
-        <v>337800</v>
+        <v>278300</v>
       </c>
       <c r="H47" s="3">
-        <v>355600</v>
+        <v>321100</v>
       </c>
       <c r="I47" s="3">
-        <v>521500</v>
+        <v>338000</v>
       </c>
       <c r="J47" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K47" s="3">
         <v>525200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1621000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>871900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>816800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2976500</v>
+        <v>2744400</v>
       </c>
       <c r="E48" s="3">
-        <v>2952400</v>
+        <v>2829500</v>
       </c>
       <c r="F48" s="3">
-        <v>2283600</v>
+        <v>2806600</v>
       </c>
       <c r="G48" s="3">
-        <v>2307600</v>
+        <v>2170800</v>
       </c>
       <c r="H48" s="3">
-        <v>2281400</v>
+        <v>2193600</v>
       </c>
       <c r="I48" s="3">
-        <v>2286400</v>
+        <v>2168700</v>
       </c>
       <c r="J48" s="3">
+        <v>2173500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2315500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5236300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4968600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3197500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>641600</v>
+        <v>604700</v>
       </c>
       <c r="E49" s="3">
-        <v>683700</v>
+        <v>609900</v>
       </c>
       <c r="F49" s="3">
-        <v>475700</v>
+        <v>650000</v>
       </c>
       <c r="G49" s="3">
-        <v>420100</v>
+        <v>452200</v>
       </c>
       <c r="H49" s="3">
-        <v>391800</v>
+        <v>399300</v>
       </c>
       <c r="I49" s="3">
-        <v>340000</v>
+        <v>372500</v>
       </c>
       <c r="J49" s="3">
+        <v>323300</v>
+      </c>
+      <c r="K49" s="3">
         <v>239500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>489400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>728100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>394100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90500</v>
+        <v>60700</v>
       </c>
       <c r="E52" s="3">
-        <v>42700</v>
+        <v>86000</v>
       </c>
       <c r="F52" s="3">
-        <v>116100</v>
+        <v>40600</v>
       </c>
       <c r="G52" s="3">
-        <v>266300</v>
+        <v>110400</v>
       </c>
       <c r="H52" s="3">
-        <v>247300</v>
+        <v>253100</v>
       </c>
       <c r="I52" s="3">
-        <v>185100</v>
+        <v>235100</v>
       </c>
       <c r="J52" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K52" s="3">
         <v>215400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77631000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323256000</v>
+        <v>344332000</v>
       </c>
       <c r="E54" s="3">
-        <v>293204000</v>
+        <v>307292000</v>
       </c>
       <c r="F54" s="3">
-        <v>275762000</v>
+        <v>278725000</v>
       </c>
       <c r="G54" s="3">
-        <v>256199000</v>
+        <v>262144000</v>
       </c>
       <c r="H54" s="3">
-        <v>251653000</v>
+        <v>243548000</v>
       </c>
       <c r="I54" s="3">
-        <v>236406000</v>
+        <v>239226000</v>
       </c>
       <c r="J54" s="3">
+        <v>224732000</v>
+      </c>
+      <c r="K54" s="3">
         <v>218827000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>310028000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>274766000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275257000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4048400</v>
+        <v>11133900</v>
       </c>
       <c r="E57" s="3">
-        <v>6922800</v>
+        <v>3848500</v>
       </c>
       <c r="F57" s="3">
-        <v>10596100</v>
+        <v>6581000</v>
       </c>
       <c r="G57" s="3">
-        <v>5340000</v>
+        <v>10072800</v>
       </c>
       <c r="H57" s="3">
-        <v>11996400</v>
+        <v>5076300</v>
       </c>
       <c r="I57" s="3">
-        <v>6785200</v>
+        <v>11404000</v>
       </c>
       <c r="J57" s="3">
+        <v>6450100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6717900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13975600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2331,53 +2464,59 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>7098200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1960300</v>
+        <v>2044500</v>
       </c>
       <c r="E59" s="3">
-        <v>2186100</v>
+        <v>1863500</v>
       </c>
       <c r="F59" s="3">
-        <v>1918800</v>
+        <v>2078200</v>
       </c>
       <c r="G59" s="3">
-        <v>1848800</v>
+        <v>1824100</v>
       </c>
       <c r="H59" s="3">
-        <v>1804000</v>
+        <v>1757500</v>
       </c>
       <c r="I59" s="3">
-        <v>1628200</v>
+        <v>1714900</v>
       </c>
       <c r="J59" s="3">
+        <v>1547800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2140100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4189100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3097800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>241300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46614800</v>
+        <v>52880100</v>
       </c>
       <c r="E61" s="3">
-        <v>40146900</v>
+        <v>44312800</v>
       </c>
       <c r="F61" s="3">
-        <v>35552000</v>
+        <v>38164400</v>
       </c>
       <c r="G61" s="3">
-        <v>34003300</v>
+        <v>33796300</v>
       </c>
       <c r="H61" s="3">
-        <v>31084900</v>
+        <v>32324100</v>
       </c>
       <c r="I61" s="3">
-        <v>31739500</v>
+        <v>29549800</v>
       </c>
       <c r="J61" s="3">
+        <v>30172100</v>
+      </c>
+      <c r="K61" s="3">
         <v>31952700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31315500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44470300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578400</v>
+        <v>624500</v>
       </c>
       <c r="E62" s="3">
-        <v>543300</v>
+        <v>549900</v>
       </c>
       <c r="F62" s="3">
-        <v>442800</v>
+        <v>516500</v>
       </c>
       <c r="G62" s="3">
-        <v>385900</v>
+        <v>421000</v>
       </c>
       <c r="H62" s="3">
-        <v>417300</v>
+        <v>366800</v>
       </c>
       <c r="I62" s="3">
-        <v>514900</v>
+        <v>396700</v>
       </c>
       <c r="J62" s="3">
+        <v>489500</v>
+      </c>
+      <c r="K62" s="3">
         <v>639400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1466000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1843300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1119700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>304582000</v>
+        <v>324433000</v>
       </c>
       <c r="E66" s="3">
-        <v>275781000</v>
+        <v>289541000</v>
       </c>
       <c r="F66" s="3">
-        <v>258153000</v>
+        <v>262162000</v>
       </c>
       <c r="G66" s="3">
-        <v>239703000</v>
+        <v>245405000</v>
       </c>
       <c r="H66" s="3">
-        <v>235140000</v>
+        <v>227866000</v>
       </c>
       <c r="I66" s="3">
-        <v>220863000</v>
+        <v>223528000</v>
       </c>
       <c r="J66" s="3">
+        <v>209956000</v>
+      </c>
+      <c r="K66" s="3">
         <v>204261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>293819000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>259061000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>259836000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15607300</v>
+        <v>16472300</v>
       </c>
       <c r="E72" s="3">
-        <v>15004900</v>
+        <v>14836600</v>
       </c>
       <c r="F72" s="3">
-        <v>13871000</v>
+        <v>14263900</v>
       </c>
       <c r="G72" s="3">
-        <v>12652200</v>
+        <v>13186000</v>
       </c>
       <c r="H72" s="3">
-        <v>11835400</v>
+        <v>12027400</v>
       </c>
       <c r="I72" s="3">
-        <v>11118200</v>
+        <v>11250900</v>
       </c>
       <c r="J72" s="3">
+        <v>10569100</v>
+      </c>
+      <c r="K72" s="3">
         <v>11473900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23865100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11660400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10932000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18673400</v>
+        <v>19898400</v>
       </c>
       <c r="E76" s="3">
-        <v>17423400</v>
+        <v>17751300</v>
       </c>
       <c r="F76" s="3">
-        <v>17609300</v>
+        <v>16563000</v>
       </c>
       <c r="G76" s="3">
-        <v>16496400</v>
+        <v>16739700</v>
       </c>
       <c r="H76" s="3">
-        <v>16512800</v>
+        <v>15681700</v>
       </c>
       <c r="I76" s="3">
-        <v>15542700</v>
+        <v>15697300</v>
       </c>
       <c r="J76" s="3">
+        <v>14775100</v>
+      </c>
+      <c r="K76" s="3">
         <v>14566600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16209000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15704600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15421100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1019300</v>
+        <v>1941700</v>
       </c>
       <c r="E81" s="3">
-        <v>1513000</v>
+        <v>968900</v>
       </c>
       <c r="F81" s="3">
-        <v>1524400</v>
+        <v>1438200</v>
       </c>
       <c r="G81" s="3">
-        <v>1089500</v>
+        <v>1449100</v>
       </c>
       <c r="H81" s="3">
-        <v>854300</v>
+        <v>1035700</v>
       </c>
       <c r="I81" s="3">
-        <v>709400</v>
+        <v>812200</v>
       </c>
       <c r="J81" s="3">
+        <v>674400</v>
+      </c>
+      <c r="K81" s="3">
         <v>942700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-516000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1349000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1893700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409600</v>
+        <v>609800</v>
       </c>
       <c r="E83" s="3">
-        <v>220800</v>
+        <v>412400</v>
       </c>
       <c r="F83" s="3">
-        <v>191000</v>
+        <v>389400</v>
       </c>
       <c r="G83" s="3">
-        <v>204100</v>
+        <v>209900</v>
       </c>
       <c r="H83" s="3">
-        <v>195000</v>
+        <v>181600</v>
       </c>
       <c r="I83" s="3">
-        <v>200200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>194100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>273400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>244500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>240800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1515000</v>
+        <v>-1386700</v>
       </c>
       <c r="E89" s="3">
-        <v>7419700</v>
+        <v>2776600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1603000</v>
+        <v>1440200</v>
       </c>
       <c r="G89" s="3">
-        <v>3973300</v>
+        <v>7053300</v>
       </c>
       <c r="H89" s="3">
-        <v>-311000</v>
+        <v>-1523800</v>
       </c>
       <c r="I89" s="3">
-        <v>227800</v>
+        <v>3777100</v>
       </c>
       <c r="J89" s="3">
+        <v>-295600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3234100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3633400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-121000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-942600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347900</v>
+        <v>-91800</v>
       </c>
       <c r="E91" s="3">
-        <v>-96100</v>
+        <v>-115000</v>
       </c>
       <c r="F91" s="3">
-        <v>-131400</v>
+        <v>-330800</v>
       </c>
       <c r="G91" s="3">
-        <v>-106100</v>
+        <v>-91400</v>
       </c>
       <c r="H91" s="3">
-        <v>-104900</v>
+        <v>-124900</v>
       </c>
       <c r="I91" s="3">
-        <v>-113900</v>
+        <v>-100900</v>
       </c>
       <c r="J91" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-129100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-145100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-212100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-204600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6956400</v>
+        <v>-8213500</v>
       </c>
       <c r="E94" s="3">
-        <v>-8967600</v>
+        <v>-1121400</v>
       </c>
       <c r="F94" s="3">
-        <v>1525800</v>
+        <v>-6612900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3422700</v>
+        <v>-8524800</v>
       </c>
       <c r="H94" s="3">
-        <v>1032100</v>
+        <v>1450500</v>
       </c>
       <c r="I94" s="3">
-        <v>-924200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-3253700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>981100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-357600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1975800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2124000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354500</v>
+        <v>-283600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-389300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-337000</v>
       </c>
       <c r="G96" s="3">
-        <v>-136300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-409000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-129600</v>
       </c>
       <c r="J96" s="3">
+        <v>-388800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-306500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-344300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-288400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-177300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4998500</v>
+        <v>6988300</v>
       </c>
       <c r="E100" s="3">
-        <v>1228600</v>
+        <v>1822800</v>
       </c>
       <c r="F100" s="3">
-        <v>-49500</v>
+        <v>4751700</v>
       </c>
       <c r="G100" s="3">
-        <v>269800</v>
+        <v>1167900</v>
       </c>
       <c r="H100" s="3">
-        <v>-389900</v>
+        <v>-47000</v>
       </c>
       <c r="I100" s="3">
-        <v>252300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>256500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-370700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>3803800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2248200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>154300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>155100</v>
+        <v>744600</v>
       </c>
       <c r="E101" s="3">
-        <v>189500</v>
+        <v>-707100</v>
       </c>
       <c r="F101" s="3">
-        <v>-426600</v>
+        <v>147400</v>
       </c>
       <c r="G101" s="3">
-        <v>-53000</v>
+        <v>180100</v>
       </c>
       <c r="H101" s="3">
-        <v>220600</v>
+        <v>-405500</v>
       </c>
       <c r="I101" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>209700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-86400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-143800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-287800</v>
+        <v>-1867400</v>
       </c>
       <c r="E102" s="3">
-        <v>-129900</v>
+        <v>2770800</v>
       </c>
       <c r="F102" s="3">
-        <v>-553300</v>
+        <v>-273600</v>
       </c>
       <c r="G102" s="3">
-        <v>767300</v>
+        <v>-123500</v>
       </c>
       <c r="H102" s="3">
-        <v>551800</v>
+        <v>-525900</v>
       </c>
       <c r="I102" s="3">
-        <v>-412800</v>
+        <v>729400</v>
       </c>
       <c r="J102" s="3">
+        <v>524500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-243600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-273700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-537200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1360500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7619000</v>
+        <v>7421100</v>
       </c>
       <c r="E8" s="3">
-        <v>7333400</v>
+        <v>7142900</v>
       </c>
       <c r="F8" s="3">
-        <v>8144100</v>
+        <v>7932600</v>
       </c>
       <c r="G8" s="3">
-        <v>7457100</v>
+        <v>7263400</v>
       </c>
       <c r="H8" s="3">
-        <v>6584000</v>
+        <v>6413000</v>
       </c>
       <c r="I8" s="3">
-        <v>6554500</v>
+        <v>6384200</v>
       </c>
       <c r="J8" s="3">
-        <v>6697600</v>
+        <v>6523700</v>
       </c>
       <c r="K8" s="3">
         <v>7461100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-405800</v>
+        <v>-395200</v>
       </c>
       <c r="E15" s="3">
-        <v>-403200</v>
+        <v>-392700</v>
       </c>
       <c r="F15" s="3">
-        <v>-372200</v>
+        <v>-362600</v>
       </c>
       <c r="G15" s="3">
-        <v>-170000</v>
+        <v>-165600</v>
       </c>
       <c r="H15" s="3">
-        <v>-144400</v>
+        <v>-140600</v>
       </c>
       <c r="I15" s="3">
-        <v>-194100</v>
+        <v>-189000</v>
       </c>
       <c r="J15" s="3">
-        <v>-185400</v>
+        <v>-180600</v>
       </c>
       <c r="K15" s="3">
         <v>-184600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2669200</v>
+        <v>2599900</v>
       </c>
       <c r="E17" s="3">
-        <v>3325000</v>
+        <v>3238600</v>
       </c>
       <c r="F17" s="3">
-        <v>3904400</v>
+        <v>3803000</v>
       </c>
       <c r="G17" s="3">
-        <v>3428500</v>
+        <v>3339400</v>
       </c>
       <c r="H17" s="3">
-        <v>3228100</v>
+        <v>3144200</v>
       </c>
       <c r="I17" s="3">
-        <v>3375300</v>
+        <v>3287600</v>
       </c>
       <c r="J17" s="3">
-        <v>3887300</v>
+        <v>3786400</v>
       </c>
       <c r="K17" s="3">
         <v>4725900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4949700</v>
+        <v>4821100</v>
       </c>
       <c r="E18" s="3">
-        <v>4008400</v>
+        <v>3904300</v>
       </c>
       <c r="F18" s="3">
-        <v>4239700</v>
+        <v>4129500</v>
       </c>
       <c r="G18" s="3">
-        <v>4028600</v>
+        <v>3923900</v>
       </c>
       <c r="H18" s="3">
-        <v>3356000</v>
+        <v>3268800</v>
       </c>
       <c r="I18" s="3">
-        <v>3179200</v>
+        <v>3096600</v>
       </c>
       <c r="J18" s="3">
-        <v>2810300</v>
+        <v>2737300</v>
       </c>
       <c r="K18" s="3">
         <v>2735200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2062800</v>
+        <v>-2009200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2467400</v>
+        <v>-2403300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2142900</v>
+        <v>-2087300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1868800</v>
+        <v>-1820300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1854800</v>
+        <v>-1806700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1983100</v>
+        <v>-1931500</v>
       </c>
       <c r="J20" s="3">
-        <v>-1692300</v>
+        <v>-1648400</v>
       </c>
       <c r="K20" s="3">
         <v>-2059400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3504600</v>
+        <v>3405900</v>
       </c>
       <c r="E21" s="3">
-        <v>1958700</v>
+        <v>1902600</v>
       </c>
       <c r="F21" s="3">
-        <v>2491200</v>
+        <v>2421600</v>
       </c>
       <c r="G21" s="3">
-        <v>2372300</v>
+        <v>2308100</v>
       </c>
       <c r="H21" s="3">
-        <v>1685000</v>
+        <v>1639000</v>
       </c>
       <c r="I21" s="3">
-        <v>1392700</v>
+        <v>1354100</v>
       </c>
       <c r="J21" s="3">
-        <v>1305800</v>
+        <v>1269500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2886900</v>
+        <v>2811900</v>
       </c>
       <c r="E23" s="3">
-        <v>1541000</v>
+        <v>1500900</v>
       </c>
       <c r="F23" s="3">
-        <v>2096700</v>
+        <v>2042300</v>
       </c>
       <c r="G23" s="3">
-        <v>2159800</v>
+        <v>2103700</v>
       </c>
       <c r="H23" s="3">
-        <v>1501100</v>
+        <v>1462100</v>
       </c>
       <c r="I23" s="3">
-        <v>1196100</v>
+        <v>1165000</v>
       </c>
       <c r="J23" s="3">
-        <v>1118000</v>
+        <v>1089000</v>
       </c>
       <c r="K23" s="3">
         <v>675900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>725200</v>
+        <v>706400</v>
       </c>
       <c r="E24" s="3">
-        <v>374200</v>
+        <v>364500</v>
       </c>
       <c r="F24" s="3">
-        <v>527800</v>
+        <v>514100</v>
       </c>
       <c r="G24" s="3">
-        <v>580000</v>
+        <v>564900</v>
       </c>
       <c r="H24" s="3">
-        <v>323000</v>
+        <v>314600</v>
       </c>
       <c r="I24" s="3">
-        <v>212400</v>
+        <v>206900</v>
       </c>
       <c r="J24" s="3">
-        <v>289900</v>
+        <v>282400</v>
       </c>
       <c r="K24" s="3">
         <v>233400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2161700</v>
+        <v>2105500</v>
       </c>
       <c r="E26" s="3">
-        <v>1166700</v>
+        <v>1136400</v>
       </c>
       <c r="F26" s="3">
-        <v>1568900</v>
+        <v>1528200</v>
       </c>
       <c r="G26" s="3">
-        <v>1579800</v>
+        <v>1538700</v>
       </c>
       <c r="H26" s="3">
-        <v>1178200</v>
+        <v>1147600</v>
       </c>
       <c r="I26" s="3">
-        <v>983700</v>
+        <v>958100</v>
       </c>
       <c r="J26" s="3">
-        <v>828100</v>
+        <v>806500</v>
       </c>
       <c r="K26" s="3">
         <v>442400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1941700</v>
+        <v>1891300</v>
       </c>
       <c r="E27" s="3">
-        <v>968900</v>
+        <v>943800</v>
       </c>
       <c r="F27" s="3">
-        <v>1438200</v>
+        <v>1400900</v>
       </c>
       <c r="G27" s="3">
-        <v>1449100</v>
+        <v>1411500</v>
       </c>
       <c r="H27" s="3">
-        <v>1035700</v>
+        <v>1008800</v>
       </c>
       <c r="I27" s="3">
-        <v>812200</v>
+        <v>791100</v>
       </c>
       <c r="J27" s="3">
-        <v>674400</v>
+        <v>656900</v>
       </c>
       <c r="K27" s="3">
         <v>312000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2062800</v>
+        <v>2009200</v>
       </c>
       <c r="E32" s="3">
-        <v>2467400</v>
+        <v>2403300</v>
       </c>
       <c r="F32" s="3">
-        <v>2142900</v>
+        <v>2087300</v>
       </c>
       <c r="G32" s="3">
-        <v>1868800</v>
+        <v>1820300</v>
       </c>
       <c r="H32" s="3">
-        <v>1854800</v>
+        <v>1806700</v>
       </c>
       <c r="I32" s="3">
-        <v>1983100</v>
+        <v>1931500</v>
       </c>
       <c r="J32" s="3">
-        <v>1692300</v>
+        <v>1648400</v>
       </c>
       <c r="K32" s="3">
         <v>2059400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1941700</v>
+        <v>1891300</v>
       </c>
       <c r="E33" s="3">
-        <v>968900</v>
+        <v>943800</v>
       </c>
       <c r="F33" s="3">
-        <v>1438200</v>
+        <v>1400900</v>
       </c>
       <c r="G33" s="3">
-        <v>1449100</v>
+        <v>1411500</v>
       </c>
       <c r="H33" s="3">
-        <v>1035700</v>
+        <v>1008800</v>
       </c>
       <c r="I33" s="3">
-        <v>812200</v>
+        <v>791100</v>
       </c>
       <c r="J33" s="3">
-        <v>674400</v>
+        <v>656900</v>
       </c>
       <c r="K33" s="3">
         <v>942700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1941700</v>
+        <v>1891300</v>
       </c>
       <c r="E35" s="3">
-        <v>968900</v>
+        <v>943800</v>
       </c>
       <c r="F35" s="3">
-        <v>1438200</v>
+        <v>1400900</v>
       </c>
       <c r="G35" s="3">
-        <v>1449100</v>
+        <v>1411500</v>
       </c>
       <c r="H35" s="3">
-        <v>1035700</v>
+        <v>1008800</v>
       </c>
       <c r="I35" s="3">
-        <v>812200</v>
+        <v>791100</v>
       </c>
       <c r="J35" s="3">
-        <v>674400</v>
+        <v>656900</v>
       </c>
       <c r="K35" s="3">
         <v>942700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5703500</v>
+        <v>5555400</v>
       </c>
       <c r="E41" s="3">
-        <v>7269000</v>
+        <v>7080200</v>
       </c>
       <c r="F41" s="3">
-        <v>4826400</v>
+        <v>4701000</v>
       </c>
       <c r="G41" s="3">
-        <v>4885800</v>
+        <v>4758900</v>
       </c>
       <c r="H41" s="3">
-        <v>4658400</v>
+        <v>4537400</v>
       </c>
       <c r="I41" s="3">
-        <v>5463200</v>
+        <v>5321300</v>
       </c>
       <c r="J41" s="3">
-        <v>4646200</v>
+        <v>4525500</v>
       </c>
       <c r="K41" s="3">
         <v>4213200</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45259000</v>
+        <v>44083500</v>
       </c>
       <c r="E42" s="3">
-        <v>40758300</v>
+        <v>39699700</v>
       </c>
       <c r="F42" s="3">
-        <v>34134400</v>
+        <v>33247800</v>
       </c>
       <c r="G42" s="3">
-        <v>27295300</v>
+        <v>26586400</v>
       </c>
       <c r="H42" s="3">
-        <v>18315800</v>
+        <v>17840000</v>
       </c>
       <c r="I42" s="3">
-        <v>12152400</v>
+        <v>11836700</v>
       </c>
       <c r="J42" s="3">
-        <v>10903500</v>
+        <v>10620200</v>
       </c>
       <c r="K42" s="3">
         <v>14255500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1028100</v>
+        <v>1001400</v>
       </c>
       <c r="E47" s="3">
-        <v>764800</v>
+        <v>745000</v>
       </c>
       <c r="F47" s="3">
-        <v>620900</v>
+        <v>604800</v>
       </c>
       <c r="G47" s="3">
-        <v>278300</v>
+        <v>271100</v>
       </c>
       <c r="H47" s="3">
-        <v>321100</v>
+        <v>312800</v>
       </c>
       <c r="I47" s="3">
-        <v>338000</v>
+        <v>329300</v>
       </c>
       <c r="J47" s="3">
-        <v>495800</v>
+        <v>482900</v>
       </c>
       <c r="K47" s="3">
         <v>525200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2744400</v>
+        <v>2673200</v>
       </c>
       <c r="E48" s="3">
-        <v>2829500</v>
+        <v>2756000</v>
       </c>
       <c r="F48" s="3">
-        <v>2806600</v>
+        <v>2733700</v>
       </c>
       <c r="G48" s="3">
-        <v>2170800</v>
+        <v>2114400</v>
       </c>
       <c r="H48" s="3">
-        <v>2193600</v>
+        <v>2136600</v>
       </c>
       <c r="I48" s="3">
-        <v>2168700</v>
+        <v>2112400</v>
       </c>
       <c r="J48" s="3">
-        <v>2173500</v>
+        <v>2117000</v>
       </c>
       <c r="K48" s="3">
         <v>2315500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>604700</v>
+        <v>589000</v>
       </c>
       <c r="E49" s="3">
-        <v>609900</v>
+        <v>594100</v>
       </c>
       <c r="F49" s="3">
-        <v>650000</v>
+        <v>633100</v>
       </c>
       <c r="G49" s="3">
-        <v>452200</v>
+        <v>440400</v>
       </c>
       <c r="H49" s="3">
-        <v>399300</v>
+        <v>388900</v>
       </c>
       <c r="I49" s="3">
-        <v>372500</v>
+        <v>362800</v>
       </c>
       <c r="J49" s="3">
-        <v>323300</v>
+        <v>314900</v>
       </c>
       <c r="K49" s="3">
         <v>239500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60700</v>
+        <v>59100</v>
       </c>
       <c r="E52" s="3">
-        <v>86000</v>
+        <v>83800</v>
       </c>
       <c r="F52" s="3">
-        <v>40600</v>
+        <v>39500</v>
       </c>
       <c r="G52" s="3">
-        <v>110400</v>
+        <v>107500</v>
       </c>
       <c r="H52" s="3">
-        <v>253100</v>
+        <v>246600</v>
       </c>
       <c r="I52" s="3">
-        <v>235100</v>
+        <v>229000</v>
       </c>
       <c r="J52" s="3">
-        <v>175900</v>
+        <v>171400</v>
       </c>
       <c r="K52" s="3">
         <v>215400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>344332000</v>
+        <v>335388000</v>
       </c>
       <c r="E54" s="3">
-        <v>307292000</v>
+        <v>299311000</v>
       </c>
       <c r="F54" s="3">
-        <v>278725000</v>
+        <v>271486000</v>
       </c>
       <c r="G54" s="3">
-        <v>262144000</v>
+        <v>255335000</v>
       </c>
       <c r="H54" s="3">
-        <v>243548000</v>
+        <v>237222000</v>
       </c>
       <c r="I54" s="3">
-        <v>239226000</v>
+        <v>233012000</v>
       </c>
       <c r="J54" s="3">
-        <v>224732000</v>
+        <v>218894000</v>
       </c>
       <c r="K54" s="3">
         <v>218827000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11133900</v>
+        <v>10844700</v>
       </c>
       <c r="E57" s="3">
-        <v>3848500</v>
+        <v>3748600</v>
       </c>
       <c r="F57" s="3">
-        <v>6581000</v>
+        <v>6410000</v>
       </c>
       <c r="G57" s="3">
-        <v>10072800</v>
+        <v>9811200</v>
       </c>
       <c r="H57" s="3">
-        <v>5076300</v>
+        <v>4944500</v>
       </c>
       <c r="I57" s="3">
-        <v>11404000</v>
+        <v>11107800</v>
       </c>
       <c r="J57" s="3">
-        <v>6450100</v>
+        <v>6282600</v>
       </c>
       <c r="K57" s="3">
         <v>6717900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2044500</v>
+        <v>1991300</v>
       </c>
       <c r="E59" s="3">
-        <v>1863500</v>
+        <v>1815100</v>
       </c>
       <c r="F59" s="3">
-        <v>2078200</v>
+        <v>2024200</v>
       </c>
       <c r="G59" s="3">
-        <v>1824100</v>
+        <v>1776700</v>
       </c>
       <c r="H59" s="3">
-        <v>1757500</v>
+        <v>1711800</v>
       </c>
       <c r="I59" s="3">
-        <v>1714900</v>
+        <v>1670300</v>
       </c>
       <c r="J59" s="3">
-        <v>1547800</v>
+        <v>1507600</v>
       </c>
       <c r="K59" s="3">
         <v>2140100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52880100</v>
+        <v>51506600</v>
       </c>
       <c r="E61" s="3">
-        <v>44312800</v>
+        <v>43161900</v>
       </c>
       <c r="F61" s="3">
-        <v>38164400</v>
+        <v>37173100</v>
       </c>
       <c r="G61" s="3">
-        <v>33796300</v>
+        <v>32918500</v>
       </c>
       <c r="H61" s="3">
-        <v>32324100</v>
+        <v>31484500</v>
       </c>
       <c r="I61" s="3">
-        <v>29549800</v>
+        <v>28782300</v>
       </c>
       <c r="J61" s="3">
-        <v>30172100</v>
+        <v>29388400</v>
       </c>
       <c r="K61" s="3">
         <v>31952700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>624500</v>
+        <v>608300</v>
       </c>
       <c r="E62" s="3">
-        <v>549900</v>
+        <v>535600</v>
       </c>
       <c r="F62" s="3">
-        <v>516500</v>
+        <v>503100</v>
       </c>
       <c r="G62" s="3">
-        <v>421000</v>
+        <v>410000</v>
       </c>
       <c r="H62" s="3">
-        <v>366800</v>
+        <v>357300</v>
       </c>
       <c r="I62" s="3">
-        <v>396700</v>
+        <v>386400</v>
       </c>
       <c r="J62" s="3">
-        <v>489500</v>
+        <v>476800</v>
       </c>
       <c r="K62" s="3">
         <v>639400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>324433000</v>
+        <v>316006000</v>
       </c>
       <c r="E66" s="3">
-        <v>289541000</v>
+        <v>282021000</v>
       </c>
       <c r="F66" s="3">
-        <v>262162000</v>
+        <v>255353000</v>
       </c>
       <c r="G66" s="3">
-        <v>245405000</v>
+        <v>239030000</v>
       </c>
       <c r="H66" s="3">
-        <v>227866000</v>
+        <v>221947000</v>
       </c>
       <c r="I66" s="3">
-        <v>223528000</v>
+        <v>217722000</v>
       </c>
       <c r="J66" s="3">
-        <v>209956000</v>
+        <v>204503000</v>
       </c>
       <c r="K66" s="3">
         <v>204261000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16472300</v>
+        <v>16044400</v>
       </c>
       <c r="E72" s="3">
-        <v>14836600</v>
+        <v>14451200</v>
       </c>
       <c r="F72" s="3">
-        <v>14263900</v>
+        <v>13893400</v>
       </c>
       <c r="G72" s="3">
-        <v>13186000</v>
+        <v>12843500</v>
       </c>
       <c r="H72" s="3">
-        <v>12027400</v>
+        <v>11715000</v>
       </c>
       <c r="I72" s="3">
-        <v>11250900</v>
+        <v>10958700</v>
       </c>
       <c r="J72" s="3">
-        <v>10569100</v>
+        <v>10294600</v>
       </c>
       <c r="K72" s="3">
         <v>11473900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19898400</v>
+        <v>19381500</v>
       </c>
       <c r="E76" s="3">
-        <v>17751300</v>
+        <v>17290200</v>
       </c>
       <c r="F76" s="3">
-        <v>16563000</v>
+        <v>16132800</v>
       </c>
       <c r="G76" s="3">
-        <v>16739700</v>
+        <v>16304900</v>
       </c>
       <c r="H76" s="3">
-        <v>15681700</v>
+        <v>15274400</v>
       </c>
       <c r="I76" s="3">
-        <v>15697300</v>
+        <v>15289600</v>
       </c>
       <c r="J76" s="3">
-        <v>14775100</v>
+        <v>14391400</v>
       </c>
       <c r="K76" s="3">
         <v>14566600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1941700</v>
+        <v>1891300</v>
       </c>
       <c r="E81" s="3">
-        <v>968900</v>
+        <v>943800</v>
       </c>
       <c r="F81" s="3">
-        <v>1438200</v>
+        <v>1400900</v>
       </c>
       <c r="G81" s="3">
-        <v>1449100</v>
+        <v>1411500</v>
       </c>
       <c r="H81" s="3">
-        <v>1035700</v>
+        <v>1008800</v>
       </c>
       <c r="I81" s="3">
-        <v>812200</v>
+        <v>791100</v>
       </c>
       <c r="J81" s="3">
-        <v>674400</v>
+        <v>656900</v>
       </c>
       <c r="K81" s="3">
         <v>942700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>609800</v>
+        <v>593900</v>
       </c>
       <c r="E83" s="3">
-        <v>412400</v>
+        <v>401700</v>
       </c>
       <c r="F83" s="3">
-        <v>389400</v>
+        <v>379300</v>
       </c>
       <c r="G83" s="3">
-        <v>209900</v>
+        <v>204400</v>
       </c>
       <c r="H83" s="3">
-        <v>181600</v>
+        <v>176800</v>
       </c>
       <c r="I83" s="3">
-        <v>194100</v>
+        <v>189000</v>
       </c>
       <c r="J83" s="3">
-        <v>185400</v>
+        <v>180600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1386700</v>
+        <v>-1350700</v>
       </c>
       <c r="E89" s="3">
-        <v>2776600</v>
+        <v>2704500</v>
       </c>
       <c r="F89" s="3">
-        <v>1440200</v>
+        <v>1402800</v>
       </c>
       <c r="G89" s="3">
-        <v>7053300</v>
+        <v>6870100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1523800</v>
+        <v>-1484300</v>
       </c>
       <c r="I89" s="3">
-        <v>3777100</v>
+        <v>3679000</v>
       </c>
       <c r="J89" s="3">
-        <v>-295600</v>
+        <v>-287900</v>
       </c>
       <c r="K89" s="3">
         <v>-3234100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91800</v>
+        <v>-89400</v>
       </c>
       <c r="E91" s="3">
-        <v>-115000</v>
+        <v>-112000</v>
       </c>
       <c r="F91" s="3">
-        <v>-330800</v>
+        <v>-322200</v>
       </c>
       <c r="G91" s="3">
-        <v>-91400</v>
+        <v>-89000</v>
       </c>
       <c r="H91" s="3">
-        <v>-124900</v>
+        <v>-121700</v>
       </c>
       <c r="I91" s="3">
-        <v>-100900</v>
+        <v>-98300</v>
       </c>
       <c r="J91" s="3">
-        <v>-99700</v>
+        <v>-97100</v>
       </c>
       <c r="K91" s="3">
         <v>-129100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8213500</v>
+        <v>-8000100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1121400</v>
+        <v>-1092300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6612900</v>
+        <v>-6441100</v>
       </c>
       <c r="G94" s="3">
-        <v>-8524800</v>
+        <v>-8303400</v>
       </c>
       <c r="H94" s="3">
-        <v>1450500</v>
+        <v>1412800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3253700</v>
+        <v>-3169200</v>
       </c>
       <c r="J94" s="3">
-        <v>981100</v>
+        <v>955600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,13 +3764,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-283600</v>
+        <v>-276300</v>
       </c>
       <c r="E96" s="3">
-        <v>-389300</v>
+        <v>-379200</v>
       </c>
       <c r="F96" s="3">
-        <v>-337000</v>
+        <v>-328200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-129600</v>
+        <v>-126200</v>
       </c>
       <c r="J96" s="3">
-        <v>-388800</v>
+        <v>-378700</v>
       </c>
       <c r="K96" s="3">
         <v>-306500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6988300</v>
+        <v>6806800</v>
       </c>
       <c r="E100" s="3">
-        <v>1822800</v>
+        <v>1775400</v>
       </c>
       <c r="F100" s="3">
-        <v>4751700</v>
+        <v>4628300</v>
       </c>
       <c r="G100" s="3">
-        <v>1167900</v>
+        <v>1137600</v>
       </c>
       <c r="H100" s="3">
-        <v>-47000</v>
+        <v>-45800</v>
       </c>
       <c r="I100" s="3">
-        <v>256500</v>
+        <v>249800</v>
       </c>
       <c r="J100" s="3">
-        <v>-370700</v>
+        <v>-361100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>744600</v>
+        <v>725200</v>
       </c>
       <c r="E101" s="3">
-        <v>-707100</v>
+        <v>-688800</v>
       </c>
       <c r="F101" s="3">
-        <v>147400</v>
+        <v>143600</v>
       </c>
       <c r="G101" s="3">
-        <v>180100</v>
+        <v>175400</v>
       </c>
       <c r="H101" s="3">
-        <v>-405500</v>
+        <v>-395000</v>
       </c>
       <c r="I101" s="3">
-        <v>-50400</v>
+        <v>-49100</v>
       </c>
       <c r="J101" s="3">
-        <v>209700</v>
+        <v>204300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1867400</v>
+        <v>-1818900</v>
       </c>
       <c r="E102" s="3">
-        <v>2770800</v>
+        <v>2698800</v>
       </c>
       <c r="F102" s="3">
-        <v>-273600</v>
+        <v>-266500</v>
       </c>
       <c r="G102" s="3">
-        <v>-123500</v>
+        <v>-120300</v>
       </c>
       <c r="H102" s="3">
-        <v>-525900</v>
+        <v>-512300</v>
       </c>
       <c r="I102" s="3">
-        <v>729400</v>
+        <v>710500</v>
       </c>
       <c r="J102" s="3">
-        <v>524500</v>
+        <v>510900</v>
       </c>
       <c r="K102" s="3">
         <v>-243600</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7421100</v>
+        <v>7322100</v>
       </c>
       <c r="E8" s="3">
-        <v>7142900</v>
+        <v>7047700</v>
       </c>
       <c r="F8" s="3">
-        <v>7932600</v>
+        <v>7826800</v>
       </c>
       <c r="G8" s="3">
-        <v>7263400</v>
+        <v>7166500</v>
       </c>
       <c r="H8" s="3">
-        <v>6413000</v>
+        <v>6327500</v>
       </c>
       <c r="I8" s="3">
-        <v>6384200</v>
+        <v>6299100</v>
       </c>
       <c r="J8" s="3">
-        <v>6523700</v>
+        <v>6436700</v>
       </c>
       <c r="K8" s="3">
         <v>7461100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-395200</v>
+        <v>-390000</v>
       </c>
       <c r="E15" s="3">
-        <v>-392700</v>
+        <v>-387500</v>
       </c>
       <c r="F15" s="3">
-        <v>-362600</v>
+        <v>-357700</v>
       </c>
       <c r="G15" s="3">
-        <v>-165600</v>
+        <v>-163400</v>
       </c>
       <c r="H15" s="3">
-        <v>-140600</v>
+        <v>-138800</v>
       </c>
       <c r="I15" s="3">
-        <v>-189000</v>
+        <v>-186500</v>
       </c>
       <c r="J15" s="3">
-        <v>-180600</v>
+        <v>-178200</v>
       </c>
       <c r="K15" s="3">
         <v>-184600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2599900</v>
+        <v>2565300</v>
       </c>
       <c r="E17" s="3">
-        <v>3238600</v>
+        <v>3195500</v>
       </c>
       <c r="F17" s="3">
-        <v>3803000</v>
+        <v>3752300</v>
       </c>
       <c r="G17" s="3">
-        <v>3339400</v>
+        <v>3294900</v>
       </c>
       <c r="H17" s="3">
-        <v>3144200</v>
+        <v>3102300</v>
       </c>
       <c r="I17" s="3">
-        <v>3287600</v>
+        <v>3243800</v>
       </c>
       <c r="J17" s="3">
-        <v>3786400</v>
+        <v>3735900</v>
       </c>
       <c r="K17" s="3">
         <v>4725900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4821100</v>
+        <v>4756900</v>
       </c>
       <c r="E18" s="3">
-        <v>3904300</v>
+        <v>3852200</v>
       </c>
       <c r="F18" s="3">
-        <v>4129500</v>
+        <v>4074500</v>
       </c>
       <c r="G18" s="3">
-        <v>3923900</v>
+        <v>3871600</v>
       </c>
       <c r="H18" s="3">
-        <v>3268800</v>
+        <v>3225200</v>
       </c>
       <c r="I18" s="3">
-        <v>3096600</v>
+        <v>3055300</v>
       </c>
       <c r="J18" s="3">
-        <v>2737300</v>
+        <v>2700800</v>
       </c>
       <c r="K18" s="3">
         <v>2735200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2009200</v>
+        <v>-1982400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2403300</v>
+        <v>-2371300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2087300</v>
+        <v>-2059400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1820300</v>
+        <v>-1796000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1806700</v>
+        <v>-1782600</v>
       </c>
       <c r="I20" s="3">
-        <v>-1931500</v>
+        <v>-1905800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1648400</v>
+        <v>-1626400</v>
       </c>
       <c r="K20" s="3">
         <v>-2059400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3405900</v>
+        <v>3352500</v>
       </c>
       <c r="E21" s="3">
-        <v>1902600</v>
+        <v>1871900</v>
       </c>
       <c r="F21" s="3">
-        <v>2421600</v>
+        <v>2384200</v>
       </c>
       <c r="G21" s="3">
-        <v>2308100</v>
+        <v>2274600</v>
       </c>
       <c r="H21" s="3">
-        <v>1639000</v>
+        <v>1614800</v>
       </c>
       <c r="I21" s="3">
-        <v>1354100</v>
+        <v>1333500</v>
       </c>
       <c r="J21" s="3">
-        <v>1269500</v>
+        <v>1250200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2811900</v>
+        <v>2774400</v>
       </c>
       <c r="E23" s="3">
-        <v>1500900</v>
+        <v>1480900</v>
       </c>
       <c r="F23" s="3">
-        <v>2042300</v>
+        <v>2015100</v>
       </c>
       <c r="G23" s="3">
-        <v>2103700</v>
+        <v>2075600</v>
       </c>
       <c r="H23" s="3">
-        <v>1462100</v>
+        <v>1442600</v>
       </c>
       <c r="I23" s="3">
-        <v>1165000</v>
+        <v>1149500</v>
       </c>
       <c r="J23" s="3">
-        <v>1089000</v>
+        <v>1074400</v>
       </c>
       <c r="K23" s="3">
         <v>675900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>706400</v>
+        <v>697000</v>
       </c>
       <c r="E24" s="3">
-        <v>364500</v>
+        <v>359600</v>
       </c>
       <c r="F24" s="3">
-        <v>514100</v>
+        <v>507200</v>
       </c>
       <c r="G24" s="3">
-        <v>564900</v>
+        <v>557400</v>
       </c>
       <c r="H24" s="3">
-        <v>314600</v>
+        <v>310400</v>
       </c>
       <c r="I24" s="3">
-        <v>206900</v>
+        <v>204100</v>
       </c>
       <c r="J24" s="3">
-        <v>282400</v>
+        <v>278600</v>
       </c>
       <c r="K24" s="3">
         <v>233400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2105500</v>
+        <v>2077500</v>
       </c>
       <c r="E26" s="3">
-        <v>1136400</v>
+        <v>1121300</v>
       </c>
       <c r="F26" s="3">
-        <v>1528200</v>
+        <v>1507800</v>
       </c>
       <c r="G26" s="3">
-        <v>1538700</v>
+        <v>1518200</v>
       </c>
       <c r="H26" s="3">
-        <v>1147600</v>
+        <v>1132300</v>
       </c>
       <c r="I26" s="3">
-        <v>958100</v>
+        <v>945400</v>
       </c>
       <c r="J26" s="3">
-        <v>806500</v>
+        <v>795800</v>
       </c>
       <c r="K26" s="3">
         <v>442400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1891300</v>
+        <v>1866000</v>
       </c>
       <c r="E27" s="3">
-        <v>943800</v>
+        <v>931200</v>
       </c>
       <c r="F27" s="3">
-        <v>1400900</v>
+        <v>1382200</v>
       </c>
       <c r="G27" s="3">
-        <v>1411500</v>
+        <v>1392700</v>
       </c>
       <c r="H27" s="3">
-        <v>1008800</v>
+        <v>995400</v>
       </c>
       <c r="I27" s="3">
-        <v>791100</v>
+        <v>780500</v>
       </c>
       <c r="J27" s="3">
-        <v>656900</v>
+        <v>648100</v>
       </c>
       <c r="K27" s="3">
         <v>312000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2009200</v>
+        <v>1982400</v>
       </c>
       <c r="E32" s="3">
-        <v>2403300</v>
+        <v>2371300</v>
       </c>
       <c r="F32" s="3">
-        <v>2087300</v>
+        <v>2059400</v>
       </c>
       <c r="G32" s="3">
-        <v>1820300</v>
+        <v>1796000</v>
       </c>
       <c r="H32" s="3">
-        <v>1806700</v>
+        <v>1782600</v>
       </c>
       <c r="I32" s="3">
-        <v>1931500</v>
+        <v>1905800</v>
       </c>
       <c r="J32" s="3">
-        <v>1648400</v>
+        <v>1626400</v>
       </c>
       <c r="K32" s="3">
         <v>2059400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1891300</v>
+        <v>1866000</v>
       </c>
       <c r="E33" s="3">
-        <v>943800</v>
+        <v>931200</v>
       </c>
       <c r="F33" s="3">
-        <v>1400900</v>
+        <v>1382200</v>
       </c>
       <c r="G33" s="3">
-        <v>1411500</v>
+        <v>1392700</v>
       </c>
       <c r="H33" s="3">
-        <v>1008800</v>
+        <v>995400</v>
       </c>
       <c r="I33" s="3">
-        <v>791100</v>
+        <v>780500</v>
       </c>
       <c r="J33" s="3">
-        <v>656900</v>
+        <v>648100</v>
       </c>
       <c r="K33" s="3">
         <v>942700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1891300</v>
+        <v>1866000</v>
       </c>
       <c r="E35" s="3">
-        <v>943800</v>
+        <v>931200</v>
       </c>
       <c r="F35" s="3">
-        <v>1400900</v>
+        <v>1382200</v>
       </c>
       <c r="G35" s="3">
-        <v>1411500</v>
+        <v>1392700</v>
       </c>
       <c r="H35" s="3">
-        <v>1008800</v>
+        <v>995400</v>
       </c>
       <c r="I35" s="3">
-        <v>791100</v>
+        <v>780500</v>
       </c>
       <c r="J35" s="3">
-        <v>656900</v>
+        <v>648100</v>
       </c>
       <c r="K35" s="3">
         <v>942700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5555400</v>
+        <v>5481300</v>
       </c>
       <c r="E41" s="3">
-        <v>7080200</v>
+        <v>6985700</v>
       </c>
       <c r="F41" s="3">
-        <v>4701000</v>
+        <v>4638300</v>
       </c>
       <c r="G41" s="3">
-        <v>4758900</v>
+        <v>4695400</v>
       </c>
       <c r="H41" s="3">
-        <v>4537400</v>
+        <v>4476900</v>
       </c>
       <c r="I41" s="3">
-        <v>5321300</v>
+        <v>5250300</v>
       </c>
       <c r="J41" s="3">
-        <v>4525500</v>
+        <v>4465200</v>
       </c>
       <c r="K41" s="3">
         <v>4213200</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44083500</v>
+        <v>43495700</v>
       </c>
       <c r="E42" s="3">
-        <v>39699700</v>
+        <v>39170300</v>
       </c>
       <c r="F42" s="3">
-        <v>33247800</v>
+        <v>32804500</v>
       </c>
       <c r="G42" s="3">
-        <v>26586400</v>
+        <v>26231900</v>
       </c>
       <c r="H42" s="3">
-        <v>17840000</v>
+        <v>17602200</v>
       </c>
       <c r="I42" s="3">
-        <v>11836700</v>
+        <v>11678900</v>
       </c>
       <c r="J42" s="3">
-        <v>10620200</v>
+        <v>10478600</v>
       </c>
       <c r="K42" s="3">
         <v>14255500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1001400</v>
+        <v>988000</v>
       </c>
       <c r="E47" s="3">
-        <v>745000</v>
+        <v>735000</v>
       </c>
       <c r="F47" s="3">
-        <v>604800</v>
+        <v>596700</v>
       </c>
       <c r="G47" s="3">
-        <v>271100</v>
+        <v>267500</v>
       </c>
       <c r="H47" s="3">
-        <v>312800</v>
+        <v>308600</v>
       </c>
       <c r="I47" s="3">
-        <v>329300</v>
+        <v>324900</v>
       </c>
       <c r="J47" s="3">
-        <v>482900</v>
+        <v>476500</v>
       </c>
       <c r="K47" s="3">
         <v>525200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2673200</v>
+        <v>2637500</v>
       </c>
       <c r="E48" s="3">
-        <v>2756000</v>
+        <v>2719200</v>
       </c>
       <c r="F48" s="3">
-        <v>2733700</v>
+        <v>2697300</v>
       </c>
       <c r="G48" s="3">
-        <v>2114400</v>
+        <v>2086200</v>
       </c>
       <c r="H48" s="3">
-        <v>2136600</v>
+        <v>2108100</v>
       </c>
       <c r="I48" s="3">
-        <v>2112400</v>
+        <v>2084200</v>
       </c>
       <c r="J48" s="3">
-        <v>2117000</v>
+        <v>2088800</v>
       </c>
       <c r="K48" s="3">
         <v>2315500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>589000</v>
+        <v>581200</v>
       </c>
       <c r="E49" s="3">
-        <v>594100</v>
+        <v>586100</v>
       </c>
       <c r="F49" s="3">
-        <v>633100</v>
+        <v>624600</v>
       </c>
       <c r="G49" s="3">
-        <v>440400</v>
+        <v>434600</v>
       </c>
       <c r="H49" s="3">
-        <v>388900</v>
+        <v>383800</v>
       </c>
       <c r="I49" s="3">
-        <v>362800</v>
+        <v>358000</v>
       </c>
       <c r="J49" s="3">
-        <v>314900</v>
+        <v>310700</v>
       </c>
       <c r="K49" s="3">
         <v>239500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59100</v>
+        <v>58300</v>
       </c>
       <c r="E52" s="3">
-        <v>83800</v>
+        <v>82700</v>
       </c>
       <c r="F52" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="G52" s="3">
-        <v>107500</v>
+        <v>106100</v>
       </c>
       <c r="H52" s="3">
-        <v>246600</v>
+        <v>243300</v>
       </c>
       <c r="I52" s="3">
-        <v>229000</v>
+        <v>225900</v>
       </c>
       <c r="J52" s="3">
-        <v>171400</v>
+        <v>169100</v>
       </c>
       <c r="K52" s="3">
         <v>215400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335388000</v>
+        <v>330916000</v>
       </c>
       <c r="E54" s="3">
-        <v>299311000</v>
+        <v>295320000</v>
       </c>
       <c r="F54" s="3">
-        <v>271486000</v>
+        <v>267866000</v>
       </c>
       <c r="G54" s="3">
-        <v>255335000</v>
+        <v>251931000</v>
       </c>
       <c r="H54" s="3">
-        <v>237222000</v>
+        <v>234059000</v>
       </c>
       <c r="I54" s="3">
-        <v>233012000</v>
+        <v>229905000</v>
       </c>
       <c r="J54" s="3">
-        <v>218894000</v>
+        <v>215976000</v>
       </c>
       <c r="K54" s="3">
         <v>218827000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10844700</v>
+        <v>10700100</v>
       </c>
       <c r="E57" s="3">
-        <v>3748600</v>
+        <v>3698600</v>
       </c>
       <c r="F57" s="3">
-        <v>6410000</v>
+        <v>6324600</v>
       </c>
       <c r="G57" s="3">
-        <v>9811200</v>
+        <v>9680300</v>
       </c>
       <c r="H57" s="3">
-        <v>4944500</v>
+        <v>4878500</v>
       </c>
       <c r="I57" s="3">
-        <v>11107800</v>
+        <v>10959700</v>
       </c>
       <c r="J57" s="3">
-        <v>6282600</v>
+        <v>6198800</v>
       </c>
       <c r="K57" s="3">
         <v>6717900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1991300</v>
+        <v>1964800</v>
       </c>
       <c r="E59" s="3">
-        <v>1815100</v>
+        <v>1790900</v>
       </c>
       <c r="F59" s="3">
-        <v>2024200</v>
+        <v>1997200</v>
       </c>
       <c r="G59" s="3">
-        <v>1776700</v>
+        <v>1753000</v>
       </c>
       <c r="H59" s="3">
-        <v>1711800</v>
+        <v>1689000</v>
       </c>
       <c r="I59" s="3">
-        <v>1670300</v>
+        <v>1648100</v>
       </c>
       <c r="J59" s="3">
-        <v>1507600</v>
+        <v>1487500</v>
       </c>
       <c r="K59" s="3">
         <v>2140100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51506600</v>
+        <v>50819900</v>
       </c>
       <c r="E61" s="3">
-        <v>43161900</v>
+        <v>42586400</v>
       </c>
       <c r="F61" s="3">
-        <v>37173100</v>
+        <v>36677500</v>
       </c>
       <c r="G61" s="3">
-        <v>32918500</v>
+        <v>32479600</v>
       </c>
       <c r="H61" s="3">
-        <v>31484500</v>
+        <v>31064700</v>
       </c>
       <c r="I61" s="3">
-        <v>28782300</v>
+        <v>28398500</v>
       </c>
       <c r="J61" s="3">
-        <v>29388400</v>
+        <v>28996600</v>
       </c>
       <c r="K61" s="3">
         <v>31952700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>608300</v>
+        <v>600200</v>
       </c>
       <c r="E62" s="3">
-        <v>535600</v>
+        <v>528500</v>
       </c>
       <c r="F62" s="3">
-        <v>503100</v>
+        <v>496400</v>
       </c>
       <c r="G62" s="3">
-        <v>410000</v>
+        <v>404600</v>
       </c>
       <c r="H62" s="3">
-        <v>357300</v>
+        <v>352500</v>
       </c>
       <c r="I62" s="3">
-        <v>386400</v>
+        <v>381200</v>
       </c>
       <c r="J62" s="3">
-        <v>476800</v>
+        <v>470400</v>
       </c>
       <c r="K62" s="3">
         <v>639400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>316006000</v>
+        <v>311793000</v>
       </c>
       <c r="E66" s="3">
-        <v>282021000</v>
+        <v>278260000</v>
       </c>
       <c r="F66" s="3">
-        <v>255353000</v>
+        <v>251948000</v>
       </c>
       <c r="G66" s="3">
-        <v>239030000</v>
+        <v>235843000</v>
       </c>
       <c r="H66" s="3">
-        <v>221947000</v>
+        <v>218988000</v>
       </c>
       <c r="I66" s="3">
-        <v>217722000</v>
+        <v>214820000</v>
       </c>
       <c r="J66" s="3">
-        <v>204503000</v>
+        <v>201776000</v>
       </c>
       <c r="K66" s="3">
         <v>204261000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16044400</v>
+        <v>15830500</v>
       </c>
       <c r="E72" s="3">
-        <v>14451200</v>
+        <v>14258500</v>
       </c>
       <c r="F72" s="3">
-        <v>13893400</v>
+        <v>13708100</v>
       </c>
       <c r="G72" s="3">
-        <v>12843500</v>
+        <v>12672200</v>
       </c>
       <c r="H72" s="3">
-        <v>11715000</v>
+        <v>11558800</v>
       </c>
       <c r="I72" s="3">
-        <v>10958700</v>
+        <v>10812600</v>
       </c>
       <c r="J72" s="3">
-        <v>10294600</v>
+        <v>10157300</v>
       </c>
       <c r="K72" s="3">
         <v>11473900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19381500</v>
+        <v>19123100</v>
       </c>
       <c r="E76" s="3">
-        <v>17290200</v>
+        <v>17059700</v>
       </c>
       <c r="F76" s="3">
-        <v>16132800</v>
+        <v>15917700</v>
       </c>
       <c r="G76" s="3">
-        <v>16304900</v>
+        <v>16087500</v>
       </c>
       <c r="H76" s="3">
-        <v>15274400</v>
+        <v>15070800</v>
       </c>
       <c r="I76" s="3">
-        <v>15289600</v>
+        <v>15085800</v>
       </c>
       <c r="J76" s="3">
-        <v>14391400</v>
+        <v>14199500</v>
       </c>
       <c r="K76" s="3">
         <v>14566600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1891300</v>
+        <v>1866000</v>
       </c>
       <c r="E81" s="3">
-        <v>943800</v>
+        <v>931200</v>
       </c>
       <c r="F81" s="3">
-        <v>1400900</v>
+        <v>1382200</v>
       </c>
       <c r="G81" s="3">
-        <v>1411500</v>
+        <v>1392700</v>
       </c>
       <c r="H81" s="3">
-        <v>1008800</v>
+        <v>995400</v>
       </c>
       <c r="I81" s="3">
-        <v>791100</v>
+        <v>780500</v>
       </c>
       <c r="J81" s="3">
-        <v>656900</v>
+        <v>648100</v>
       </c>
       <c r="K81" s="3">
         <v>942700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>593900</v>
+        <v>586000</v>
       </c>
       <c r="E83" s="3">
-        <v>401700</v>
+        <v>396300</v>
       </c>
       <c r="F83" s="3">
-        <v>379300</v>
+        <v>374200</v>
       </c>
       <c r="G83" s="3">
-        <v>204400</v>
+        <v>201700</v>
       </c>
       <c r="H83" s="3">
-        <v>176800</v>
+        <v>174500</v>
       </c>
       <c r="I83" s="3">
-        <v>189000</v>
+        <v>186500</v>
       </c>
       <c r="J83" s="3">
-        <v>180600</v>
+        <v>178200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1350700</v>
+        <v>-1332700</v>
       </c>
       <c r="E89" s="3">
-        <v>2704500</v>
+        <v>2668400</v>
       </c>
       <c r="F89" s="3">
-        <v>1402800</v>
+        <v>1384100</v>
       </c>
       <c r="G89" s="3">
-        <v>6870100</v>
+        <v>6778500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1484300</v>
+        <v>-1464500</v>
       </c>
       <c r="I89" s="3">
-        <v>3679000</v>
+        <v>3629900</v>
       </c>
       <c r="J89" s="3">
-        <v>-287900</v>
+        <v>-284100</v>
       </c>
       <c r="K89" s="3">
         <v>-3234100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-89400</v>
+        <v>-88200</v>
       </c>
       <c r="E91" s="3">
-        <v>-112000</v>
+        <v>-110500</v>
       </c>
       <c r="F91" s="3">
-        <v>-322200</v>
+        <v>-317900</v>
       </c>
       <c r="G91" s="3">
-        <v>-89000</v>
+        <v>-87800</v>
       </c>
       <c r="H91" s="3">
-        <v>-121700</v>
+        <v>-120100</v>
       </c>
       <c r="I91" s="3">
-        <v>-98300</v>
+        <v>-96900</v>
       </c>
       <c r="J91" s="3">
-        <v>-97100</v>
+        <v>-95800</v>
       </c>
       <c r="K91" s="3">
         <v>-129100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8000100</v>
+        <v>-7893500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1092300</v>
+        <v>-1077800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6441100</v>
+        <v>-6355200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8303400</v>
+        <v>-8192700</v>
       </c>
       <c r="H94" s="3">
-        <v>1412800</v>
+        <v>1393900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3169200</v>
+        <v>-3127000</v>
       </c>
       <c r="J94" s="3">
-        <v>955600</v>
+        <v>942900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,13 +3764,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-276300</v>
+        <v>-272600</v>
       </c>
       <c r="E96" s="3">
-        <v>-379200</v>
+        <v>-374100</v>
       </c>
       <c r="F96" s="3">
-        <v>-328200</v>
+        <v>-323800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-126200</v>
+        <v>-124600</v>
       </c>
       <c r="J96" s="3">
-        <v>-378700</v>
+        <v>-373700</v>
       </c>
       <c r="K96" s="3">
         <v>-306500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6806800</v>
+        <v>6716000</v>
       </c>
       <c r="E100" s="3">
-        <v>1775400</v>
+        <v>1751800</v>
       </c>
       <c r="F100" s="3">
-        <v>4628300</v>
+        <v>4566500</v>
       </c>
       <c r="G100" s="3">
-        <v>1137600</v>
+        <v>1122400</v>
       </c>
       <c r="H100" s="3">
-        <v>-45800</v>
+        <v>-45200</v>
       </c>
       <c r="I100" s="3">
-        <v>249800</v>
+        <v>246500</v>
       </c>
       <c r="J100" s="3">
-        <v>-361100</v>
+        <v>-356200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>725200</v>
+        <v>715600</v>
       </c>
       <c r="E101" s="3">
-        <v>-688800</v>
+        <v>-679600</v>
       </c>
       <c r="F101" s="3">
-        <v>143600</v>
+        <v>141700</v>
       </c>
       <c r="G101" s="3">
-        <v>175400</v>
+        <v>173100</v>
       </c>
       <c r="H101" s="3">
-        <v>-395000</v>
+        <v>-389700</v>
       </c>
       <c r="I101" s="3">
-        <v>-49100</v>
+        <v>-48400</v>
       </c>
       <c r="J101" s="3">
-        <v>204300</v>
+        <v>201600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1818900</v>
+        <v>-1794600</v>
       </c>
       <c r="E102" s="3">
-        <v>2698800</v>
+        <v>2662800</v>
       </c>
       <c r="F102" s="3">
-        <v>-266500</v>
+        <v>-262900</v>
       </c>
       <c r="G102" s="3">
-        <v>-120300</v>
+        <v>-118700</v>
       </c>
       <c r="H102" s="3">
-        <v>-512300</v>
+        <v>-505400</v>
       </c>
       <c r="I102" s="3">
-        <v>710500</v>
+        <v>701000</v>
       </c>
       <c r="J102" s="3">
-        <v>510900</v>
+        <v>504100</v>
       </c>
       <c r="K102" s="3">
         <v>-243600</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7322100</v>
+        <v>10990900</v>
       </c>
       <c r="E8" s="3">
-        <v>7047700</v>
+        <v>7421100</v>
       </c>
       <c r="F8" s="3">
-        <v>7826800</v>
+        <v>7142900</v>
       </c>
       <c r="G8" s="3">
-        <v>7166500</v>
+        <v>7932600</v>
       </c>
       <c r="H8" s="3">
-        <v>6327500</v>
+        <v>7263400</v>
       </c>
       <c r="I8" s="3">
-        <v>6299100</v>
+        <v>6413000</v>
       </c>
       <c r="J8" s="3">
+        <v>6384200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6436700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7461100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8639000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9148600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9763900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-390000</v>
+        <v>-394300</v>
       </c>
       <c r="E15" s="3">
-        <v>-387500</v>
+        <v>-395200</v>
       </c>
       <c r="F15" s="3">
-        <v>-357700</v>
+        <v>-392700</v>
       </c>
       <c r="G15" s="3">
-        <v>-163400</v>
+        <v>-362600</v>
       </c>
       <c r="H15" s="3">
-        <v>-138800</v>
+        <v>-165600</v>
       </c>
       <c r="I15" s="3">
-        <v>-186500</v>
+        <v>-140600</v>
       </c>
       <c r="J15" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-178200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-184600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-215000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-187500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-177900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2565300</v>
+        <v>5131500</v>
       </c>
       <c r="E17" s="3">
-        <v>3195500</v>
+        <v>2599900</v>
       </c>
       <c r="F17" s="3">
-        <v>3752300</v>
+        <v>3238600</v>
       </c>
       <c r="G17" s="3">
-        <v>3294900</v>
+        <v>3803000</v>
       </c>
       <c r="H17" s="3">
-        <v>3102300</v>
+        <v>3339400</v>
       </c>
       <c r="I17" s="3">
-        <v>3243800</v>
+        <v>3144200</v>
       </c>
       <c r="J17" s="3">
+        <v>3287600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3735900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4725900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6553500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6595600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7124100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4756900</v>
+        <v>5859400</v>
       </c>
       <c r="E18" s="3">
-        <v>3852200</v>
+        <v>4821100</v>
       </c>
       <c r="F18" s="3">
-        <v>4074500</v>
+        <v>3904300</v>
       </c>
       <c r="G18" s="3">
-        <v>3871600</v>
+        <v>4129500</v>
       </c>
       <c r="H18" s="3">
-        <v>3225200</v>
+        <v>3923900</v>
       </c>
       <c r="I18" s="3">
-        <v>3055300</v>
+        <v>3268800</v>
       </c>
       <c r="J18" s="3">
+        <v>3096600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2700800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2735200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2085400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2553000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2639700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1982400</v>
+        <v>-2495400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2371300</v>
+        <v>-2009200</v>
       </c>
       <c r="F20" s="3">
+        <v>-2403300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2087300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1820300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1806700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1931500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1626400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2059400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1796000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1782600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1905800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1626400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2059400</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1823700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1177200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-578900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3352500</v>
+        <v>4070300</v>
       </c>
       <c r="E21" s="3">
-        <v>1871900</v>
+        <v>3413800</v>
       </c>
       <c r="F21" s="3">
-        <v>2384200</v>
+        <v>1908000</v>
       </c>
       <c r="G21" s="3">
-        <v>2274600</v>
+        <v>2426600</v>
       </c>
       <c r="H21" s="3">
-        <v>1614800</v>
+        <v>2310800</v>
       </c>
       <c r="I21" s="3">
-        <v>1333500</v>
+        <v>1641300</v>
       </c>
       <c r="J21" s="3">
+        <v>1356600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1250200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>532200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1623200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2301600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2774400</v>
+        <v>3364000</v>
       </c>
       <c r="E23" s="3">
-        <v>1480900</v>
+        <v>2811900</v>
       </c>
       <c r="F23" s="3">
-        <v>2015100</v>
+        <v>1500900</v>
       </c>
       <c r="G23" s="3">
-        <v>2075600</v>
+        <v>2042300</v>
       </c>
       <c r="H23" s="3">
-        <v>1442600</v>
+        <v>2103700</v>
       </c>
       <c r="I23" s="3">
-        <v>1149500</v>
+        <v>1462100</v>
       </c>
       <c r="J23" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1074400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>675900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>261800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1375900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2060800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>697000</v>
+        <v>871000</v>
       </c>
       <c r="E24" s="3">
-        <v>359600</v>
+        <v>706400</v>
       </c>
       <c r="F24" s="3">
-        <v>507200</v>
+        <v>364500</v>
       </c>
       <c r="G24" s="3">
-        <v>557400</v>
+        <v>514100</v>
       </c>
       <c r="H24" s="3">
-        <v>310400</v>
+        <v>564900</v>
       </c>
       <c r="I24" s="3">
-        <v>204100</v>
+        <v>314600</v>
       </c>
       <c r="J24" s="3">
+        <v>206900</v>
+      </c>
+      <c r="K24" s="3">
         <v>278600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>233400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>299700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>491900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2077500</v>
+        <v>2493000</v>
       </c>
       <c r="E26" s="3">
-        <v>1121300</v>
+        <v>2105500</v>
       </c>
       <c r="F26" s="3">
-        <v>1507800</v>
+        <v>1136400</v>
       </c>
       <c r="G26" s="3">
-        <v>1518200</v>
+        <v>1528200</v>
       </c>
       <c r="H26" s="3">
-        <v>1132300</v>
+        <v>1538700</v>
       </c>
       <c r="I26" s="3">
-        <v>945400</v>
+        <v>1147600</v>
       </c>
       <c r="J26" s="3">
+        <v>958100</v>
+      </c>
+      <c r="K26" s="3">
         <v>795800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>442400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>229800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1076100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1568900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1866000</v>
+        <v>2287400</v>
       </c>
       <c r="E27" s="3">
-        <v>931200</v>
+        <v>1891300</v>
       </c>
       <c r="F27" s="3">
-        <v>1382200</v>
+        <v>943800</v>
       </c>
       <c r="G27" s="3">
-        <v>1392700</v>
+        <v>1400900</v>
       </c>
       <c r="H27" s="3">
-        <v>995400</v>
+        <v>1411500</v>
       </c>
       <c r="I27" s="3">
-        <v>780500</v>
+        <v>1008800</v>
       </c>
       <c r="J27" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K27" s="3">
         <v>648100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>312000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>955200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1437400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>630700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-636700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>393900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>456200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1982400</v>
+        <v>2495400</v>
       </c>
       <c r="E32" s="3">
-        <v>2371300</v>
+        <v>2009200</v>
       </c>
       <c r="F32" s="3">
+        <v>2403300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2087300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1820300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1806700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1931500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1626400</v>
+      </c>
+      <c r="L32" s="3">
         <v>2059400</v>
       </c>
-      <c r="G32" s="3">
-        <v>1796000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1782600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1905800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1626400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2059400</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1823700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1177200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>578900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1866000</v>
+        <v>2287400</v>
       </c>
       <c r="E33" s="3">
-        <v>931200</v>
+        <v>1891300</v>
       </c>
       <c r="F33" s="3">
-        <v>1382200</v>
+        <v>943800</v>
       </c>
       <c r="G33" s="3">
-        <v>1392700</v>
+        <v>1400900</v>
       </c>
       <c r="H33" s="3">
-        <v>995400</v>
+        <v>1411500</v>
       </c>
       <c r="I33" s="3">
-        <v>780500</v>
+        <v>1008800</v>
       </c>
       <c r="J33" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K33" s="3">
         <v>648100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>942700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-516000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1349000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1893700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1866000</v>
+        <v>2287400</v>
       </c>
       <c r="E35" s="3">
-        <v>931200</v>
+        <v>1891300</v>
       </c>
       <c r="F35" s="3">
-        <v>1382200</v>
+        <v>943800</v>
       </c>
       <c r="G35" s="3">
-        <v>1392700</v>
+        <v>1400900</v>
       </c>
       <c r="H35" s="3">
-        <v>995400</v>
+        <v>1411500</v>
       </c>
       <c r="I35" s="3">
-        <v>780500</v>
+        <v>1008800</v>
       </c>
       <c r="J35" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K35" s="3">
         <v>648100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>942700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-516000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1349000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1893700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5481300</v>
+        <v>25596900</v>
       </c>
       <c r="E41" s="3">
-        <v>6985700</v>
+        <v>5555400</v>
       </c>
       <c r="F41" s="3">
-        <v>4638300</v>
+        <v>7080200</v>
       </c>
       <c r="G41" s="3">
-        <v>4695400</v>
+        <v>4701000</v>
       </c>
       <c r="H41" s="3">
-        <v>4476900</v>
+        <v>4758900</v>
       </c>
       <c r="I41" s="3">
-        <v>5250300</v>
+        <v>4537400</v>
       </c>
       <c r="J41" s="3">
+        <v>5321300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4465200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4213200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9364800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4853800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5647100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43495700</v>
+        <v>41084100</v>
       </c>
       <c r="E42" s="3">
-        <v>39170300</v>
+        <v>44083500</v>
       </c>
       <c r="F42" s="3">
-        <v>32804500</v>
+        <v>39699700</v>
       </c>
       <c r="G42" s="3">
-        <v>26231900</v>
+        <v>33247800</v>
       </c>
       <c r="H42" s="3">
-        <v>17602200</v>
+        <v>26586400</v>
       </c>
       <c r="I42" s="3">
-        <v>11678900</v>
+        <v>17840000</v>
       </c>
       <c r="J42" s="3">
+        <v>11836700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10478600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14255500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39630600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>47429400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>988000</v>
+        <v>979200</v>
       </c>
       <c r="E47" s="3">
-        <v>735000</v>
+        <v>1001400</v>
       </c>
       <c r="F47" s="3">
-        <v>596700</v>
+        <v>745000</v>
       </c>
       <c r="G47" s="3">
-        <v>267500</v>
+        <v>604800</v>
       </c>
       <c r="H47" s="3">
-        <v>308600</v>
+        <v>271100</v>
       </c>
       <c r="I47" s="3">
-        <v>324900</v>
+        <v>312800</v>
       </c>
       <c r="J47" s="3">
+        <v>329300</v>
+      </c>
+      <c r="K47" s="3">
         <v>476500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>525200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1621000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>871900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>816800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2637500</v>
+        <v>2648000</v>
       </c>
       <c r="E48" s="3">
-        <v>2719200</v>
+        <v>2673200</v>
       </c>
       <c r="F48" s="3">
-        <v>2697300</v>
+        <v>2756000</v>
       </c>
       <c r="G48" s="3">
-        <v>2086200</v>
+        <v>2733700</v>
       </c>
       <c r="H48" s="3">
-        <v>2108100</v>
+        <v>2114400</v>
       </c>
       <c r="I48" s="3">
-        <v>2084200</v>
+        <v>2136600</v>
       </c>
       <c r="J48" s="3">
+        <v>2112400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2088800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2315500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5236300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4968600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3197500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>581200</v>
+        <v>636800</v>
       </c>
       <c r="E49" s="3">
-        <v>586100</v>
+        <v>589000</v>
       </c>
       <c r="F49" s="3">
-        <v>624600</v>
+        <v>594100</v>
       </c>
       <c r="G49" s="3">
-        <v>434600</v>
+        <v>633100</v>
       </c>
       <c r="H49" s="3">
-        <v>383800</v>
+        <v>440400</v>
       </c>
       <c r="I49" s="3">
-        <v>358000</v>
+        <v>388900</v>
       </c>
       <c r="J49" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K49" s="3">
         <v>310700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>239500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>489400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>728100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>394100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>58300</v>
+        <v>331800</v>
       </c>
       <c r="E52" s="3">
-        <v>82700</v>
+        <v>59100</v>
       </c>
       <c r="F52" s="3">
-        <v>39000</v>
+        <v>83800</v>
       </c>
       <c r="G52" s="3">
-        <v>106100</v>
+        <v>39500</v>
       </c>
       <c r="H52" s="3">
-        <v>243300</v>
+        <v>107500</v>
       </c>
       <c r="I52" s="3">
-        <v>225900</v>
+        <v>246600</v>
       </c>
       <c r="J52" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K52" s="3">
         <v>169100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77631000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330916000</v>
+        <v>360356000</v>
       </c>
       <c r="E54" s="3">
-        <v>295320000</v>
+        <v>335388000</v>
       </c>
       <c r="F54" s="3">
-        <v>267866000</v>
+        <v>299311000</v>
       </c>
       <c r="G54" s="3">
-        <v>251931000</v>
+        <v>271486000</v>
       </c>
       <c r="H54" s="3">
-        <v>234059000</v>
+        <v>255335000</v>
       </c>
       <c r="I54" s="3">
-        <v>229905000</v>
+        <v>237222000</v>
       </c>
       <c r="J54" s="3">
+        <v>233012000</v>
+      </c>
+      <c r="K54" s="3">
         <v>215976000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>218827000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>310028000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>274766000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275257000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10700100</v>
+        <v>8592200</v>
       </c>
       <c r="E57" s="3">
-        <v>3698600</v>
+        <v>10844700</v>
       </c>
       <c r="F57" s="3">
-        <v>6324600</v>
+        <v>3748600</v>
       </c>
       <c r="G57" s="3">
-        <v>9680300</v>
+        <v>6410000</v>
       </c>
       <c r="H57" s="3">
-        <v>4878500</v>
+        <v>9811200</v>
       </c>
       <c r="I57" s="3">
-        <v>10959700</v>
+        <v>4944500</v>
       </c>
       <c r="J57" s="3">
+        <v>11107800</v>
+      </c>
+      <c r="K57" s="3">
         <v>6198800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6717900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13975600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2467,56 +2600,62 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>7098200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1964800</v>
+        <v>3047200</v>
       </c>
       <c r="E59" s="3">
-        <v>1790900</v>
+        <v>1991300</v>
       </c>
       <c r="F59" s="3">
-        <v>1997200</v>
+        <v>1815100</v>
       </c>
       <c r="G59" s="3">
-        <v>1753000</v>
+        <v>2024200</v>
       </c>
       <c r="H59" s="3">
-        <v>1689000</v>
+        <v>1776700</v>
       </c>
       <c r="I59" s="3">
-        <v>1648100</v>
+        <v>1711800</v>
       </c>
       <c r="J59" s="3">
+        <v>1670300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1487500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2140100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4189100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3097800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>241300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50819900</v>
+        <v>52670100</v>
       </c>
       <c r="E61" s="3">
-        <v>42586400</v>
+        <v>51506600</v>
       </c>
       <c r="F61" s="3">
-        <v>36677500</v>
+        <v>43161900</v>
       </c>
       <c r="G61" s="3">
-        <v>32479600</v>
+        <v>37173100</v>
       </c>
       <c r="H61" s="3">
-        <v>31064700</v>
+        <v>32918500</v>
       </c>
       <c r="I61" s="3">
-        <v>28398500</v>
+        <v>31484500</v>
       </c>
       <c r="J61" s="3">
+        <v>28782300</v>
+      </c>
+      <c r="K61" s="3">
         <v>28996600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31952700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31315500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44470300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600200</v>
+        <v>459600</v>
       </c>
       <c r="E62" s="3">
-        <v>528500</v>
+        <v>608300</v>
       </c>
       <c r="F62" s="3">
-        <v>496400</v>
+        <v>535600</v>
       </c>
       <c r="G62" s="3">
-        <v>404600</v>
+        <v>503100</v>
       </c>
       <c r="H62" s="3">
-        <v>352500</v>
+        <v>410000</v>
       </c>
       <c r="I62" s="3">
-        <v>381200</v>
+        <v>357300</v>
       </c>
       <c r="J62" s="3">
+        <v>386400</v>
+      </c>
+      <c r="K62" s="3">
         <v>470400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>639400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1466000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1843300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1119700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>311793000</v>
+        <v>338784000</v>
       </c>
       <c r="E66" s="3">
-        <v>278260000</v>
+        <v>316006000</v>
       </c>
       <c r="F66" s="3">
-        <v>251948000</v>
+        <v>282021000</v>
       </c>
       <c r="G66" s="3">
-        <v>235843000</v>
+        <v>255353000</v>
       </c>
       <c r="H66" s="3">
-        <v>218988000</v>
+        <v>239030000</v>
       </c>
       <c r="I66" s="3">
-        <v>214820000</v>
+        <v>221947000</v>
       </c>
       <c r="J66" s="3">
+        <v>217722000</v>
+      </c>
+      <c r="K66" s="3">
         <v>201776000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>204261000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>293819000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>259061000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>259836000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15830500</v>
+        <v>17812600</v>
       </c>
       <c r="E72" s="3">
-        <v>14258500</v>
+        <v>16044400</v>
       </c>
       <c r="F72" s="3">
-        <v>13708100</v>
+        <v>14451200</v>
       </c>
       <c r="G72" s="3">
-        <v>12672200</v>
+        <v>13893400</v>
       </c>
       <c r="H72" s="3">
-        <v>11558800</v>
+        <v>12843500</v>
       </c>
       <c r="I72" s="3">
-        <v>10812600</v>
+        <v>11715000</v>
       </c>
       <c r="J72" s="3">
+        <v>10958700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10157300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11473900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23865100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11660400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10932000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19123100</v>
+        <v>21571400</v>
       </c>
       <c r="E76" s="3">
-        <v>17059700</v>
+        <v>19381500</v>
       </c>
       <c r="F76" s="3">
-        <v>15917700</v>
+        <v>17290200</v>
       </c>
       <c r="G76" s="3">
-        <v>16087500</v>
+        <v>16132800</v>
       </c>
       <c r="H76" s="3">
-        <v>15070800</v>
+        <v>16304900</v>
       </c>
       <c r="I76" s="3">
-        <v>15085800</v>
+        <v>15274400</v>
       </c>
       <c r="J76" s="3">
+        <v>15289600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14199500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14566600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16209000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15704600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15421100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1866000</v>
+        <v>2287400</v>
       </c>
       <c r="E81" s="3">
-        <v>931200</v>
+        <v>1891300</v>
       </c>
       <c r="F81" s="3">
-        <v>1382200</v>
+        <v>943800</v>
       </c>
       <c r="G81" s="3">
-        <v>1392700</v>
+        <v>1400900</v>
       </c>
       <c r="H81" s="3">
-        <v>995400</v>
+        <v>1411500</v>
       </c>
       <c r="I81" s="3">
-        <v>780500</v>
+        <v>1008800</v>
       </c>
       <c r="J81" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K81" s="3">
         <v>648100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>942700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-516000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1349000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1893700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>586000</v>
+        <v>697000</v>
       </c>
       <c r="E83" s="3">
-        <v>396300</v>
+        <v>593900</v>
       </c>
       <c r="F83" s="3">
-        <v>374200</v>
+        <v>401700</v>
       </c>
       <c r="G83" s="3">
-        <v>201700</v>
+        <v>379300</v>
       </c>
       <c r="H83" s="3">
-        <v>174500</v>
+        <v>204400</v>
       </c>
       <c r="I83" s="3">
-        <v>186500</v>
+        <v>176800</v>
       </c>
       <c r="J83" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K83" s="3">
         <v>178200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>273400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>244500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>240800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1332700</v>
+        <v>13968100</v>
       </c>
       <c r="E89" s="3">
-        <v>2668400</v>
+        <v>2849800</v>
       </c>
       <c r="F89" s="3">
-        <v>1384100</v>
+        <v>2704500</v>
       </c>
       <c r="G89" s="3">
-        <v>6778500</v>
+        <v>1402800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1464500</v>
+        <v>6870100</v>
       </c>
       <c r="I89" s="3">
-        <v>3629900</v>
+        <v>-1484300</v>
       </c>
       <c r="J89" s="3">
+        <v>3679000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-284100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3234100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3633400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-121000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-942600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-88200</v>
+        <v>-129700</v>
       </c>
       <c r="E91" s="3">
-        <v>-110500</v>
+        <v>-89400</v>
       </c>
       <c r="F91" s="3">
-        <v>-317900</v>
+        <v>-112000</v>
       </c>
       <c r="G91" s="3">
-        <v>-87800</v>
+        <v>-322200</v>
       </c>
       <c r="H91" s="3">
-        <v>-120100</v>
+        <v>-89000</v>
       </c>
       <c r="I91" s="3">
-        <v>-96900</v>
+        <v>-121700</v>
       </c>
       <c r="J91" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-95800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-145100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-204600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7893500</v>
+        <v>-5226500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1077800</v>
+        <v>-8000100</v>
       </c>
       <c r="F94" s="3">
-        <v>-6355200</v>
+        <v>-1092300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8192700</v>
+        <v>-6441100</v>
       </c>
       <c r="H94" s="3">
-        <v>1393900</v>
+        <v>-8303400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3127000</v>
+        <v>1412800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3169200</v>
+      </c>
+      <c r="K94" s="3">
         <v>942900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-357600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1975800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2124000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-272600</v>
+        <v>-491200</v>
       </c>
       <c r="E96" s="3">
-        <v>-374100</v>
+        <v>-276300</v>
       </c>
       <c r="F96" s="3">
-        <v>-323800</v>
+        <v>-379200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-328200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-124600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-126200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-373700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-306500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-344300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-288400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-177300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6716000</v>
+        <v>1439800</v>
       </c>
       <c r="E100" s="3">
-        <v>1751800</v>
+        <v>6806800</v>
       </c>
       <c r="F100" s="3">
-        <v>4566500</v>
+        <v>1775400</v>
       </c>
       <c r="G100" s="3">
-        <v>1122400</v>
+        <v>4628300</v>
       </c>
       <c r="H100" s="3">
-        <v>-45200</v>
+        <v>1137600</v>
       </c>
       <c r="I100" s="3">
-        <v>246500</v>
+        <v>-45800</v>
       </c>
       <c r="J100" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-356200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>3803800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2248200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>154300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>715600</v>
+        <v>23100</v>
       </c>
       <c r="E101" s="3">
-        <v>-679600</v>
+        <v>795900</v>
       </c>
       <c r="F101" s="3">
-        <v>141700</v>
+        <v>-688800</v>
       </c>
       <c r="G101" s="3">
-        <v>173100</v>
+        <v>143600</v>
       </c>
       <c r="H101" s="3">
-        <v>-389700</v>
+        <v>175400</v>
       </c>
       <c r="I101" s="3">
-        <v>-48400</v>
+        <v>-395000</v>
       </c>
       <c r="J101" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K101" s="3">
         <v>201600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-86400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-143800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1794600</v>
+        <v>10204600</v>
       </c>
       <c r="E102" s="3">
-        <v>2662800</v>
+        <v>2452400</v>
       </c>
       <c r="F102" s="3">
-        <v>-262900</v>
+        <v>2698800</v>
       </c>
       <c r="G102" s="3">
-        <v>-118700</v>
+        <v>-266500</v>
       </c>
       <c r="H102" s="3">
-        <v>-505400</v>
+        <v>-120300</v>
       </c>
       <c r="I102" s="3">
-        <v>701000</v>
+        <v>-512300</v>
       </c>
       <c r="J102" s="3">
+        <v>710500</v>
+      </c>
+      <c r="K102" s="3">
         <v>504100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-243600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-273700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-537200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1360500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4070300</v>
+        <v>4061000</v>
       </c>
       <c r="E21" s="3">
-        <v>3413800</v>
+        <v>3405900</v>
       </c>
       <c r="F21" s="3">
-        <v>1908000</v>
+        <v>1902600</v>
       </c>
       <c r="G21" s="3">
-        <v>2426600</v>
+        <v>2421600</v>
       </c>
       <c r="H21" s="3">
-        <v>2310800</v>
+        <v>2308100</v>
       </c>
       <c r="I21" s="3">
-        <v>1641300</v>
+        <v>1639000</v>
       </c>
       <c r="J21" s="3">
-        <v>1356600</v>
+        <v>1354100</v>
       </c>
       <c r="K21" s="3">
         <v>1250200</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5131500</v>
+        <v>5132400</v>
       </c>
       <c r="E17" s="3">
         <v>2599900</v>
@@ -1062,7 +1062,7 @@
         <v>3238600</v>
       </c>
       <c r="G17" s="3">
-        <v>3803000</v>
+        <v>3793000</v>
       </c>
       <c r="H17" s="3">
         <v>3339400</v>
@@ -1095,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5859400</v>
+        <v>5858500</v>
       </c>
       <c r="E18" s="3">
         <v>4821100</v>
@@ -1104,7 +1104,7 @@
         <v>3904300</v>
       </c>
       <c r="G18" s="3">
-        <v>4129500</v>
+        <v>4139600</v>
       </c>
       <c r="H18" s="3">
         <v>3923900</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2495400</v>
+        <v>-2494400</v>
       </c>
       <c r="E20" s="3">
         <v>-2009200</v>
@@ -1164,7 +1164,7 @@
         <v>-2403300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2087300</v>
+        <v>-2097300</v>
       </c>
       <c r="H20" s="3">
         <v>-1820300</v>
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2495400</v>
+        <v>2494400</v>
       </c>
       <c r="E32" s="3">
         <v>2009200</v>
@@ -1668,7 +1668,7 @@
         <v>2403300</v>
       </c>
       <c r="G32" s="3">
-        <v>2087300</v>
+        <v>2097300</v>
       </c>
       <c r="H32" s="3">
         <v>1820300</v>

--- a/AAII_Financials/Yearly/WF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10990900</v>
+        <v>11284000</v>
       </c>
       <c r="E8" s="3">
-        <v>7421100</v>
+        <v>7619000</v>
       </c>
       <c r="F8" s="3">
-        <v>7142900</v>
+        <v>7333400</v>
       </c>
       <c r="G8" s="3">
-        <v>7932600</v>
+        <v>8144100</v>
       </c>
       <c r="H8" s="3">
-        <v>7263400</v>
+        <v>7457100</v>
       </c>
       <c r="I8" s="3">
-        <v>6413000</v>
+        <v>6584000</v>
       </c>
       <c r="J8" s="3">
-        <v>6384200</v>
+        <v>6554500</v>
       </c>
       <c r="K8" s="3">
         <v>6436700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-394300</v>
+        <v>-404800</v>
       </c>
       <c r="E15" s="3">
-        <v>-395200</v>
+        <v>-405800</v>
       </c>
       <c r="F15" s="3">
-        <v>-392700</v>
+        <v>-403200</v>
       </c>
       <c r="G15" s="3">
-        <v>-362600</v>
+        <v>-372200</v>
       </c>
       <c r="H15" s="3">
-        <v>-165600</v>
+        <v>-170000</v>
       </c>
       <c r="I15" s="3">
-        <v>-140600</v>
+        <v>-144400</v>
       </c>
       <c r="J15" s="3">
-        <v>-189000</v>
+        <v>-194100</v>
       </c>
       <c r="K15" s="3">
         <v>-178200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5132400</v>
+        <v>5269300</v>
       </c>
       <c r="E17" s="3">
-        <v>2599900</v>
+        <v>2669200</v>
       </c>
       <c r="F17" s="3">
-        <v>3238600</v>
+        <v>3325000</v>
       </c>
       <c r="G17" s="3">
-        <v>3793000</v>
+        <v>3894100</v>
       </c>
       <c r="H17" s="3">
-        <v>3339400</v>
+        <v>3428500</v>
       </c>
       <c r="I17" s="3">
-        <v>3144200</v>
+        <v>3228100</v>
       </c>
       <c r="J17" s="3">
-        <v>3287600</v>
+        <v>3375300</v>
       </c>
       <c r="K17" s="3">
         <v>3735900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5858500</v>
+        <v>6014700</v>
       </c>
       <c r="E18" s="3">
-        <v>4821100</v>
+        <v>4949700</v>
       </c>
       <c r="F18" s="3">
-        <v>3904300</v>
+        <v>4008400</v>
       </c>
       <c r="G18" s="3">
-        <v>4139600</v>
+        <v>4250000</v>
       </c>
       <c r="H18" s="3">
-        <v>3923900</v>
+        <v>4028600</v>
       </c>
       <c r="I18" s="3">
-        <v>3268800</v>
+        <v>3356000</v>
       </c>
       <c r="J18" s="3">
-        <v>3096600</v>
+        <v>3179200</v>
       </c>
       <c r="K18" s="3">
         <v>2700800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2494400</v>
+        <v>-2561000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2009200</v>
+        <v>-2062800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2403300</v>
+        <v>-2467400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2097300</v>
+        <v>-2153200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1820300</v>
+        <v>-1868800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1806700</v>
+        <v>-1854800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1931500</v>
+        <v>-1983100</v>
       </c>
       <c r="K20" s="3">
         <v>-1626400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4061000</v>
+        <v>4169300</v>
       </c>
       <c r="E21" s="3">
-        <v>3405900</v>
+        <v>3496700</v>
       </c>
       <c r="F21" s="3">
-        <v>1902600</v>
+        <v>1953300</v>
       </c>
       <c r="G21" s="3">
-        <v>2421600</v>
+        <v>2486200</v>
       </c>
       <c r="H21" s="3">
-        <v>2308100</v>
+        <v>2369600</v>
       </c>
       <c r="I21" s="3">
-        <v>1639000</v>
+        <v>1682700</v>
       </c>
       <c r="J21" s="3">
-        <v>1354100</v>
+        <v>1390200</v>
       </c>
       <c r="K21" s="3">
         <v>1250200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3364000</v>
+        <v>3453700</v>
       </c>
       <c r="E23" s="3">
-        <v>2811900</v>
+        <v>2886900</v>
       </c>
       <c r="F23" s="3">
-        <v>1500900</v>
+        <v>1541000</v>
       </c>
       <c r="G23" s="3">
-        <v>2042300</v>
+        <v>2096700</v>
       </c>
       <c r="H23" s="3">
-        <v>2103700</v>
+        <v>2159800</v>
       </c>
       <c r="I23" s="3">
-        <v>1462100</v>
+        <v>1501100</v>
       </c>
       <c r="J23" s="3">
-        <v>1165000</v>
+        <v>1196100</v>
       </c>
       <c r="K23" s="3">
         <v>1074400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>871000</v>
+        <v>894300</v>
       </c>
       <c r="E24" s="3">
-        <v>706400</v>
+        <v>725200</v>
       </c>
       <c r="F24" s="3">
-        <v>364500</v>
+        <v>374200</v>
       </c>
       <c r="G24" s="3">
-        <v>514100</v>
+        <v>527800</v>
       </c>
       <c r="H24" s="3">
-        <v>564900</v>
+        <v>580000</v>
       </c>
       <c r="I24" s="3">
-        <v>314600</v>
+        <v>323000</v>
       </c>
       <c r="J24" s="3">
-        <v>206900</v>
+        <v>212400</v>
       </c>
       <c r="K24" s="3">
         <v>278600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2493000</v>
+        <v>2559500</v>
       </c>
       <c r="E26" s="3">
-        <v>2105500</v>
+        <v>2161700</v>
       </c>
       <c r="F26" s="3">
-        <v>1136400</v>
+        <v>1166700</v>
       </c>
       <c r="G26" s="3">
-        <v>1528200</v>
+        <v>1568900</v>
       </c>
       <c r="H26" s="3">
-        <v>1538700</v>
+        <v>1579800</v>
       </c>
       <c r="I26" s="3">
-        <v>1147600</v>
+        <v>1178200</v>
       </c>
       <c r="J26" s="3">
-        <v>958100</v>
+        <v>983700</v>
       </c>
       <c r="K26" s="3">
         <v>795800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2287400</v>
+        <v>2348400</v>
       </c>
       <c r="E27" s="3">
-        <v>1891300</v>
+        <v>1941700</v>
       </c>
       <c r="F27" s="3">
-        <v>943800</v>
+        <v>968900</v>
       </c>
       <c r="G27" s="3">
-        <v>1400900</v>
+        <v>1438200</v>
       </c>
       <c r="H27" s="3">
-        <v>1411500</v>
+        <v>1449100</v>
       </c>
       <c r="I27" s="3">
-        <v>1008800</v>
+        <v>1035700</v>
       </c>
       <c r="J27" s="3">
-        <v>791100</v>
+        <v>812200</v>
       </c>
       <c r="K27" s="3">
         <v>648100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2494400</v>
+        <v>2561000</v>
       </c>
       <c r="E32" s="3">
-        <v>2009200</v>
+        <v>2062800</v>
       </c>
       <c r="F32" s="3">
-        <v>2403300</v>
+        <v>2467400</v>
       </c>
       <c r="G32" s="3">
-        <v>2097300</v>
+        <v>2153200</v>
       </c>
       <c r="H32" s="3">
-        <v>1820300</v>
+        <v>1868800</v>
       </c>
       <c r="I32" s="3">
-        <v>1806700</v>
+        <v>1854800</v>
       </c>
       <c r="J32" s="3">
-        <v>1931500</v>
+        <v>1983100</v>
       </c>
       <c r="K32" s="3">
         <v>1626400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2287400</v>
+        <v>2348400</v>
       </c>
       <c r="E33" s="3">
-        <v>1891300</v>
+        <v>1941700</v>
       </c>
       <c r="F33" s="3">
-        <v>943800</v>
+        <v>968900</v>
       </c>
       <c r="G33" s="3">
-        <v>1400900</v>
+        <v>1438200</v>
       </c>
       <c r="H33" s="3">
-        <v>1411500</v>
+        <v>1449100</v>
       </c>
       <c r="I33" s="3">
-        <v>1008800</v>
+        <v>1035700</v>
       </c>
       <c r="J33" s="3">
-        <v>791100</v>
+        <v>812200</v>
       </c>
       <c r="K33" s="3">
         <v>648100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2287400</v>
+        <v>2348400</v>
       </c>
       <c r="E35" s="3">
-        <v>1891300</v>
+        <v>1941700</v>
       </c>
       <c r="F35" s="3">
-        <v>943800</v>
+        <v>968900</v>
       </c>
       <c r="G35" s="3">
-        <v>1400900</v>
+        <v>1438200</v>
       </c>
       <c r="H35" s="3">
-        <v>1411500</v>
+        <v>1449100</v>
       </c>
       <c r="I35" s="3">
-        <v>1008800</v>
+        <v>1035700</v>
       </c>
       <c r="J35" s="3">
-        <v>791100</v>
+        <v>812200</v>
       </c>
       <c r="K35" s="3">
         <v>648100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25596900</v>
+        <v>26279400</v>
       </c>
       <c r="E41" s="3">
-        <v>5555400</v>
+        <v>5703500</v>
       </c>
       <c r="F41" s="3">
-        <v>7080200</v>
+        <v>7269000</v>
       </c>
       <c r="G41" s="3">
-        <v>4701000</v>
+        <v>4826400</v>
       </c>
       <c r="H41" s="3">
-        <v>4758900</v>
+        <v>4885800</v>
       </c>
       <c r="I41" s="3">
-        <v>4537400</v>
+        <v>4658400</v>
       </c>
       <c r="J41" s="3">
-        <v>5321300</v>
+        <v>5463200</v>
       </c>
       <c r="K41" s="3">
         <v>4465200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41084100</v>
+        <v>42179700</v>
       </c>
       <c r="E42" s="3">
-        <v>44083500</v>
+        <v>45259000</v>
       </c>
       <c r="F42" s="3">
-        <v>39699700</v>
+        <v>40758300</v>
       </c>
       <c r="G42" s="3">
-        <v>33247800</v>
+        <v>34134400</v>
       </c>
       <c r="H42" s="3">
-        <v>26586400</v>
+        <v>27295300</v>
       </c>
       <c r="I42" s="3">
-        <v>17840000</v>
+        <v>18315800</v>
       </c>
       <c r="J42" s="3">
-        <v>11836700</v>
+        <v>12152400</v>
       </c>
       <c r="K42" s="3">
         <v>10478600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>979200</v>
+        <v>1005300</v>
       </c>
       <c r="E47" s="3">
-        <v>1001400</v>
+        <v>1028100</v>
       </c>
       <c r="F47" s="3">
-        <v>745000</v>
+        <v>764800</v>
       </c>
       <c r="G47" s="3">
-        <v>604800</v>
+        <v>620900</v>
       </c>
       <c r="H47" s="3">
-        <v>271100</v>
+        <v>278300</v>
       </c>
       <c r="I47" s="3">
-        <v>312800</v>
+        <v>321100</v>
       </c>
       <c r="J47" s="3">
-        <v>329300</v>
+        <v>338000</v>
       </c>
       <c r="K47" s="3">
         <v>476500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2648000</v>
+        <v>2718600</v>
       </c>
       <c r="E48" s="3">
-        <v>2673200</v>
+        <v>2744400</v>
       </c>
       <c r="F48" s="3">
-        <v>2756000</v>
+        <v>2829500</v>
       </c>
       <c r="G48" s="3">
-        <v>2733700</v>
+        <v>2806600</v>
       </c>
       <c r="H48" s="3">
-        <v>2114400</v>
+        <v>2170800</v>
       </c>
       <c r="I48" s="3">
-        <v>2136600</v>
+        <v>2193600</v>
       </c>
       <c r="J48" s="3">
-        <v>2112400</v>
+        <v>2168700</v>
       </c>
       <c r="K48" s="3">
         <v>2088800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>636800</v>
+        <v>653800</v>
       </c>
       <c r="E49" s="3">
-        <v>589000</v>
+        <v>604700</v>
       </c>
       <c r="F49" s="3">
-        <v>594100</v>
+        <v>609900</v>
       </c>
       <c r="G49" s="3">
-        <v>633100</v>
+        <v>650000</v>
       </c>
       <c r="H49" s="3">
-        <v>440400</v>
+        <v>452200</v>
       </c>
       <c r="I49" s="3">
-        <v>388900</v>
+        <v>399300</v>
       </c>
       <c r="J49" s="3">
-        <v>362800</v>
+        <v>372500</v>
       </c>
       <c r="K49" s="3">
         <v>310700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>331800</v>
+        <v>340600</v>
       </c>
       <c r="E52" s="3">
-        <v>59100</v>
+        <v>60700</v>
       </c>
       <c r="F52" s="3">
-        <v>83800</v>
+        <v>86000</v>
       </c>
       <c r="G52" s="3">
-        <v>39500</v>
+        <v>40600</v>
       </c>
       <c r="H52" s="3">
-        <v>107500</v>
+        <v>110400</v>
       </c>
       <c r="I52" s="3">
-        <v>246600</v>
+        <v>253100</v>
       </c>
       <c r="J52" s="3">
-        <v>229000</v>
+        <v>235100</v>
       </c>
       <c r="K52" s="3">
         <v>169100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>360356000</v>
+        <v>369965000</v>
       </c>
       <c r="E54" s="3">
-        <v>335388000</v>
+        <v>344332000</v>
       </c>
       <c r="F54" s="3">
-        <v>299311000</v>
+        <v>307292000</v>
       </c>
       <c r="G54" s="3">
-        <v>271486000</v>
+        <v>278725000</v>
       </c>
       <c r="H54" s="3">
-        <v>255335000</v>
+        <v>262144000</v>
       </c>
       <c r="I54" s="3">
-        <v>237222000</v>
+        <v>243548000</v>
       </c>
       <c r="J54" s="3">
-        <v>233012000</v>
+        <v>239226000</v>
       </c>
       <c r="K54" s="3">
         <v>215976000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8592200</v>
+        <v>8821300</v>
       </c>
       <c r="E57" s="3">
-        <v>10844700</v>
+        <v>11133900</v>
       </c>
       <c r="F57" s="3">
-        <v>3748600</v>
+        <v>3848500</v>
       </c>
       <c r="G57" s="3">
-        <v>6410000</v>
+        <v>6581000</v>
       </c>
       <c r="H57" s="3">
-        <v>9811200</v>
+        <v>10072800</v>
       </c>
       <c r="I57" s="3">
-        <v>4944500</v>
+        <v>5076300</v>
       </c>
       <c r="J57" s="3">
-        <v>11107800</v>
+        <v>11404000</v>
       </c>
       <c r="K57" s="3">
         <v>6198800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3047200</v>
+        <v>3128400</v>
       </c>
       <c r="E59" s="3">
-        <v>1991300</v>
+        <v>2044500</v>
       </c>
       <c r="F59" s="3">
-        <v>1815100</v>
+        <v>1863500</v>
       </c>
       <c r="G59" s="3">
-        <v>2024200</v>
+        <v>2078200</v>
       </c>
       <c r="H59" s="3">
-        <v>1776700</v>
+        <v>1824100</v>
       </c>
       <c r="I59" s="3">
-        <v>1711800</v>
+        <v>1757500</v>
       </c>
       <c r="J59" s="3">
-        <v>1670300</v>
+        <v>1714900</v>
       </c>
       <c r="K59" s="3">
         <v>1487500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52670100</v>
+        <v>54074700</v>
       </c>
       <c r="E61" s="3">
-        <v>51506600</v>
+        <v>52880100</v>
       </c>
       <c r="F61" s="3">
-        <v>43161900</v>
+        <v>44312800</v>
       </c>
       <c r="G61" s="3">
-        <v>37173100</v>
+        <v>38164400</v>
       </c>
       <c r="H61" s="3">
-        <v>32918500</v>
+        <v>33796300</v>
       </c>
       <c r="I61" s="3">
-        <v>31484500</v>
+        <v>32324100</v>
       </c>
       <c r="J61" s="3">
-        <v>28782300</v>
+        <v>29549800</v>
       </c>
       <c r="K61" s="3">
         <v>28996600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>459600</v>
+        <v>471900</v>
       </c>
       <c r="E62" s="3">
-        <v>608300</v>
+        <v>624500</v>
       </c>
       <c r="F62" s="3">
-        <v>535600</v>
+        <v>549900</v>
       </c>
       <c r="G62" s="3">
-        <v>503100</v>
+        <v>516500</v>
       </c>
       <c r="H62" s="3">
-        <v>410000</v>
+        <v>421000</v>
       </c>
       <c r="I62" s="3">
-        <v>357300</v>
+        <v>366800</v>
       </c>
       <c r="J62" s="3">
-        <v>386400</v>
+        <v>396700</v>
       </c>
       <c r="K62" s="3">
         <v>470400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>338784000</v>
+        <v>347819000</v>
       </c>
       <c r="E66" s="3">
-        <v>316006000</v>
+        <v>324433000</v>
       </c>
       <c r="F66" s="3">
-        <v>282021000</v>
+        <v>289541000</v>
       </c>
       <c r="G66" s="3">
-        <v>255353000</v>
+        <v>262162000</v>
       </c>
       <c r="H66" s="3">
-        <v>239030000</v>
+        <v>245405000</v>
       </c>
       <c r="I66" s="3">
-        <v>221947000</v>
+        <v>227866000</v>
       </c>
       <c r="J66" s="3">
-        <v>217722000</v>
+        <v>223528000</v>
       </c>
       <c r="K66" s="3">
         <v>201776000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17812600</v>
+        <v>18287600</v>
       </c>
       <c r="E72" s="3">
-        <v>16044400</v>
+        <v>16472300</v>
       </c>
       <c r="F72" s="3">
-        <v>14451200</v>
+        <v>14836600</v>
       </c>
       <c r="G72" s="3">
-        <v>13893400</v>
+        <v>14263900</v>
       </c>
       <c r="H72" s="3">
-        <v>12843500</v>
+        <v>13186000</v>
       </c>
       <c r="I72" s="3">
-        <v>11715000</v>
+        <v>12027400</v>
       </c>
       <c r="J72" s="3">
-        <v>10958700</v>
+        <v>11250900</v>
       </c>
       <c r="K72" s="3">
         <v>10157300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21571400</v>
+        <v>22146700</v>
       </c>
       <c r="E76" s="3">
-        <v>19381500</v>
+        <v>19898400</v>
       </c>
       <c r="F76" s="3">
-        <v>17290200</v>
+        <v>17751300</v>
       </c>
       <c r="G76" s="3">
-        <v>16132800</v>
+        <v>16563000</v>
       </c>
       <c r="H76" s="3">
-        <v>16304900</v>
+        <v>16739700</v>
       </c>
       <c r="I76" s="3">
-        <v>15274400</v>
+        <v>15681700</v>
       </c>
       <c r="J76" s="3">
-        <v>15289600</v>
+        <v>15697300</v>
       </c>
       <c r="K76" s="3">
         <v>14199500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2287400</v>
+        <v>2348400</v>
       </c>
       <c r="E81" s="3">
-        <v>1891300</v>
+        <v>1941700</v>
       </c>
       <c r="F81" s="3">
-        <v>943800</v>
+        <v>968900</v>
       </c>
       <c r="G81" s="3">
-        <v>1400900</v>
+        <v>1438200</v>
       </c>
       <c r="H81" s="3">
-        <v>1411500</v>
+        <v>1449100</v>
       </c>
       <c r="I81" s="3">
-        <v>1008800</v>
+        <v>1035700</v>
       </c>
       <c r="J81" s="3">
-        <v>791100</v>
+        <v>812200</v>
       </c>
       <c r="K81" s="3">
         <v>648100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>697000</v>
+        <v>715600</v>
       </c>
       <c r="E83" s="3">
-        <v>593900</v>
+        <v>609800</v>
       </c>
       <c r="F83" s="3">
-        <v>401700</v>
+        <v>412400</v>
       </c>
       <c r="G83" s="3">
-        <v>379300</v>
+        <v>389400</v>
       </c>
       <c r="H83" s="3">
-        <v>204400</v>
+        <v>209900</v>
       </c>
       <c r="I83" s="3">
-        <v>176800</v>
+        <v>181600</v>
       </c>
       <c r="J83" s="3">
-        <v>189000</v>
+        <v>194100</v>
       </c>
       <c r="K83" s="3">
         <v>178200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13968100</v>
+        <v>14340600</v>
       </c>
       <c r="E89" s="3">
-        <v>2849800</v>
+        <v>2925800</v>
       </c>
       <c r="F89" s="3">
-        <v>2704500</v>
+        <v>2776600</v>
       </c>
       <c r="G89" s="3">
-        <v>1402800</v>
+        <v>1440200</v>
       </c>
       <c r="H89" s="3">
-        <v>6870100</v>
+        <v>7053300</v>
       </c>
       <c r="I89" s="3">
-        <v>-1484300</v>
+        <v>-1523800</v>
       </c>
       <c r="J89" s="3">
-        <v>3679000</v>
+        <v>3777100</v>
       </c>
       <c r="K89" s="3">
         <v>-284100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-129700</v>
+        <v>-133100</v>
       </c>
       <c r="E91" s="3">
-        <v>-89400</v>
+        <v>-91800</v>
       </c>
       <c r="F91" s="3">
-        <v>-112000</v>
+        <v>-115000</v>
       </c>
       <c r="G91" s="3">
-        <v>-322200</v>
+        <v>-330800</v>
       </c>
       <c r="H91" s="3">
-        <v>-89000</v>
+        <v>-91400</v>
       </c>
       <c r="I91" s="3">
-        <v>-121700</v>
+        <v>-124900</v>
       </c>
       <c r="J91" s="3">
-        <v>-98300</v>
+        <v>-100900</v>
       </c>
       <c r="K91" s="3">
         <v>-95800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5226500</v>
+        <v>-5365900</v>
       </c>
       <c r="E94" s="3">
-        <v>-8000100</v>
+        <v>-8213500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1092300</v>
+        <v>-1121400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6441100</v>
+        <v>-6612900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8303400</v>
+        <v>-8524800</v>
       </c>
       <c r="I94" s="3">
-        <v>1412800</v>
+        <v>1450500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3169200</v>
+        <v>-3253700</v>
       </c>
       <c r="K94" s="3">
         <v>942900</v>
@@ -3997,16 +3997,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-491200</v>
+        <v>-504300</v>
       </c>
       <c r="E96" s="3">
-        <v>-276300</v>
+        <v>-283600</v>
       </c>
       <c r="F96" s="3">
-        <v>-379200</v>
+        <v>-389300</v>
       </c>
       <c r="G96" s="3">
-        <v>-328200</v>
+        <v>-337000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-126200</v>
+        <v>-129600</v>
       </c>
       <c r="K96" s="3">
         <v>-373700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1439800</v>
+        <v>1478200</v>
       </c>
       <c r="E100" s="3">
-        <v>6806800</v>
+        <v>6988300</v>
       </c>
       <c r="F100" s="3">
-        <v>1775400</v>
+        <v>1822800</v>
       </c>
       <c r="G100" s="3">
-        <v>4628300</v>
+        <v>4751700</v>
       </c>
       <c r="H100" s="3">
-        <v>1137600</v>
+        <v>1167900</v>
       </c>
       <c r="I100" s="3">
-        <v>-45800</v>
+        <v>-47000</v>
       </c>
       <c r="J100" s="3">
-        <v>249800</v>
+        <v>256500</v>
       </c>
       <c r="K100" s="3">
         <v>-356200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="E101" s="3">
-        <v>795900</v>
+        <v>817200</v>
       </c>
       <c r="F101" s="3">
-        <v>-688800</v>
+        <v>-707100</v>
       </c>
       <c r="G101" s="3">
-        <v>143600</v>
+        <v>147400</v>
       </c>
       <c r="H101" s="3">
-        <v>175400</v>
+        <v>180100</v>
       </c>
       <c r="I101" s="3">
-        <v>-395000</v>
+        <v>-405500</v>
       </c>
       <c r="J101" s="3">
-        <v>-49100</v>
+        <v>-50400</v>
       </c>
       <c r="K101" s="3">
         <v>201600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10204600</v>
+        <v>10476700</v>
       </c>
       <c r="E102" s="3">
-        <v>2452400</v>
+        <v>2517800</v>
       </c>
       <c r="F102" s="3">
-        <v>2698800</v>
+        <v>2770800</v>
       </c>
       <c r="G102" s="3">
-        <v>-266500</v>
+        <v>-273600</v>
       </c>
       <c r="H102" s="3">
-        <v>-120300</v>
+        <v>-123500</v>
       </c>
       <c r="I102" s="3">
-        <v>-512300</v>
+        <v>-525900</v>
       </c>
       <c r="J102" s="3">
-        <v>710500</v>
+        <v>729400</v>
       </c>
       <c r="K102" s="3">
         <v>504100</v>
